--- a/Plotting/SciencePlanning2.xlsx
+++ b/Plotting/SciencePlanning2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Kerbal Space Program\GameData\SkyhawkKerbalism\Plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DCFD94-94DC-4296-9E40-4E60D4219F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07F5E29-F0A3-4119-8197-80BE094AD117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10548" yWindow="564" windowWidth="15600" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2196" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,7 @@
     <author>tc={D47781EA-64CD-40C8-A9E2-7F04F3404344}</author>
     <author>tc={9958ED9D-ED83-4FE1-A9F4-36FC33863058}</author>
     <author>tc={B94C6FB9-F021-4382-896E-E09CFC68A36E}</author>
+    <author>tc={D34D2204-ED10-4749-9EE9-8A1EC9350E5D}</author>
     <author>tc={EC008EAE-E6C3-4DB8-9866-46EA1EE8520A}</author>
     <author>tc={653E04C6-34B5-40A8-B8BD-22BD611FD0C4}</author>
     <author>tc={14ABA252-8575-4EFD-908D-8CFC6BD4EACC}</author>
@@ -60,6 +61,7 @@
     <author>tc={2DA95CAA-63CC-4D36-AB37-0FD68B7CF000}</author>
     <author>tc={4BCE4DED-0683-48F2-8FA3-01A147EBE6EB}</author>
     <author>tc={F99B5D72-597D-49D0-AED2-D197A6CD3D93}</author>
+    <author>tc={817180CB-BCAE-4DF5-AE78-6B31128A2F3E}</author>
     <author>tc={9598CB20-CFD1-45F8-AACE-902E8C1F748E}</author>
     <author>tc={DBBA6B56-5FB6-4DD3-9FD7-E12F346DB0E8}</author>
     <author>tc={E6C309BD-09DD-41C6-9D18-20907246A2E1}</author>
@@ -73,6 +75,7 @@
     <author>tc={88CF805A-9179-456B-A8B8-9EAA894AC628}</author>
     <author>tc={CCEDA396-E1ED-424B-85DD-5F8455F223C6}</author>
     <author>tc={8BBB282A-A9E1-42B7-9483-A81B797ADF89}</author>
+    <author>tc={6C58BFDE-74F5-4E6A-B092-F88585F4166A}</author>
     <author>tc={961FCAFA-59FB-4147-9612-1B02330CF6CD}</author>
     <author>tc={51ED5DD2-6FF2-4617-B23E-4A6C2D9CB09B}</author>
     <author>tc={474FA9BB-41E1-4C9E-ADE3-F0B70E653916}</author>
@@ -153,7 +156,15 @@
     half what a kerbonaut consumes per day</t>
       </text>
     </comment>
-    <comment ref="M26" authorId="8" shapeId="0" xr:uid="{EC008EAE-E6C3-4DB8-9866-46EA1EE8520A}">
+    <comment ref="C26" authorId="8" shapeId="0" xr:uid="{D34D2204-ED10-4749-9EE9-8A1EC9350E5D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    make this one a transmission with a very high transmission rate</t>
+      </text>
+    </comment>
+    <comment ref="M26" authorId="9" shapeId="0" xr:uid="{EC008EAE-E6C3-4DB8-9866-46EA1EE8520A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -161,7 +172,7 @@
     actual broadcast may not be long, but prepwork sure will be</t>
       </text>
     </comment>
-    <comment ref="M27" authorId="9" shapeId="0" xr:uid="{653E04C6-34B5-40A8-B8BD-22BD611FD0C4}">
+    <comment ref="M27" authorId="10" shapeId="0" xr:uid="{653E04C6-34B5-40A8-B8BD-22BD611FD0C4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -169,7 +180,7 @@
     About same length as Mars/Duna mission. Making sure the crew won't go cuckoo for coco puffs mid flight</t>
       </text>
     </comment>
-    <comment ref="M28" authorId="10" shapeId="0" xr:uid="{14ABA252-8575-4EFD-908D-8CFC6BD4EACC}">
+    <comment ref="M28" authorId="11" shapeId="0" xr:uid="{14ABA252-8575-4EFD-908D-8CFC6BD4EACC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -177,7 +188,7 @@
     ISS has been completed for about 10 years now</t>
       </text>
     </comment>
-    <comment ref="M30" authorId="11" shapeId="0" xr:uid="{46B95C89-383A-486D-895A-CD0A8599700A}">
+    <comment ref="M30" authorId="12" shapeId="0" xr:uid="{46B95C89-383A-486D-895A-CD0A8599700A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -185,7 +196,7 @@
     Basically just a quick elevator pitch</t>
       </text>
     </comment>
-    <comment ref="M31" authorId="12" shapeId="0" xr:uid="{7D3FCB4E-15B0-4178-9C3D-68E02C5ECB6E}">
+    <comment ref="M31" authorId="13" shapeId="0" xr:uid="{7D3FCB4E-15B0-4178-9C3D-68E02C5ECB6E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -193,7 +204,7 @@
     doesn't take that long to pick up rocks</t>
       </text>
     </comment>
-    <comment ref="F33" authorId="13" shapeId="0" xr:uid="{4AD0B25D-FBBE-4F3E-95BD-4349D90A118E}">
+    <comment ref="F33" authorId="14" shapeId="0" xr:uid="{4AD0B25D-FBBE-4F3E-95BD-4349D90A118E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -201,7 +212,7 @@
     All unmanned experiments need at least this much</t>
       </text>
     </comment>
-    <comment ref="K33" authorId="14" shapeId="0" xr:uid="{676C6664-70D9-4EA0-9D15-7122881486E3}">
+    <comment ref="K33" authorId="15" shapeId="0" xr:uid="{676C6664-70D9-4EA0-9D15-7122881486E3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -213,7 +224,7 @@
     1,3,5 at first, +1 for each tier up you go</t>
       </text>
     </comment>
-    <comment ref="L33" authorId="15" shapeId="0" xr:uid="{87A32ECE-6FD6-44FD-AB28-41C6A0E2542A}">
+    <comment ref="L33" authorId="16" shapeId="0" xr:uid="{87A32ECE-6FD6-44FD-AB28-41C6A0E2542A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -223,7 +234,7 @@
     Best bet is probs to make most defualt experiments less than 10 points, and then longer term ones or manned ones in that &lt; 50 range. LT ones go in the &lt;500 range, and ULT goes above that</t>
       </text>
     </comment>
-    <comment ref="F34" authorId="16" shapeId="0" xr:uid="{FAF16BF8-FBEE-4319-8B08-C83E0AC671DB}">
+    <comment ref="F34" authorId="17" shapeId="0" xr:uid="{FAF16BF8-FBEE-4319-8B08-C83E0AC671DB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -231,7 +242,7 @@
     Nigh all unmanned experiments need at least this much (covers data recording and other similar actions)</t>
       </text>
     </comment>
-    <comment ref="M52" authorId="17" shapeId="0" xr:uid="{A06F25E8-2D89-4199-B097-E45CA1EE1DCF}">
+    <comment ref="M52" authorId="18" shapeId="0" xr:uid="{A06F25E8-2D89-4199-B097-E45CA1EE1DCF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -239,7 +250,7 @@
     According to most videos I've seen in moves pretty quick, so lets say 30 seconds</t>
       </text>
     </comment>
-    <comment ref="M53" authorId="18" shapeId="0" xr:uid="{E8018AD4-E6A6-4612-9090-884922D0207D}">
+    <comment ref="M53" authorId="19" shapeId="0" xr:uid="{E8018AD4-E6A6-4612-9090-884922D0207D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -247,7 +258,7 @@
     about the same as stock Kerbalism</t>
       </text>
     </comment>
-    <comment ref="M54" authorId="19" shapeId="0" xr:uid="{C7611BF8-196F-4AA2-8441-7897CE9A4D57}">
+    <comment ref="M54" authorId="20" shapeId="0" xr:uid="{C7611BF8-196F-4AA2-8441-7897CE9A4D57}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -255,7 +266,7 @@
     Can you keep a lander operational this long? Can you?</t>
       </text>
     </comment>
-    <comment ref="M56" authorId="20" shapeId="0" xr:uid="{2DA95CAA-63CC-4D36-AB37-0FD68B7CF000}">
+    <comment ref="M57" authorId="21" shapeId="0" xr:uid="{2DA95CAA-63CC-4D36-AB37-0FD68B7CF000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -263,7 +274,7 @@
     enough that a flyby will give you useful science, but u will still need more if you want to get the full amount</t>
       </text>
     </comment>
-    <comment ref="B62" authorId="21" shapeId="0" xr:uid="{4BCE4DED-0683-48F2-8FA3-01A147EBE6EB}">
+    <comment ref="B63" authorId="22" shapeId="0" xr:uid="{4BCE4DED-0683-48F2-8FA3-01A147EBE6EB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -273,7 +284,7 @@
     still biome based tho</t>
       </text>
     </comment>
-    <comment ref="B63" authorId="22" shapeId="0" xr:uid="{F99B5D72-597D-49D0-AED2-D197A6CD3D93}">
+    <comment ref="B64" authorId="23" shapeId="0" xr:uid="{F99B5D72-597D-49D0-AED2-D197A6CD3D93}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -281,7 +292,15 @@
     might be hemisphere based - not sure</t>
       </text>
     </comment>
-    <comment ref="B64" authorId="23" shapeId="0" xr:uid="{9598CB20-CFD1-45F8-AACE-902E8C1F748E}">
+    <comment ref="M64" authorId="24" shapeId="0" xr:uid="{817180CB-BCAE-4DF5-AE78-6B31128A2F3E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    requires darkness so that may make things fun</t>
+      </text>
+    </comment>
+    <comment ref="B65" authorId="25" shapeId="0" xr:uid="{9598CB20-CFD1-45F8-AACE-902E8C1F748E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -289,7 +308,7 @@
     Lunar one only goes on Kerbin Moons and only gives one set of science, off-world one is per planet/moon and is less restrictive, but requires shadow</t>
       </text>
     </comment>
-    <comment ref="M64" authorId="24" shapeId="0" xr:uid="{DBBA6B56-5FB6-4DD3-9FD7-E12F346DB0E8}">
+    <comment ref="M65" authorId="26" shapeId="0" xr:uid="{DBBA6B56-5FB6-4DD3-9FD7-E12F346DB0E8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -297,7 +316,7 @@
     requires darkness so that may make things fun</t>
       </text>
     </comment>
-    <comment ref="B68" authorId="25" shapeId="0" xr:uid="{E6C309BD-09DD-41C6-9D18-20907246A2E1}">
+    <comment ref="B69" authorId="27" shapeId="0" xr:uid="{E6C309BD-09DD-41C6-9D18-20907246A2E1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -307,7 +326,7 @@
     requires a LOT of kerbals</t>
       </text>
     </comment>
-    <comment ref="M68" authorId="26" shapeId="0" xr:uid="{251F8309-3C96-4F71-A84E-614F66B277D2}">
+    <comment ref="M69" authorId="28" shapeId="0" xr:uid="{251F8309-3C96-4F71-A84E-614F66B277D2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -315,7 +334,7 @@
     If you can manage a 20 kerbal base for 10 years, you deserve the science!</t>
       </text>
     </comment>
-    <comment ref="M69" authorId="27" shapeId="0" xr:uid="{EC3E079B-A467-4380-8E4F-59C8A3C76F34}">
+    <comment ref="M70" authorId="29" shapeId="0" xr:uid="{EC3E079B-A467-4380-8E4F-59C8A3C76F34}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -323,7 +342,7 @@
     Big Base with huge power consumption gives lots of science for a very long time</t>
       </text>
     </comment>
-    <comment ref="M75" authorId="28" shapeId="0" xr:uid="{D385F571-7CA4-495B-8EA7-8EFD03DC1822}">
+    <comment ref="M76" authorId="30" shapeId="0" xr:uid="{D385F571-7CA4-495B-8EA7-8EFD03DC1822}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -331,7 +350,7 @@
     still a lot longer tho as its belt based</t>
       </text>
     </comment>
-    <comment ref="B77" authorId="29" shapeId="0" xr:uid="{DF1CCCF3-C1B7-4AFA-970F-CABF9FDDB4D6}">
+    <comment ref="B78" authorId="31" shapeId="0" xr:uid="{DF1CCCF3-C1B7-4AFA-970F-CABF9FDDB4D6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -339,7 +358,7 @@
     samples</t>
       </text>
     </comment>
-    <comment ref="B78" authorId="30" shapeId="0" xr:uid="{20C8BB2E-7232-484C-B6F1-8BCE6B2A819A}">
+    <comment ref="B79" authorId="32" shapeId="0" xr:uid="{20C8BB2E-7232-484C-B6F1-8BCE6B2A819A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -347,7 +366,7 @@
     samples</t>
       </text>
     </comment>
-    <comment ref="A79" authorId="31" shapeId="0" xr:uid="{73B7F616-0A10-45BE-AD6C-66A741CCCF15}">
+    <comment ref="A80" authorId="33" shapeId="0" xr:uid="{73B7F616-0A10-45BE-AD6C-66A741CCCF15}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -355,7 +374,7 @@
     Carried in materials Lab - most are unmanned, but a lot produce samples</t>
       </text>
     </comment>
-    <comment ref="M79" authorId="32" shapeId="0" xr:uid="{9A52AF0B-0F09-4A92-BE29-DE3B88558F9D}">
+    <comment ref="M80" authorId="34" shapeId="0" xr:uid="{9A52AF0B-0F09-4A92-BE29-DE3B88558F9D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -363,7 +382,7 @@
     Do you really want to be down there longer?</t>
       </text>
     </comment>
-    <comment ref="B80" authorId="33" shapeId="0" xr:uid="{88CF805A-9179-456B-A8B8-9EAA894AC628}">
+    <comment ref="B81" authorId="35" shapeId="0" xr:uid="{88CF805A-9179-456B-A8B8-9EAA894AC628}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -371,7 +390,7 @@
     Manned, samples</t>
       </text>
     </comment>
-    <comment ref="G80" authorId="34" shapeId="0" xr:uid="{CCEDA396-E1ED-424B-85DD-5F8455F223C6}">
+    <comment ref="G81" authorId="36" shapeId="0" xr:uid="{CCEDA396-E1ED-424B-85DD-5F8455F223C6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -379,7 +398,7 @@
     will say it involves taking a ton of surface samples from different locations</t>
       </text>
     </comment>
-    <comment ref="M80" authorId="35" shapeId="0" xr:uid="{8BBB282A-A9E1-42B7-9483-A81B797ADF89}">
+    <comment ref="M81" authorId="37" shapeId="0" xr:uid="{8BBB282A-A9E1-42B7-9483-A81B797ADF89}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -387,7 +406,15 @@
     long enough for the kerbals to get a ton of samples so long as they keep moving</t>
       </text>
     </comment>
-    <comment ref="M83" authorId="36" shapeId="0" xr:uid="{961FCAFA-59FB-4147-9612-1B02330CF6CD}">
+    <comment ref="A83" authorId="38" shapeId="0" xr:uid="{6C58BFDE-74F5-4E6A-B092-F88585F4166A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    will likely be on seperate parts only.</t>
+      </text>
+    </comment>
+    <comment ref="M84" authorId="39" shapeId="0" xr:uid="{961FCAFA-59FB-4147-9612-1B02330CF6CD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -395,7 +422,7 @@
     Seems like the NRO started launching Orions in the mid 80s so lets say 40 years in a funky low retrograde orbit</t>
       </text>
     </comment>
-    <comment ref="M86" authorId="37" shapeId="0" xr:uid="{51ED5DD2-6FF2-4617-B23E-4A6C2D9CB09B}">
+    <comment ref="M87" authorId="40" shapeId="0" xr:uid="{51ED5DD2-6FF2-4617-B23E-4A6C2D9CB09B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -403,7 +430,7 @@
     Makes it so it's more than just a quick pop out of the heliosphere - you're gonna have to be on an escape trajectory</t>
       </text>
     </comment>
-    <comment ref="B87" authorId="38" shapeId="0" xr:uid="{474FA9BB-41E1-4C9E-ADE3-F0B70E653916}">
+    <comment ref="B88" authorId="41" shapeId="0" xr:uid="{474FA9BB-41E1-4C9E-ADE3-F0B70E653916}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -411,7 +438,7 @@
     interplanetary orbit only</t>
       </text>
     </comment>
-    <comment ref="M87" authorId="39" shapeId="0" xr:uid="{EB1E3752-19AF-4AE0-A774-095E630A1675}">
+    <comment ref="M88" authorId="42" shapeId="0" xr:uid="{EB1E3752-19AF-4AE0-A774-095E630A1675}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -419,7 +446,7 @@
     Better hope it detects solar flares before they hit it...</t>
       </text>
     </comment>
-    <comment ref="M88" authorId="40" shapeId="0" xr:uid="{E84DFBFE-0271-48CF-86DA-A32745F5CA67}">
+    <comment ref="M89" authorId="43" shapeId="0" xr:uid="{E84DFBFE-0271-48CF-86DA-A32745F5CA67}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -427,7 +454,7 @@
     Based on wikipedia - btw this used film, so it's gonna need to be returned by hand.</t>
       </text>
     </comment>
-    <comment ref="M89" authorId="41" shapeId="0" xr:uid="{C41CB0B8-3C6B-43C2-8047-017DAA4591F5}">
+    <comment ref="M90" authorId="44" shapeId="0" xr:uid="{C41CB0B8-3C6B-43C2-8047-017DAA4591F5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -437,7 +464,7 @@
     Also based on wikipedia, it seems that they were in orbit for about 2 days each, and if we assume half of that is for assorted technical stuff, then half is for capturing</t>
       </text>
     </comment>
-    <comment ref="B90" authorId="42" shapeId="0" xr:uid="{D4E04E95-4E60-4750-A1E1-8ACB4F352D5F}">
+    <comment ref="B91" authorId="45" shapeId="0" xr:uid="{D4E04E95-4E60-4750-A1E1-8ACB4F352D5F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -445,7 +472,7 @@
     polar retrograde</t>
       </text>
     </comment>
-    <comment ref="M90" authorId="43" shapeId="0" xr:uid="{75567BF1-379E-4D4E-8F23-30E8255A236F}">
+    <comment ref="M91" authorId="46" shapeId="0" xr:uid="{75567BF1-379E-4D4E-8F23-30E8255A236F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -453,7 +480,7 @@
     Takes about a year to get cloud-free photoes of all land area</t>
       </text>
     </comment>
-    <comment ref="B91" authorId="44" shapeId="0" xr:uid="{56E50E1B-94ED-477F-B095-ED47C1C57BE2}">
+    <comment ref="B92" authorId="47" shapeId="0" xr:uid="{56E50E1B-94ED-477F-B095-ED47C1C57BE2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -461,7 +488,7 @@
     molynia</t>
       </text>
     </comment>
-    <comment ref="M97" authorId="45" shapeId="0" xr:uid="{22CD25CC-896C-4694-B549-A77A9A3A2123}">
+    <comment ref="M98" authorId="48" shapeId="0" xr:uid="{22CD25CC-896C-4694-B549-A77A9A3A2123}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -469,7 +496,7 @@
     lets hope for the best case scenario</t>
       </text>
     </comment>
-    <comment ref="M110" authorId="46" shapeId="0" xr:uid="{BFAA6533-E42F-4FFC-8A46-6880BE62B9CF}">
+    <comment ref="M111" authorId="49" shapeId="0" xr:uid="{BFAA6533-E42F-4FFC-8A46-6880BE62B9CF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -477,7 +504,7 @@
     We seem to have two at a time, and they've been active for about 50 years - I've halved the values to 25 per Sat as I highly doubt many players will finish them otherwise...</t>
       </text>
     </comment>
-    <comment ref="M111" authorId="47" shapeId="0" xr:uid="{FF4B742F-7FDA-4A40-87F2-85C4D8BF390E}">
+    <comment ref="M112" authorId="50" shapeId="0" xr:uid="{FF4B742F-7FDA-4A40-87F2-85C4D8BF390E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -485,7 +512,7 @@
     We seem to have two at a time, and it's hemispherical, so that means 1/2 GOES</t>
       </text>
     </comment>
-    <comment ref="M112" authorId="48" shapeId="0" xr:uid="{936ED0DE-655E-40A2-B8A2-0D4A0360B251}">
+    <comment ref="M113" authorId="51" shapeId="0" xr:uid="{936ED0DE-655E-40A2-B8A2-0D4A0360B251}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -493,7 +520,7 @@
     shrunk down a lot from GOES (it's equivalent) cuz 50 years is a long time for another planet (and also cuz its implied the science from GOES and LANDSAT is also cuz of uses that need civilization like weather forecasting)</t>
       </text>
     </comment>
-    <comment ref="M114" authorId="49" shapeId="0" xr:uid="{7D59DD35-2ED2-4FDB-94B1-1D2F6F09F225}">
+    <comment ref="M115" authorId="52" shapeId="0" xr:uid="{7D59DD35-2ED2-4FDB-94B1-1D2F6F09F225}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -506,7 +533,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="347">
   <si>
     <t>Group</t>
   </si>
@@ -661,9 +688,6 @@
     <t>IR Radiometry</t>
   </si>
   <si>
-    <t>bd_Irradiometer</t>
-  </si>
-  <si>
     <t>IR Spectrometry</t>
   </si>
   <si>
@@ -727,9 +751,6 @@
     <t>SIGINT</t>
   </si>
   <si>
-    <t>sss_SIGINT</t>
-  </si>
-  <si>
     <t>Solar Wind Studies</t>
   </si>
   <si>
@@ -778,9 +799,6 @@
     <t>Seismic Event Analysis</t>
   </si>
   <si>
-    <t>sk_seismicEventAnalysis</t>
-  </si>
-  <si>
     <t>sk_coreSampleDrill</t>
   </si>
   <si>
@@ -811,15 +829,6 @@
     <t>Weather</t>
   </si>
   <si>
-    <t>NIMBUS</t>
-  </si>
-  <si>
-    <t>GOES</t>
-  </si>
-  <si>
-    <t>LANDSAT</t>
-  </si>
-  <si>
     <t>WAMUU</t>
   </si>
   <si>
@@ -871,9 +880,6 @@
     <t>Orbital Surveilance Camera</t>
   </si>
   <si>
-    <t>sk_orbitalMappingCamera</t>
-  </si>
-  <si>
     <t>bd_surveilance</t>
   </si>
   <si>
@@ -895,9 +901,6 @@
     <t>ExoPlanet Survey Scope/KEPLER</t>
   </si>
   <si>
-    <t>Basic Weather Imagery/TIROS</t>
-  </si>
-  <si>
     <t>Crew Report</t>
   </si>
   <si>
@@ -1213,9 +1216,6 @@
     <t>30 seconds</t>
   </si>
   <si>
-    <t xml:space="preserve">2 years </t>
-  </si>
-  <si>
     <t>4 years</t>
   </si>
   <si>
@@ -1541,13 +1541,46 @@
   </si>
   <si>
     <t>sk_suborbitalXPlaneTesting</t>
+  </si>
+  <si>
+    <t>Laser Surface Scan</t>
+  </si>
+  <si>
+    <t>sk_laserSurfaceScan</t>
+  </si>
+  <si>
+    <t>10s</t>
+  </si>
+  <si>
+    <t>seismicScan</t>
+  </si>
+  <si>
+    <t>bd_SIGINT</t>
+  </si>
+  <si>
+    <t>sk_orbitalReconnaissanceCamera</t>
+  </si>
+  <si>
+    <t>Geostationary Weather Observations</t>
+  </si>
+  <si>
+    <t>Basic Weather Imagery</t>
+  </si>
+  <si>
+    <t>Advanced Weather Imaging</t>
+  </si>
+  <si>
+    <t>Sun-Sychronous Surface Observation Satellite</t>
+  </si>
+  <si>
+    <t>bd_IRradiometer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1577,6 +1610,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1599,13 +1638,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1917,6 +1957,9 @@
   <threadedComment ref="P18" dT="2022-02-19T18:30:20.11" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{B94C6FB9-F021-4382-896E-E09CFC68A36E}">
     <text>half what a kerbonaut consumes per day</text>
   </threadedComment>
+  <threadedComment ref="C26" dT="2022-03-30T17:04:53.84" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{D34D2204-ED10-4749-9EE9-8A1EC9350E5D}">
+    <text>make this one a transmission with a very high transmission rate</text>
+  </threadedComment>
   <threadedComment ref="M26" dT="2022-02-17T06:07:01.69" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{EC008EAE-E6C3-4DB8-9866-46EA1EE8520A}">
     <text>actual broadcast may not be long, but prepwork sure will be</text>
   </threadedComment>
@@ -1962,103 +2005,109 @@
   <threadedComment ref="M54" dT="2022-02-17T05:53:34.13" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{C7611BF8-196F-4AA2-8441-7897CE9A4D57}">
     <text>Can you keep a lander operational this long? Can you?</text>
   </threadedComment>
-  <threadedComment ref="M56" dT="2022-02-17T06:01:35.95" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{2DA95CAA-63CC-4D36-AB37-0FD68B7CF000}">
+  <threadedComment ref="M57" dT="2022-02-17T06:01:35.95" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{2DA95CAA-63CC-4D36-AB37-0FD68B7CF000}">
     <text>enough that a flyby will give you useful science, but u will still need more if you want to get the full amount</text>
   </threadedComment>
-  <threadedComment ref="B62" dT="2022-02-14T18:13:20.85" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{4BCE4DED-0683-48F2-8FA3-01A147EBE6EB}">
+  <threadedComment ref="B63" dT="2022-02-14T18:13:20.85" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{4BCE4DED-0683-48F2-8FA3-01A147EBE6EB}">
     <text>Also completes biome's Regional Geology Research experiment</text>
   </threadedComment>
-  <threadedComment ref="B62" dT="2022-02-14T18:24:19.83" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{42B721F7-29F0-49EC-AD28-31671EE20CB0}" parentId="{4BCE4DED-0683-48F2-8FA3-01A147EBE6EB}">
+  <threadedComment ref="B63" dT="2022-02-14T18:24:19.83" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{42B721F7-29F0-49EC-AD28-31671EE20CB0}" parentId="{4BCE4DED-0683-48F2-8FA3-01A147EBE6EB}">
     <text>still biome based tho</text>
   </threadedComment>
-  <threadedComment ref="B63" dT="2022-02-14T18:32:15.48" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{F99B5D72-597D-49D0-AED2-D197A6CD3D93}">
+  <threadedComment ref="B64" dT="2022-02-14T18:32:15.48" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{F99B5D72-597D-49D0-AED2-D197A6CD3D93}">
     <text>might be hemisphere based - not sure</text>
   </threadedComment>
-  <threadedComment ref="B64" dT="2022-02-14T18:01:17.89" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{9598CB20-CFD1-45F8-AACE-902E8C1F748E}">
+  <threadedComment ref="M64" dT="2022-02-17T06:06:40.88" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{817180CB-BCAE-4DF5-AE78-6B31128A2F3E}">
+    <text>requires darkness so that may make things fun</text>
+  </threadedComment>
+  <threadedComment ref="B65" dT="2022-02-14T18:01:17.89" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{9598CB20-CFD1-45F8-AACE-902E8C1F748E}">
     <text>Lunar one only goes on Kerbin Moons and only gives one set of science, off-world one is per planet/moon and is less restrictive, but requires shadow</text>
   </threadedComment>
-  <threadedComment ref="M64" dT="2022-02-17T06:06:40.88" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{DBBA6B56-5FB6-4DD3-9FD7-E12F346DB0E8}">
+  <threadedComment ref="M65" dT="2022-02-17T06:06:40.88" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{DBBA6B56-5FB6-4DD3-9FD7-E12F346DB0E8}">
     <text>requires darkness so that may make things fun</text>
   </threadedComment>
-  <threadedComment ref="B68" dT="2022-02-14T18:24:01.36" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{E6C309BD-09DD-41C6-9D18-20907246A2E1}">
+  <threadedComment ref="B69" dT="2022-02-14T18:24:01.36" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{E6C309BD-09DD-41C6-9D18-20907246A2E1}">
     <text>once per planet</text>
   </threadedComment>
-  <threadedComment ref="B68" dT="2022-02-14T18:31:01.02" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{0276A4DD-83BC-4B68-8E55-C763C4E47BEC}" parentId="{E6C309BD-09DD-41C6-9D18-20907246A2E1}">
+  <threadedComment ref="B69" dT="2022-02-14T18:31:01.02" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{0276A4DD-83BC-4B68-8E55-C763C4E47BEC}" parentId="{E6C309BD-09DD-41C6-9D18-20907246A2E1}">
     <text>requires a LOT of kerbals</text>
   </threadedComment>
-  <threadedComment ref="M68" dT="2022-02-17T06:04:47.75" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{251F8309-3C96-4F71-A84E-614F66B277D2}">
+  <threadedComment ref="M69" dT="2022-02-17T06:04:47.75" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{251F8309-3C96-4F71-A84E-614F66B277D2}">
     <text>If you can manage a 20 kerbal base for 10 years, you deserve the science!</text>
   </threadedComment>
-  <threadedComment ref="M69" dT="2022-02-17T06:05:17.78" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{EC3E079B-A467-4380-8E4F-59C8A3C76F34}">
+  <threadedComment ref="M70" dT="2022-02-17T06:05:17.78" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{EC3E079B-A467-4380-8E4F-59C8A3C76F34}">
     <text>Big Base with huge power consumption gives lots of science for a very long time</text>
   </threadedComment>
-  <threadedComment ref="M75" dT="2022-02-17T06:00:39.79" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{D385F571-7CA4-495B-8EA7-8EFD03DC1822}">
+  <threadedComment ref="M76" dT="2022-02-17T06:00:39.79" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{D385F571-7CA4-495B-8EA7-8EFD03DC1822}">
     <text>still a lot longer tho as its belt based</text>
   </threadedComment>
-  <threadedComment ref="B77" dT="2022-02-14T18:16:49.09" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{DF1CCCF3-C1B7-4AFA-970F-CABF9FDDB4D6}">
+  <threadedComment ref="B78" dT="2022-02-14T18:16:49.09" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{DF1CCCF3-C1B7-4AFA-970F-CABF9FDDB4D6}">
     <text>samples</text>
   </threadedComment>
-  <threadedComment ref="B78" dT="2022-02-14T18:17:04.43" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{20C8BB2E-7232-484C-B6F1-8BCE6B2A819A}">
+  <threadedComment ref="B79" dT="2022-02-14T18:17:04.43" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{20C8BB2E-7232-484C-B6F1-8BCE6B2A819A}">
     <text>samples</text>
   </threadedComment>
-  <threadedComment ref="A79" dT="2022-02-14T18:16:32.93" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{73B7F616-0A10-45BE-AD6C-66A741CCCF15}">
+  <threadedComment ref="A80" dT="2022-02-14T18:16:32.93" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{73B7F616-0A10-45BE-AD6C-66A741CCCF15}">
     <text>Carried in materials Lab - most are unmanned, but a lot produce samples</text>
   </threadedComment>
-  <threadedComment ref="M79" dT="2022-02-17T06:05:32.74" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{9A52AF0B-0F09-4A92-BE29-DE3B88558F9D}">
+  <threadedComment ref="M80" dT="2022-02-17T06:05:32.74" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{9A52AF0B-0F09-4A92-BE29-DE3B88558F9D}">
     <text>Do you really want to be down there longer?</text>
   </threadedComment>
-  <threadedComment ref="B80" dT="2022-02-14T18:16:44.59" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{88CF805A-9179-456B-A8B8-9EAA894AC628}">
+  <threadedComment ref="B81" dT="2022-02-14T18:16:44.59" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{88CF805A-9179-456B-A8B8-9EAA894AC628}">
     <text>Manned, samples</text>
   </threadedComment>
-  <threadedComment ref="G80" dT="2022-03-07T06:24:57.83" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{CCEDA396-E1ED-424B-85DD-5F8455F223C6}">
+  <threadedComment ref="G81" dT="2022-03-07T06:24:57.83" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{CCEDA396-E1ED-424B-85DD-5F8455F223C6}">
     <text>will say it involves taking a ton of surface samples from different locations</text>
   </threadedComment>
-  <threadedComment ref="M80" dT="2022-02-17T06:06:03.05" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{8BBB282A-A9E1-42B7-9483-A81B797ADF89}">
+  <threadedComment ref="M81" dT="2022-02-17T06:06:03.05" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{8BBB282A-A9E1-42B7-9483-A81B797ADF89}">
     <text>long enough for the kerbals to get a ton of samples so long as they keep moving</text>
   </threadedComment>
-  <threadedComment ref="M83" dT="2022-02-17T05:43:27.92" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{961FCAFA-59FB-4147-9612-1B02330CF6CD}">
+  <threadedComment ref="A83" dT="2022-03-15T16:42:53.08" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{6C58BFDE-74F5-4E6A-B092-F88585F4166A}">
+    <text>will likely be on seperate parts only.</text>
+  </threadedComment>
+  <threadedComment ref="M84" dT="2022-02-17T05:43:27.92" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{961FCAFA-59FB-4147-9612-1B02330CF6CD}">
     <text>Seems like the NRO started launching Orions in the mid 80s so lets say 40 years in a funky low retrograde orbit</text>
   </threadedComment>
-  <threadedComment ref="M86" dT="2022-02-17T05:47:10.00" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{51ED5DD2-6FF2-4617-B23E-4A6C2D9CB09B}">
+  <threadedComment ref="M87" dT="2022-02-17T05:47:10.00" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{51ED5DD2-6FF2-4617-B23E-4A6C2D9CB09B}">
     <text>Makes it so it's more than just a quick pop out of the heliosphere - you're gonna have to be on an escape trajectory</text>
   </threadedComment>
-  <threadedComment ref="B87" dT="2022-02-14T18:04:02.60" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{474FA9BB-41E1-4C9E-ADE3-F0B70E653916}">
+  <threadedComment ref="B88" dT="2022-02-14T18:04:02.60" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{474FA9BB-41E1-4C9E-ADE3-F0B70E653916}">
     <text>interplanetary orbit only</text>
   </threadedComment>
-  <threadedComment ref="M87" dT="2022-02-17T05:57:00.96" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{EB1E3752-19AF-4AE0-A774-095E630A1675}">
+  <threadedComment ref="M88" dT="2022-02-17T05:57:00.96" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{EB1E3752-19AF-4AE0-A774-095E630A1675}">
     <text>Better hope it detects solar flares before they hit it...</text>
   </threadedComment>
-  <threadedComment ref="M88" dT="2022-02-17T05:48:15.68" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{E84DFBFE-0271-48CF-86DA-A32745F5CA67}">
+  <threadedComment ref="M89" dT="2022-02-17T05:48:15.68" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{E84DFBFE-0271-48CF-86DA-A32745F5CA67}">
     <text>Based on wikipedia - btw this used film, so it's gonna need to be returned by hand.</text>
   </threadedComment>
-  <threadedComment ref="M89" dT="2022-02-17T05:39:26.97" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{C41CB0B8-3C6B-43C2-8047-017DAA4591F5}">
+  <threadedComment ref="M90" dT="2022-02-17T05:39:26.97" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{C41CB0B8-3C6B-43C2-8047-017DAA4591F5}">
     <text>Just grabbing a few quick images of key targets</text>
   </threadedComment>
-  <threadedComment ref="M89" dT="2022-02-17T05:41:37.13" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{51922344-0465-4574-851B-ABFA826C7EAD}" parentId="{C41CB0B8-3C6B-43C2-8047-017DAA4591F5}">
+  <threadedComment ref="M90" dT="2022-02-17T05:41:37.13" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{51922344-0465-4574-851B-ABFA826C7EAD}" parentId="{C41CB0B8-3C6B-43C2-8047-017DAA4591F5}">
     <text>Also based on wikipedia, it seems that they were in orbit for about 2 days each, and if we assume half of that is for assorted technical stuff, then half is for capturing</text>
   </threadedComment>
-  <threadedComment ref="B90" dT="2022-02-14T18:20:51.62" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{D4E04E95-4E60-4750-A1E1-8ACB4F352D5F}">
+  <threadedComment ref="B91" dT="2022-02-14T18:20:51.62" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{D4E04E95-4E60-4750-A1E1-8ACB4F352D5F}">
     <text>polar retrograde</text>
   </threadedComment>
-  <threadedComment ref="M90" dT="2022-02-16T21:19:22.76" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{75567BF1-379E-4D4E-8F23-30E8255A236F}">
+  <threadedComment ref="M91" dT="2022-02-16T21:19:22.76" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{75567BF1-379E-4D4E-8F23-30E8255A236F}">
     <text>Takes about a year to get cloud-free photoes of all land area</text>
   </threadedComment>
-  <threadedComment ref="B91" dT="2022-02-14T18:20:42.74" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{56E50E1B-94ED-477F-B095-ED47C1C57BE2}">
+  <threadedComment ref="B92" dT="2022-02-14T18:20:42.74" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{56E50E1B-94ED-477F-B095-ED47C1C57BE2}">
     <text>molynia</text>
   </threadedComment>
-  <threadedComment ref="M97" dT="2022-02-17T05:35:22.11" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{22CD25CC-896C-4694-B549-A77A9A3A2123}">
+  <threadedComment ref="M98" dT="2022-02-17T05:35:22.11" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{22CD25CC-896C-4694-B549-A77A9A3A2123}">
     <text>lets hope for the best case scenario</text>
   </threadedComment>
-  <threadedComment ref="M110" dT="2022-02-17T05:27:28.97" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{BFAA6533-E42F-4FFC-8A46-6880BE62B9CF}">
+  <threadedComment ref="M111" dT="2022-02-17T05:27:28.97" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{BFAA6533-E42F-4FFC-8A46-6880BE62B9CF}">
     <text>We seem to have two at a time, and they've been active for about 50 years - I've halved the values to 25 per Sat as I highly doubt many players will finish them otherwise...</text>
   </threadedComment>
-  <threadedComment ref="M111" dT="2022-02-17T05:27:28.97" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{FF4B742F-7FDA-4A40-87F2-85C4D8BF390E}">
+  <threadedComment ref="M112" dT="2022-02-17T05:27:28.97" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{FF4B742F-7FDA-4A40-87F2-85C4D8BF390E}">
     <text>We seem to have two at a time, and it's hemispherical, so that means 1/2 GOES</text>
   </threadedComment>
-  <threadedComment ref="M112" dT="2022-02-17T05:38:46.20" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{936ED0DE-655E-40A2-B8A2-0D4A0360B251}">
+  <threadedComment ref="M113" dT="2022-02-17T05:38:46.20" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{936ED0DE-655E-40A2-B8A2-0D4A0360B251}">
     <text>shrunk down a lot from GOES (it's equivalent) cuz 50 years is a long time for another planet (and also cuz its implied the science from GOES and LANDSAT is also cuz of uses that need civilization like weather forecasting)</text>
   </threadedComment>
-  <threadedComment ref="M114" dT="2022-02-17T05:36:40.85" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{7D59DD35-2ED2-4FDB-94B1-1D2F6F09F225}">
+  <threadedComment ref="M115" dT="2022-02-17T05:36:40.85" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{7D59DD35-2ED2-4FDB-94B1-1D2F6F09F225}">
     <text>Not like you are gonna survive the radiation much longer than that...</text>
   </threadedComment>
 </ThreadedComments>
@@ -2066,10 +2115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W114"/>
+  <dimension ref="A1:W115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2078,14 +2127,14 @@
     <col min="2" max="2" width="37.77734375" customWidth="1"/>
     <col min="3" max="3" width="29.6640625" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="5" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="12.88671875" hidden="1" customWidth="1"/>
     <col min="10" max="12" width="12.88671875" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" customWidth="1"/>
     <col min="14" max="14" width="17.21875" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="17.109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="17.21875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="18.77734375" customWidth="1"/>
+    <col min="16" max="16" width="17.109375" customWidth="1"/>
+    <col min="17" max="17" width="17.21875" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" customWidth="1"/>
     <col min="19" max="19" width="16.77734375" customWidth="1"/>
     <col min="20" max="20" width="24.109375" bestFit="1" customWidth="1"/>
@@ -2105,72 +2154,72 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -2188,11 +2237,14 @@
         <f t="shared" ref="H2:H33" si="0">G2/1024</f>
         <v>1</v>
       </c>
+      <c r="K2">
+        <v>50</v>
+      </c>
       <c r="L2">
         <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="N2">
         <v>15</v>
@@ -2210,21 +2262,21 @@
         <v>72000</v>
       </c>
       <c r="U2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -2242,11 +2294,14 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
       <c r="L3">
         <v>75</v>
       </c>
       <c r="M3" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="N3">
         <v>15</v>
@@ -2264,21 +2319,21 @@
         <v>108000</v>
       </c>
       <c r="U3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -2296,11 +2351,14 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="K4">
+        <v>200</v>
+      </c>
       <c r="L4">
         <v>100</v>
       </c>
       <c r="M4" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="N4">
         <v>15</v>
@@ -2318,21 +2376,21 @@
         <v>144000</v>
       </c>
       <c r="U4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -2350,11 +2408,14 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="K5">
+        <v>400</v>
+      </c>
       <c r="L5">
         <v>150</v>
       </c>
       <c r="M5" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="N5">
         <v>15</v>
@@ -2372,21 +2433,21 @@
         <v>216000</v>
       </c>
       <c r="U5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -2404,11 +2465,14 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="K6">
+        <v>800</v>
+      </c>
       <c r="L6">
         <v>200</v>
       </c>
       <c r="M6" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="N6">
         <v>15</v>
@@ -2426,21 +2490,21 @@
         <v>288000</v>
       </c>
       <c r="U6" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V6" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -2471,7 +2535,7 @@
         <v>25</v>
       </c>
       <c r="M7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="N7">
         <v>900</v>
@@ -2489,21 +2553,21 @@
         <v>600</v>
       </c>
       <c r="U7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="V7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" t="s">
         <v>96</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -2531,7 +2595,7 @@
         <v>9</v>
       </c>
       <c r="M8" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="N8">
         <v>108000</v>
@@ -2549,21 +2613,21 @@
         <v>1.8</v>
       </c>
       <c r="U8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -2591,7 +2655,7 @@
         <v>200</v>
       </c>
       <c r="M9" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="N9">
         <v>36814180</v>
@@ -2609,21 +2673,21 @@
         <v>0.11734608783897944</v>
       </c>
       <c r="U9" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="V9" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B10" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C10" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -2648,7 +2712,7 @@
         <v>5</v>
       </c>
       <c r="M10" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="N10">
         <v>300</v>
@@ -2668,13 +2732,13 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B11" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C11" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -2699,7 +2763,7 @@
         <v>24</v>
       </c>
       <c r="M11" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="N11">
         <v>3600</v>
@@ -2719,13 +2783,13 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B12" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C12" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -2750,7 +2814,7 @@
         <v>10</v>
       </c>
       <c r="M12" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="N12">
         <v>1800</v>
@@ -2770,13 +2834,13 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B13" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C13" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -2801,7 +2865,7 @@
         <v>70</v>
       </c>
       <c r="M13" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="N13">
         <v>300</v>
@@ -2821,13 +2885,13 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C14" t="s">
         <v>322</v>
-      </c>
-      <c r="B14" t="s">
-        <v>326</v>
-      </c>
-      <c r="C14" t="s">
-        <v>331</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -2852,7 +2916,7 @@
         <v>20</v>
       </c>
       <c r="M14" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="N14">
         <v>1800</v>
@@ -2872,13 +2936,13 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B15" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C15" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -2903,7 +2967,7 @@
         <v>280</v>
       </c>
       <c r="M15" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="N15">
         <v>300</v>
@@ -2915,13 +2979,13 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B16" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C16" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -2946,7 +3010,7 @@
         <v>560</v>
       </c>
       <c r="M16" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="N16">
         <v>300</v>
@@ -2958,13 +3022,13 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -2989,7 +3053,7 @@
         <v>15</v>
       </c>
       <c r="M17" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="N17">
         <v>64800</v>
@@ -3007,21 +3071,21 @@
         <v>5</v>
       </c>
       <c r="U17" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V17" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -3046,13 +3110,13 @@
         <v>30</v>
       </c>
       <c r="M18" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N18">
         <v>151200</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18">
@@ -3068,21 +3132,21 @@
         <v>4.2857142857142856</v>
       </c>
       <c r="U18" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V18" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -3101,19 +3165,19 @@
         <v>1.220703125E-4</v>
       </c>
       <c r="K19">
-        <v>10</v>
+        <v>7.25</v>
       </c>
       <c r="L19">
         <v>8</v>
       </c>
       <c r="M19" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="N19">
         <v>300</v>
       </c>
       <c r="O19" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="R19">
         <f t="shared" si="5"/>
@@ -3128,18 +3192,18 @@
         <v>576</v>
       </c>
       <c r="U19" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -3150,32 +3214,38 @@
       <c r="F20">
         <v>0.05</v>
       </c>
+      <c r="G20">
+        <v>512</v>
+      </c>
       <c r="H20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="K20">
+        <v>70</v>
       </c>
       <c r="L20">
         <v>50</v>
       </c>
       <c r="M20" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="N20">
         <v>7200</v>
       </c>
       <c r="O20" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="P20" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="R20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.1111111111111111E-2</v>
       </c>
       <c r="S20">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>71.111111111111114</v>
       </c>
       <c r="T20">
         <f t="shared" si="7"/>
@@ -3184,13 +3254,13 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -3201,29 +3271,35 @@
       <c r="F21">
         <v>0.05</v>
       </c>
+      <c r="G21">
+        <v>1024</v>
+      </c>
       <c r="H21" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>140</v>
       </c>
       <c r="L21">
         <v>100</v>
       </c>
       <c r="M21" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="N21">
         <v>7200</v>
       </c>
       <c r="O21" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="R21">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.14222222222222222</v>
       </c>
       <c r="S21">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>142.22222222222223</v>
       </c>
       <c r="T21">
         <f t="shared" si="7"/>
@@ -3232,13 +3308,13 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C22" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -3249,32 +3325,38 @@
       <c r="F22">
         <v>0.05</v>
       </c>
+      <c r="G22">
+        <v>1024</v>
+      </c>
       <c r="H22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>140</v>
       </c>
       <c r="L22">
         <v>100</v>
       </c>
       <c r="M22" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="N22">
         <v>21600</v>
       </c>
       <c r="O22" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="P22" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="R22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.7407407407407405E-2</v>
       </c>
       <c r="S22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>47.407407407407405</v>
       </c>
       <c r="T22">
         <f t="shared" si="7"/>
@@ -3283,13 +3365,13 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -3300,32 +3382,38 @@
       <c r="F23">
         <v>0.05</v>
       </c>
+      <c r="G23">
+        <v>2048</v>
+      </c>
       <c r="H23" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>280</v>
       </c>
       <c r="L23">
         <v>200</v>
       </c>
       <c r="M23" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="N23">
         <v>7200</v>
       </c>
       <c r="O23" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="P23" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="R23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.28444444444444444</v>
       </c>
       <c r="S23">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>284.44444444444446</v>
       </c>
       <c r="T23">
         <f t="shared" si="7"/>
@@ -3334,13 +3422,13 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C24" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
@@ -3351,29 +3439,35 @@
       <c r="F24">
         <v>0.05</v>
       </c>
+      <c r="G24">
+        <v>2048</v>
+      </c>
       <c r="H24" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>280</v>
       </c>
       <c r="L24">
         <v>200</v>
       </c>
       <c r="M24" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="N24">
         <v>43200</v>
       </c>
       <c r="O24" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="R24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.7407407407407405E-2</v>
       </c>
       <c r="S24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>47.407407407407405</v>
       </c>
       <c r="T24">
         <f t="shared" si="7"/>
@@ -3382,13 +3476,13 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -3399,29 +3493,35 @@
       <c r="F25">
         <v>0.05</v>
       </c>
+      <c r="G25">
+        <v>3072</v>
+      </c>
       <c r="H25" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>420</v>
       </c>
       <c r="L25">
         <v>500</v>
       </c>
       <c r="M25" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="N25">
         <v>9203545</v>
       </c>
       <c r="O25" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="R25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.3378442763087483E-4</v>
       </c>
       <c r="S25">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.33378442763087485</v>
       </c>
       <c r="T25">
         <f t="shared" si="7"/>
@@ -3430,13 +3530,13 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
@@ -3447,29 +3547,35 @@
       <c r="F26">
         <v>3.7</v>
       </c>
+      <c r="G26">
+        <v>2048</v>
+      </c>
       <c r="H26" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>280</v>
       </c>
       <c r="L26">
         <v>400</v>
       </c>
       <c r="M26" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="N26">
         <v>21600</v>
       </c>
       <c r="O26" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="R26">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.481481481481481E-2</v>
       </c>
       <c r="S26">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>94.81481481481481</v>
       </c>
       <c r="T26">
         <f t="shared" si="7"/>
@@ -3478,13 +3584,13 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B27" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C27" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -3495,29 +3601,35 @@
       <c r="F27">
         <v>0.05</v>
       </c>
+      <c r="G27">
+        <v>8192</v>
+      </c>
       <c r="H27" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="K27">
+        <v>1120</v>
       </c>
       <c r="L27">
         <v>1000</v>
       </c>
       <c r="M27" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="N27">
         <v>18407090</v>
       </c>
       <c r="O27" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="R27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.4504590350783314E-4</v>
       </c>
       <c r="S27">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.44504590350783313</v>
       </c>
       <c r="T27">
         <f t="shared" si="7"/>
@@ -3526,13 +3638,13 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
         <v>164</v>
       </c>
-      <c r="B28" t="s">
-        <v>172</v>
-      </c>
       <c r="C28" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
@@ -3543,29 +3655,35 @@
       <c r="F28">
         <v>0.05</v>
       </c>
+      <c r="G28">
+        <v>32768</v>
+      </c>
       <c r="H28" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="K28">
+        <v>5600</v>
       </c>
       <c r="L28">
         <v>5000</v>
       </c>
       <c r="M28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="N28">
         <v>920354500</v>
       </c>
       <c r="O28" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="R28">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.5603672280626653E-5</v>
       </c>
       <c r="S28">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.560367228062665E-2</v>
       </c>
       <c r="T28">
         <f t="shared" si="7"/>
@@ -3574,13 +3692,13 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C29" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -3591,29 +3709,35 @@
       <c r="F29">
         <v>1.9</v>
       </c>
+      <c r="G29">
+        <v>16384</v>
+      </c>
       <c r="H29" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="K29">
+        <v>2800</v>
       </c>
       <c r="L29">
         <v>2500</v>
       </c>
       <c r="M29" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="N29">
         <v>46017725</v>
       </c>
       <c r="O29" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="R29">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.560367228062665E-4</v>
       </c>
       <c r="S29">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.35603672280626653</v>
       </c>
       <c r="T29">
         <f t="shared" si="7"/>
@@ -3622,13 +3746,13 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -3646,11 +3770,14 @@
         <f t="shared" si="0"/>
         <v>1.220703125E-4</v>
       </c>
+      <c r="K30">
+        <v>12.5</v>
+      </c>
       <c r="L30">
         <v>12</v>
       </c>
       <c r="M30" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="N30">
         <v>30</v>
@@ -3668,21 +3795,21 @@
         <v>8640</v>
       </c>
       <c r="U30" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V30" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -3700,11 +3827,14 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="K31">
+        <v>50</v>
+      </c>
       <c r="L31">
         <v>50</v>
       </c>
       <c r="M31" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="N31">
         <v>15</v>
@@ -3722,21 +3852,21 @@
         <v>72000</v>
       </c>
       <c r="U31" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V31" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B32" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C32" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -3754,11 +3884,14 @@
         <f t="shared" si="0"/>
         <v>1.220703125E-4</v>
       </c>
+      <c r="K32">
+        <v>25</v>
+      </c>
       <c r="L32">
         <v>35</v>
       </c>
       <c r="M32" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="R32" t="e">
         <f t="shared" si="5"/>
@@ -3809,7 +3942,7 @@
         <v>2</v>
       </c>
       <c r="M33" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="N33">
         <v>30</v>
@@ -3827,10 +3960,10 @@
         <v>1440</v>
       </c>
       <c r="U33" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V33" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
@@ -3856,7 +3989,7 @@
         <v>1024</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" ref="H34:H65" si="8">G34/1024</f>
+        <f t="shared" ref="H34:H66" si="8">G34/1024</f>
         <v>1</v>
       </c>
       <c r="K34">
@@ -3866,7 +3999,7 @@
         <v>10</v>
       </c>
       <c r="M34" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="N34">
         <v>60</v>
@@ -3884,10 +4017,10 @@
         <v>3600</v>
       </c>
       <c r="U34" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V34" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
@@ -3926,7 +4059,7 @@
         <v>3</v>
       </c>
       <c r="M35" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="N35">
         <v>600</v>
@@ -3944,10 +4077,10 @@
         <v>108</v>
       </c>
       <c r="U35" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V35" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
@@ -3986,7 +4119,7 @@
         <v>6</v>
       </c>
       <c r="M36" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="N36">
         <v>600</v>
@@ -4004,10 +4137,10 @@
         <v>216</v>
       </c>
       <c r="U36" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V36" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
@@ -4046,7 +4179,7 @@
         <v>5</v>
       </c>
       <c r="M37" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="N37">
         <v>3600</v>
@@ -4064,10 +4197,10 @@
         <v>30</v>
       </c>
       <c r="U37" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V37" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
@@ -4075,10 +4208,10 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -4106,7 +4239,7 @@
         <v>4</v>
       </c>
       <c r="M38" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="N38">
         <v>600</v>
@@ -4124,10 +4257,10 @@
         <v>144</v>
       </c>
       <c r="U38" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V38" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
@@ -4166,7 +4299,7 @@
         <v>4</v>
       </c>
       <c r="M39" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="N39">
         <v>1800</v>
@@ -4184,10 +4317,10 @@
         <v>48</v>
       </c>
       <c r="U39" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V39" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
@@ -4198,7 +4331,7 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>346</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -4226,13 +4359,13 @@
         <v>5</v>
       </c>
       <c r="M40" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="N40">
         <v>21600</v>
       </c>
       <c r="O40" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="R40">
         <f t="shared" si="5"/>
@@ -4247,10 +4380,10 @@
         <v>5</v>
       </c>
       <c r="U40" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V40" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
@@ -4289,13 +4422,13 @@
         <v>3</v>
       </c>
       <c r="M41" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="N41">
         <v>900</v>
       </c>
       <c r="O41" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="R41">
         <f t="shared" si="5"/>
@@ -4310,10 +4443,10 @@
         <v>72</v>
       </c>
       <c r="U41" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V41" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
@@ -4321,10 +4454,10 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -4352,7 +4485,7 @@
         <v>12</v>
       </c>
       <c r="M42" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="N42">
         <v>900</v>
@@ -4370,10 +4503,10 @@
         <v>288</v>
       </c>
       <c r="U42" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="V42" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
@@ -4412,7 +4545,7 @@
         <v>120</v>
       </c>
       <c r="M43" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="N43">
         <f>9203545*2</f>
@@ -4431,10 +4564,10 @@
         <v>0.14081530540677534</v>
       </c>
       <c r="U43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
@@ -4445,7 +4578,7 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -4473,7 +4606,7 @@
         <v>6</v>
       </c>
       <c r="M44" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="N44">
         <v>300</v>
@@ -4491,10 +4624,10 @@
         <v>432</v>
       </c>
       <c r="U44" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V44" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
@@ -4533,7 +4666,7 @@
         <v>8</v>
       </c>
       <c r="M45" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="N45">
         <v>7200</v>
@@ -4551,10 +4684,10 @@
         <v>24</v>
       </c>
       <c r="U45" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V45" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
@@ -4593,7 +4726,7 @@
         <v>8</v>
       </c>
       <c r="M46" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="N46">
         <v>21600</v>
@@ -4611,10 +4744,10 @@
         <v>8</v>
       </c>
       <c r="U46" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V46" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
@@ -4653,7 +4786,7 @@
         <v>30</v>
       </c>
       <c r="M47" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="N47">
         <v>3888000</v>
@@ -4671,21 +4804,21 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="U47" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V47" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" t="s">
         <v>66</v>
-      </c>
-      <c r="C48" t="s">
-        <v>67</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -4713,7 +4846,7 @@
         <v>20</v>
       </c>
       <c r="M48" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="N48">
         <v>9203545</v>
@@ -4731,21 +4864,21 @@
         <v>4.6938435135591774E-2</v>
       </c>
       <c r="U48" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V48" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" t="s">
         <v>64</v>
-      </c>
-      <c r="C49" t="s">
-        <v>65</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -4773,39 +4906,39 @@
         <v>13</v>
       </c>
       <c r="M49" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N49">
         <v>1944000</v>
       </c>
       <c r="R49">
-        <f t="shared" ref="R49:R82" si="9">G49/N49</f>
+        <f t="shared" ref="R49:R83" si="9">G49/N49</f>
         <v>8.3333333333333339E-4</v>
       </c>
       <c r="S49">
-        <f t="shared" ref="S49:S80" si="10">R49*1000</f>
+        <f t="shared" ref="S49:S81" si="10">R49*1000</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="T49">
-        <f t="shared" ref="T49:T82" si="11">L49/(N49/21600)</f>
+        <f t="shared" ref="T49:T83" si="11">L49/(N49/21600)</f>
         <v>0.14444444444444443</v>
       </c>
       <c r="U49" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V49" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D50" t="s">
         <v>33</v>
@@ -4833,7 +4966,7 @@
         <v>500</v>
       </c>
       <c r="M50" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="N50">
         <v>92035450</v>
@@ -4851,21 +4984,21 @@
         <v>0.11734608783897944</v>
       </c>
       <c r="U50" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="V50" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -4893,7 +5026,7 @@
         <v>10</v>
       </c>
       <c r="M51" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="N51">
         <v>30</v>
@@ -4911,21 +5044,21 @@
         <v>7200</v>
       </c>
       <c r="U51" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="V51" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C52" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -4953,7 +5086,7 @@
         <v>25</v>
       </c>
       <c r="M52" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="N52">
         <v>30</v>
@@ -4971,21 +5104,21 @@
         <v>18000</v>
       </c>
       <c r="U52" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="V52" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
         <v>23</v>
@@ -5013,7 +5146,7 @@
         <v>12</v>
       </c>
       <c r="M53" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="N53">
         <v>50400</v>
@@ -5031,21 +5164,21 @@
         <v>5.1428571428571423</v>
       </c>
       <c r="U53" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V53" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>339</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
@@ -5073,7 +5206,7 @@
         <v>50</v>
       </c>
       <c r="M54" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="N54">
         <v>92035450</v>
@@ -5091,73 +5224,39 @@
         <v>1.1734608783897945E-2</v>
       </c>
       <c r="U54" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="V54" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" t="s">
-        <v>56</v>
+        <v>82</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>337</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F55">
-        <v>0.05</v>
+        <v>10</v>
       </c>
       <c r="G55">
-        <v>1024</v>
-      </c>
-      <c r="H55" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="K55">
-        <v>5</v>
-      </c>
-      <c r="L55">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M55" t="s">
-        <v>226</v>
-      </c>
-      <c r="N55">
-        <v>1800</v>
-      </c>
-      <c r="O55" t="s">
-        <v>264</v>
-      </c>
-      <c r="P55" t="s">
-        <v>319</v>
-      </c>
-      <c r="R55">
-        <f t="shared" si="9"/>
-        <v>0.56888888888888889</v>
-      </c>
-      <c r="S55">
-        <f t="shared" si="10"/>
-        <v>568.88888888888891</v>
-      </c>
-      <c r="T55">
-        <f t="shared" si="11"/>
-        <v>60</v>
-      </c>
-      <c r="U55" t="s">
-        <v>160</v>
-      </c>
-      <c r="V55" t="s">
-        <v>160</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
@@ -5165,59 +5264,62 @@
         <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G56">
-        <v>16</v>
+        <v>1024</v>
       </c>
       <c r="H56" s="5">
         <f t="shared" si="8"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L56">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M56" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="N56">
         <v>1800</v>
       </c>
+      <c r="O56" t="s">
+        <v>255</v>
+      </c>
+      <c r="P56" t="s">
+        <v>310</v>
+      </c>
       <c r="R56">
         <f t="shared" si="9"/>
-        <v>8.8888888888888889E-3</v>
+        <v>0.56888888888888889</v>
       </c>
       <c r="S56">
         <f t="shared" si="10"/>
-        <v>8.8888888888888893</v>
+        <v>568.88888888888891</v>
       </c>
       <c r="T56">
         <f t="shared" si="11"/>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="U56" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V56" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
@@ -5225,10 +5327,10 @@
         <v>47</v>
       </c>
       <c r="B57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" t="s">
         <v>53</v>
-      </c>
-      <c r="C57" t="s">
-        <v>55</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -5256,7 +5358,7 @@
         <v>10</v>
       </c>
       <c r="M57" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="N57">
         <v>1800</v>
@@ -5274,10 +5376,10 @@
         <v>120</v>
       </c>
       <c r="U57" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V57" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
@@ -5285,10 +5387,10 @@
         <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -5309,23 +5411,17 @@
       <c r="I58">
         <v>0</v>
       </c>
-      <c r="K58" t="s">
-        <v>338</v>
+      <c r="K58">
+        <v>6</v>
       </c>
       <c r="L58">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M58" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="N58">
         <v>1800</v>
-      </c>
-      <c r="O58" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>56</v>
       </c>
       <c r="R58">
         <f t="shared" si="9"/>
@@ -5337,13 +5433,13 @@
       </c>
       <c r="T58">
         <f t="shared" si="11"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="U58" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V58" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
@@ -5354,62 +5450,62 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
       </c>
       <c r="E59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F59">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G59">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H59" s="5">
         <f t="shared" si="8"/>
-        <v>3.125E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="L59">
         <v>5</v>
       </c>
       <c r="M59" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="N59">
         <v>1800</v>
       </c>
       <c r="O59" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="Q59" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="R59">
         <f t="shared" si="9"/>
-        <v>1.7777777777777778E-2</v>
+        <v>8.8888888888888889E-3</v>
       </c>
       <c r="S59">
         <f t="shared" si="10"/>
-        <v>17.777777777777779</v>
+        <v>8.8888888888888893</v>
       </c>
       <c r="T59">
         <f t="shared" si="11"/>
         <v>60</v>
       </c>
       <c r="U59" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V59" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
@@ -5417,16 +5513,16 @@
         <v>47</v>
       </c>
       <c r="B60" t="s">
-        <v>309</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
       </c>
       <c r="E60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F60">
         <v>0.5</v>
@@ -5441,20 +5537,23 @@
       <c r="I60">
         <v>0</v>
       </c>
-      <c r="K60">
-        <v>12</v>
+      <c r="K60" t="s">
+        <v>330</v>
       </c>
       <c r="L60">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M60" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="N60">
         <v>1800</v>
       </c>
       <c r="O60" t="s">
-        <v>264</v>
+        <v>255</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>58</v>
       </c>
       <c r="R60">
         <f t="shared" si="9"/>
@@ -5466,13 +5565,13 @@
       </c>
       <c r="T60">
         <f t="shared" si="11"/>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="U60" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V60" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
@@ -5480,127 +5579,142 @@
         <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
       </c>
       <c r="E61">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G61">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="H61" s="5">
         <f t="shared" si="8"/>
-        <v>6.25E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
-      <c r="K61" t="s">
-        <v>340</v>
+      <c r="K61">
+        <v>12</v>
       </c>
       <c r="L61">
         <v>10</v>
       </c>
       <c r="M61" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="N61">
         <v>1800</v>
       </c>
-      <c r="Q61" t="s">
-        <v>314</v>
+      <c r="O61" t="s">
+        <v>255</v>
       </c>
       <c r="R61">
         <f t="shared" si="9"/>
-        <v>3.5555555555555556E-2</v>
+        <v>1.7777777777777778E-2</v>
       </c>
       <c r="S61">
         <f t="shared" si="10"/>
-        <v>35.555555555555557</v>
+        <v>17.777777777777779</v>
       </c>
       <c r="T61">
         <f t="shared" si="11"/>
         <v>120</v>
       </c>
       <c r="U61" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V61" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>220</v>
+        <v>141</v>
       </c>
       <c r="C62" t="s">
-        <v>221</v>
+        <v>142</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E62">
         <v>9</v>
       </c>
       <c r="F62">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>64</v>
       </c>
       <c r="H62" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>331</v>
       </c>
       <c r="L62">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="M62" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="N62">
-        <v>18407090</v>
-      </c>
-      <c r="O62" t="s">
-        <v>295</v>
+        <v>1800</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>305</v>
       </c>
       <c r="R62">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.5555555555555556E-2</v>
       </c>
       <c r="S62">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>35.555555555555557</v>
       </c>
       <c r="T62">
         <f t="shared" si="11"/>
-        <v>0.23469217567795889</v>
+        <v>120</v>
+      </c>
+      <c r="U62" t="s">
+        <v>152</v>
+      </c>
+      <c r="V62" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B63" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C63" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
       </c>
       <c r="E63">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F63">
         <v>100</v>
@@ -5610,16 +5724,16 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="M63" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N63">
-        <v>36814180</v>
+        <v>648000</v>
       </c>
       <c r="O63" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="R63">
         <f t="shared" si="9"/>
@@ -5631,24 +5745,24 @@
       </c>
       <c r="T63">
         <f t="shared" si="11"/>
-        <v>0.70407652703387658</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B64" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C64" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
       </c>
       <c r="E64">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F64">
         <v>100</v>
@@ -5658,16 +5772,16 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M64" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="N64">
         <v>92035450</v>
       </c>
       <c r="O64" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="R64">
         <f t="shared" si="9"/>
@@ -5679,18 +5793,18 @@
       </c>
       <c r="T64">
         <f t="shared" si="11"/>
-        <v>7.0407652703387669E-2</v>
+        <v>0.1056114790550815</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B65" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C65" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
@@ -5699,75 +5813,75 @@
         <v>9</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H65" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L65">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="M65" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="N65">
+        <v>92035450</v>
+      </c>
+      <c r="O65" t="s">
+        <v>291</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="11"/>
+        <v>7.0407652703387669E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B66" t="s">
+        <v>187</v>
+      </c>
+      <c r="C66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66">
+        <v>9</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="H66" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>100</v>
+      </c>
+      <c r="M66" t="s">
+        <v>223</v>
+      </c>
+      <c r="N66">
         <f>9203545/2</f>
         <v>4601772.5</v>
       </c>
-      <c r="O65" t="s">
-        <v>295</v>
-      </c>
-      <c r="P65" t="s">
-        <v>303</v>
-      </c>
-      <c r="R65">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <f t="shared" si="11"/>
-        <v>0.23469217567795889</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C66" t="s">
-        <v>214</v>
-      </c>
-      <c r="D66" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66">
-        <v>9</v>
-      </c>
-      <c r="F66">
-        <v>100</v>
-      </c>
-      <c r="H66" s="5">
-        <f t="shared" ref="H66:H97" si="12">G66/1024</f>
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>400</v>
-      </c>
-      <c r="M66" t="s">
-        <v>225</v>
-      </c>
-      <c r="N66">
-        <v>18407090</v>
-      </c>
       <c r="O66" t="s">
-        <v>295</v>
+        <v>286</v>
+      </c>
+      <c r="P66" t="s">
+        <v>294</v>
       </c>
       <c r="R66">
         <f t="shared" si="9"/>
@@ -5784,38 +5898,38 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B67" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C67" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
       </c>
       <c r="E67">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F67">
         <v>100</v>
       </c>
       <c r="H67" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="H67:H98" si="12">G67/1024</f>
         <v>0</v>
       </c>
       <c r="L67">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="M67" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="N67">
-        <v>18407090</v>
+        <v>648000</v>
       </c>
       <c r="O67" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="R67">
         <f t="shared" si="9"/>
@@ -5827,43 +5941,43 @@
       </c>
       <c r="T67">
         <f t="shared" si="11"/>
-        <v>0.11734608783897944</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B68" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="C68" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D68" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E68">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H68" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L68">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="M68" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="N68">
-        <v>92035450</v>
+        <v>1944000</v>
       </c>
       <c r="O68" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="R68">
         <f t="shared" si="9"/>
@@ -5875,43 +5989,43 @@
       </c>
       <c r="T68">
         <f t="shared" si="11"/>
-        <v>1.1734608783897944</v>
+        <v>1.1111111111111112</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="C69" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D69" t="s">
         <v>33</v>
       </c>
       <c r="E69">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F69">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H69" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L69">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="M69" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="N69">
-        <v>276106350</v>
+        <v>92035450</v>
       </c>
       <c r="O69" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="R69">
         <f t="shared" si="9"/>
@@ -5923,67 +6037,55 @@
       </c>
       <c r="T69">
         <f t="shared" si="11"/>
-        <v>2.3469217567795888</v>
+        <v>1.1734608783897944</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F70">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G70">
-        <v>1.125</v>
+        <v>1000</v>
       </c>
       <c r="H70" s="5">
         <f t="shared" si="12"/>
-        <v>1.0986328125E-3</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>5</v>
+        <v>30000</v>
       </c>
       <c r="M70" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="N70">
-        <v>2700</v>
+        <v>276106350</v>
+      </c>
+      <c r="O70" t="s">
+        <v>289</v>
       </c>
       <c r="R70">
         <f t="shared" si="9"/>
-        <v>4.1666666666666669E-4</v>
+        <v>0</v>
       </c>
       <c r="S70">
         <f t="shared" si="10"/>
-        <v>0.41666666666666669</v>
+        <v>0</v>
       </c>
       <c r="T70">
         <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="U70" t="s">
-        <v>160</v>
-      </c>
-      <c r="V70" t="s">
-        <v>160</v>
+        <v>2.3469217567795888</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
@@ -5991,41 +6093,41 @@
         <v>30</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D71" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F71">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G71">
-        <v>63</v>
+        <v>1.125</v>
       </c>
       <c r="H71" s="5">
         <f t="shared" si="12"/>
-        <v>6.15234375E-2</v>
+        <v>1.0986328125E-3</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="K71">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L71">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M71" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="N71">
-        <v>151200</v>
+        <v>2700</v>
       </c>
       <c r="R71">
         <f t="shared" si="9"/>
@@ -6037,13 +6139,13 @@
       </c>
       <c r="T71">
         <f t="shared" si="11"/>
-        <v>1.4285714285714286</v>
+        <v>40</v>
       </c>
       <c r="U71" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="V71" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
@@ -6051,41 +6153,41 @@
         <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E72">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F72">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G72">
-        <v>810</v>
+        <v>63</v>
       </c>
       <c r="H72" s="5">
         <f t="shared" si="12"/>
-        <v>0.791015625</v>
+        <v>6.15234375E-2</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L72">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M72" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="N72">
-        <v>1944000</v>
+        <v>151200</v>
       </c>
       <c r="R72">
         <f t="shared" si="9"/>
@@ -6097,13 +6199,13 @@
       </c>
       <c r="T72">
         <f t="shared" si="11"/>
-        <v>0.22222222222222221</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="U72" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="V72" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
@@ -6111,119 +6213,119 @@
         <v>30</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D73" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E73">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F73">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G73">
-        <v>3834</v>
+        <v>810</v>
       </c>
       <c r="H73" s="5">
         <f t="shared" si="12"/>
-        <v>3.744140625</v>
+        <v>0.791015625</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="K73">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L73">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M73" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="N73">
         <v>9203545</v>
       </c>
       <c r="R73">
         <f t="shared" si="9"/>
-        <v>4.1657861182837699E-4</v>
+        <v>8.8009565879234574E-5</v>
       </c>
       <c r="S73">
         <f t="shared" si="10"/>
-        <v>0.41657861182837697</v>
+        <v>8.8009565879234572E-2</v>
       </c>
       <c r="T73">
         <f t="shared" si="11"/>
-        <v>8.2142261487285609E-2</v>
+        <v>4.6938435135591774E-2</v>
       </c>
       <c r="U73" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="V73" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C74" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F74">
-        <v>0.05</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="G74">
-        <v>7.4999999999999997E-2</v>
+        <v>3834</v>
       </c>
       <c r="H74" s="5">
         <f t="shared" si="12"/>
-        <v>7.3242187499999997E-5</v>
+        <v>3.744140625</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="K74">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="L74">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="M74" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="N74">
-        <v>180</v>
+        <v>46017725</v>
       </c>
       <c r="R74">
         <f t="shared" si="9"/>
-        <v>4.1666666666666664E-4</v>
+        <v>8.3315722365675398E-5</v>
       </c>
       <c r="S74">
         <f t="shared" si="10"/>
-        <v>0.41666666666666663</v>
+        <v>8.3315722365675401E-2</v>
       </c>
       <c r="T74">
         <f t="shared" si="11"/>
-        <v>360</v>
+        <v>1.6428452297457121E-2</v>
       </c>
       <c r="U74" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="V74" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
@@ -6231,59 +6333,59 @@
         <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D75" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F75">
         <v>0.05</v>
       </c>
       <c r="G75">
-        <v>4.5</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H75" s="5">
         <f t="shared" si="12"/>
-        <v>4.39453125E-3</v>
+        <v>7.3242187499999997E-5</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L75">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M75" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="N75">
-        <v>10800</v>
+        <v>180</v>
       </c>
       <c r="R75">
         <f t="shared" si="9"/>
-        <v>4.1666666666666669E-4</v>
+        <v>4.1666666666666664E-4</v>
       </c>
       <c r="S75">
         <f t="shared" si="10"/>
-        <v>0.41666666666666669</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="T75">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>360</v>
       </c>
       <c r="U75" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V75" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
@@ -6291,41 +6393,41 @@
         <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C76" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E76">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F76">
         <v>0.05</v>
       </c>
       <c r="G76">
-        <v>27</v>
+        <v>4.5</v>
       </c>
       <c r="H76" s="5">
         <f t="shared" si="12"/>
-        <v>2.63671875E-2</v>
+        <v>4.39453125E-3</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L76">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M76" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="N76">
-        <v>64800</v>
+        <v>10800</v>
       </c>
       <c r="R76">
         <f t="shared" si="9"/>
@@ -6337,180 +6439,192 @@
       </c>
       <c r="T76">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="U76" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V76" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E77">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F77">
-        <v>2.5</v>
+        <v>0.05</v>
       </c>
       <c r="G77">
-        <v>1024</v>
+        <v>27</v>
       </c>
       <c r="H77" s="5">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
+        <v>2.63671875E-2</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
       </c>
       <c r="K77">
+        <v>7</v>
+      </c>
+      <c r="L77">
         <v>12</v>
       </c>
-      <c r="L77">
-        <v>15</v>
-      </c>
       <c r="M77" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="N77">
-        <v>300</v>
+        <v>64800</v>
       </c>
       <c r="R77">
         <f t="shared" si="9"/>
-        <v>3.4133333333333336</v>
+        <v>4.1666666666666669E-4</v>
       </c>
       <c r="S77">
         <f t="shared" si="10"/>
-        <v>3413.3333333333335</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="T77">
         <f t="shared" si="11"/>
-        <v>1080</v>
+        <v>4</v>
+      </c>
+      <c r="U77" t="s">
+        <v>152</v>
+      </c>
+      <c r="V77" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B78" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C78" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
       </c>
       <c r="E78">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F78">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G78">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="H78" s="5">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78">
         <v>1</v>
       </c>
       <c r="K78">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L78">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M78" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="N78">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="R78">
         <f t="shared" si="9"/>
-        <v>1.1377777777777778</v>
+        <v>3.4133333333333336</v>
       </c>
       <c r="S78">
         <f t="shared" si="10"/>
-        <v>1137.7777777777778</v>
+        <v>3413.3333333333335</v>
       </c>
       <c r="T78">
         <f t="shared" si="11"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B79" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="C79" t="s">
-        <v>210</v>
+        <v>129</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
       </c>
       <c r="E79">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G79">
-        <v>0.25</v>
+        <v>2048</v>
       </c>
       <c r="H79" s="5">
         <f t="shared" si="12"/>
-        <v>2.44140625E-4</v>
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>24</v>
       </c>
       <c r="L79">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M79" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="N79">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="R79">
         <f t="shared" si="9"/>
-        <v>4.1666666666666669E-4</v>
+        <v>1.1377777777777778</v>
       </c>
       <c r="S79">
         <f t="shared" si="10"/>
-        <v>0.41666666666666669</v>
+        <v>1137.7777777777778</v>
       </c>
       <c r="T79">
         <f t="shared" si="11"/>
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B80" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C80" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -6519,49 +6633,49 @@
         <v>9</v>
       </c>
       <c r="F80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G80">
-        <v>12288</v>
+        <v>0.25</v>
       </c>
       <c r="H80" s="5">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>2.44140625E-4</v>
+      </c>
+      <c r="K80">
+        <v>48</v>
       </c>
       <c r="L80">
         <v>40</v>
       </c>
       <c r="M80" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="N80">
-        <v>21600</v>
-      </c>
-      <c r="O80" t="s">
-        <v>295</v>
+        <v>600</v>
       </c>
       <c r="R80">
         <f t="shared" si="9"/>
-        <v>0.56888888888888889</v>
+        <v>4.1666666666666669E-4</v>
       </c>
       <c r="S80">
         <f t="shared" si="10"/>
-        <v>568.88888888888891</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="T80">
         <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B81" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C81" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
@@ -6570,880 +6684,880 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="G81">
-        <v>0.5</v>
+        <v>12288</v>
       </c>
       <c r="H81" s="5">
         <f t="shared" si="12"/>
-        <v>4.8828125E-4</v>
+        <v>12</v>
+      </c>
+      <c r="K81">
+        <v>96</v>
       </c>
       <c r="L81">
         <v>40</v>
       </c>
       <c r="M81" t="s">
-        <v>333</v>
+        <v>232</v>
       </c>
       <c r="N81">
-        <v>1200</v>
+        <v>21600</v>
+      </c>
+      <c r="O81" t="s">
+        <v>286</v>
       </c>
       <c r="R81">
         <f t="shared" si="9"/>
-        <v>4.1666666666666669E-4</v>
+        <v>0.56888888888888889</v>
       </c>
       <c r="S81">
-        <f t="shared" ref="S81:S112" si="13">R81*1000</f>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="10"/>
+        <v>568.88888888888891</v>
       </c>
       <c r="T81">
         <f t="shared" si="11"/>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>70</v>
+        <v>193</v>
+      </c>
+      <c r="B82" t="s">
+        <v>192</v>
       </c>
       <c r="C82" t="s">
-        <v>71</v>
+        <v>203</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E82">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="G82">
-        <v>5752.22</v>
+        <v>0.5</v>
       </c>
       <c r="H82" s="5">
         <f t="shared" si="12"/>
-        <v>5.6174023437500002</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
+        <v>4.8828125E-4</v>
       </c>
       <c r="K82">
-        <v>52.5</v>
+        <v>24</v>
       </c>
       <c r="L82">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="M82" t="s">
-        <v>252</v>
+        <v>324</v>
       </c>
       <c r="N82">
-        <v>13805317.5</v>
+        <v>1200</v>
       </c>
       <c r="R82">
         <f t="shared" si="9"/>
+        <v>4.1666666666666669E-4</v>
+      </c>
+      <c r="S82">
+        <f t="shared" ref="S82:S83" si="13">R82*1000</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="11"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>5752.22</v>
+      </c>
+      <c r="H83" s="5">
+        <f t="shared" si="12"/>
+        <v>5.6174023437500002</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>52.5</v>
+      </c>
+      <c r="L83">
+        <v>90</v>
+      </c>
+      <c r="M83" t="s">
+        <v>243</v>
+      </c>
+      <c r="N83">
+        <v>13805317.5</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="9"/>
         <v>4.1666698357353972E-4</v>
       </c>
-      <c r="S82">
+      <c r="S83">
         <f t="shared" si="13"/>
         <v>0.41666698357353971</v>
       </c>
-      <c r="T82">
+      <c r="T83">
         <f t="shared" si="11"/>
         <v>0.14081530540677534</v>
       </c>
-      <c r="U82" t="s">
-        <v>160</v>
-      </c>
-      <c r="V82" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C83" t="s">
-        <v>73</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="U83" t="s">
+        <v>152</v>
+      </c>
+      <c r="V83" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C84" t="s">
+        <v>340</v>
+      </c>
+      <c r="D84" t="s">
         <v>33</v>
       </c>
-      <c r="E83">
+      <c r="E84">
         <v>7</v>
       </c>
-      <c r="F83">
+      <c r="F84">
         <v>5</v>
       </c>
-      <c r="G83">
+      <c r="G84">
         <v>76696.269690300003</v>
       </c>
-      <c r="H83" s="5">
+      <c r="H84" s="5">
         <f t="shared" si="12"/>
         <v>74.898700869433597</v>
       </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="K83">
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="K84">
         <v>2800</v>
       </c>
-      <c r="L83">
+      <c r="L84">
         <v>5600</v>
       </c>
-      <c r="M83" t="s">
-        <v>250</v>
-      </c>
-      <c r="N83">
+      <c r="M84" t="s">
+        <v>241</v>
+      </c>
+      <c r="N84">
         <v>184070900</v>
       </c>
-      <c r="O83" t="s">
-        <v>320</v>
-      </c>
-      <c r="R83">
-        <f t="shared" ref="R83:R84" si="14">G83/N83</f>
+      <c r="O84" t="s">
+        <v>311</v>
+      </c>
+      <c r="R84">
+        <f t="shared" ref="R84:R85" si="14">G84/N84</f>
         <v>4.1666700000000001E-4</v>
       </c>
-      <c r="S83">
-        <f>R84*1000</f>
+      <c r="S84">
+        <f>R85*1000</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="T83">
-        <f>K83/(N83/21600)</f>
+      <c r="T84">
+        <f>K84/(N84/21600)</f>
         <v>0.32856904594914244</v>
       </c>
-      <c r="U83" t="s">
-        <v>160</v>
-      </c>
-      <c r="V83" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B84" s="2" t="s">
+      <c r="U84" t="s">
+        <v>152</v>
+      </c>
+      <c r="V84" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" t="s">
         <v>74</v>
       </c>
-      <c r="C84" t="s">
-        <v>76</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="D85" t="s">
         <v>23</v>
       </c>
-      <c r="E84">
+      <c r="E85">
         <v>4</v>
       </c>
-      <c r="F84">
+      <c r="F85">
         <v>0.05</v>
       </c>
-      <c r="G84">
+      <c r="G85">
         <v>3</v>
       </c>
-      <c r="H84" s="5">
+      <c r="H85" s="5">
         <f t="shared" si="12"/>
         <v>2.9296875E-3</v>
       </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="K84">
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="K85">
         <v>7</v>
       </c>
-      <c r="L84">
+      <c r="L85">
         <v>8</v>
       </c>
-      <c r="M84" t="s">
-        <v>229</v>
-      </c>
-      <c r="N84">
+      <c r="M85" t="s">
+        <v>221</v>
+      </c>
+      <c r="N85">
         <v>7200</v>
       </c>
-      <c r="O84" t="s">
-        <v>316</v>
-      </c>
-      <c r="R84">
+      <c r="O85" t="s">
+        <v>307</v>
+      </c>
+      <c r="R85">
         <f t="shared" si="14"/>
         <v>4.1666666666666669E-4</v>
       </c>
-      <c r="S84" t="e">
+      <c r="S85" t="e">
         <f>#REF!*1000</f>
         <v>#REF!</v>
       </c>
-      <c r="T84">
-        <f t="shared" ref="T84:T109" si="15">L84/(N84/21600)</f>
+      <c r="T85">
+        <f t="shared" ref="T85:T110" si="15">L85/(N85/21600)</f>
         <v>24</v>
       </c>
-      <c r="U84" t="s">
-        <v>160</v>
-      </c>
-      <c r="V84" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="U85" t="s">
+        <v>152</v>
+      </c>
+      <c r="V85" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" t="s">
         <v>79</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C85" t="s">
-        <v>81</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="D86" t="s">
         <v>23</v>
       </c>
-      <c r="E85">
+      <c r="E86">
         <v>4</v>
       </c>
-      <c r="F85">
+      <c r="F86">
         <v>0.05</v>
       </c>
-      <c r="G85">
+      <c r="G86">
         <v>190</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H86" s="5">
         <f t="shared" si="12"/>
         <v>0.185546875</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="K85">
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="K86">
         <v>9</v>
       </c>
-      <c r="L85">
+      <c r="L86">
         <v>21</v>
       </c>
-      <c r="M85" t="s">
-        <v>255</v>
-      </c>
-      <c r="N85">
+      <c r="M86" t="s">
+        <v>246</v>
+      </c>
+      <c r="N86">
         <v>453600</v>
       </c>
-      <c r="O85" t="s">
-        <v>316</v>
-      </c>
-      <c r="R85">
-        <f t="shared" ref="R85:R114" si="16">G85/N85</f>
+      <c r="O86" t="s">
+        <v>307</v>
+      </c>
+      <c r="R86">
+        <f t="shared" ref="R86:R115" si="16">G86/N86</f>
         <v>4.1887125220458553E-4</v>
       </c>
-      <c r="S85">
-        <f t="shared" ref="S85:S114" si="17">R85*1000</f>
+      <c r="S86">
+        <f t="shared" ref="S86:S115" si="17">R86*1000</f>
         <v>0.41887125220458554</v>
       </c>
-      <c r="T85">
+      <c r="T86">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U85" t="s">
-        <v>160</v>
-      </c>
-      <c r="V85" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B86" s="2" t="s">
+      <c r="U86" t="s">
+        <v>152</v>
+      </c>
+      <c r="V86" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C87" t="s">
         <v>75</v>
       </c>
-      <c r="C86" t="s">
-        <v>77</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="D87" t="s">
         <v>33</v>
       </c>
-      <c r="E86">
+      <c r="E87">
         <v>6</v>
       </c>
-      <c r="F86">
+      <c r="F87">
         <v>0.05</v>
       </c>
-      <c r="G86">
+      <c r="G87">
         <v>11504.44</v>
       </c>
-      <c r="H86" s="5">
+      <c r="H87" s="5">
         <f t="shared" si="12"/>
         <v>11.2348046875</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="K86">
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="K87">
         <v>1200</v>
       </c>
-      <c r="L86">
+      <c r="L87">
         <v>2100</v>
       </c>
-      <c r="M86" t="s">
-        <v>253</v>
-      </c>
-      <c r="N86">
+      <c r="M87" t="s">
+        <v>244</v>
+      </c>
+      <c r="N87">
         <v>27610635</v>
       </c>
-      <c r="O86" t="s">
-        <v>316</v>
-      </c>
-      <c r="R86">
+      <c r="O87" t="s">
+        <v>307</v>
+      </c>
+      <c r="R87">
         <f t="shared" si="16"/>
         <v>4.1666698357353972E-4</v>
       </c>
-      <c r="S86">
+      <c r="S87">
         <f t="shared" si="17"/>
         <v>0.41666698357353971</v>
       </c>
-      <c r="T86">
+      <c r="T87">
         <f t="shared" si="15"/>
         <v>1.6428452297457121</v>
       </c>
-      <c r="U86" t="s">
-        <v>161</v>
-      </c>
-      <c r="V86" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C87" t="s">
-        <v>194</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="U87" t="s">
+        <v>153</v>
+      </c>
+      <c r="V87" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88" t="s">
+        <v>186</v>
+      </c>
+      <c r="D88" t="s">
         <v>33</v>
       </c>
-      <c r="E87">
+      <c r="E88">
         <v>6</v>
       </c>
-      <c r="F87">
+      <c r="F88">
         <v>0.05</v>
       </c>
-      <c r="G87">
+      <c r="G88">
         <v>38348.1348</v>
       </c>
-      <c r="H87" s="5">
+      <c r="H88" s="5">
         <f t="shared" si="12"/>
         <v>37.449350390625</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="K87">
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="K88">
         <v>350</v>
       </c>
-      <c r="L87">
+      <c r="L88">
         <v>1400</v>
       </c>
-      <c r="M87" t="s">
-        <v>237</v>
-      </c>
-      <c r="N87">
+      <c r="M88" t="s">
+        <v>228</v>
+      </c>
+      <c r="N88">
         <v>92035450</v>
       </c>
-      <c r="O87" t="s">
-        <v>264</v>
-      </c>
-      <c r="R87">
+      <c r="O88" t="s">
+        <v>255</v>
+      </c>
+      <c r="R88">
         <f t="shared" si="16"/>
         <v>4.1666699950942818E-4</v>
       </c>
-      <c r="S87">
+      <c r="S88">
         <f t="shared" si="17"/>
         <v>0.4166669995094282</v>
       </c>
-      <c r="T87">
+      <c r="T88">
         <f t="shared" si="15"/>
         <v>0.32856904594914244</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C88" t="s">
-        <v>83</v>
-      </c>
-      <c r="D88" t="s">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" t="s">
+        <v>81</v>
+      </c>
+      <c r="D89" t="s">
         <v>18</v>
       </c>
-      <c r="E88">
+      <c r="E89">
         <v>8</v>
       </c>
-      <c r="F88">
+      <c r="F89">
         <v>10</v>
       </c>
-      <c r="G88">
+      <c r="G89">
         <v>16384</v>
       </c>
-      <c r="H88" s="5">
+      <c r="H89" s="5">
         <f t="shared" si="12"/>
         <v>16</v>
       </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="K88">
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="K89">
         <v>840</v>
       </c>
-      <c r="L88">
+      <c r="L89">
         <v>350</v>
       </c>
-      <c r="M88" t="s">
-        <v>228</v>
-      </c>
-      <c r="N88">
+      <c r="M89" t="s">
+        <v>220</v>
+      </c>
+      <c r="N89">
         <v>9203545</v>
       </c>
-      <c r="O88" t="s">
-        <v>264</v>
-      </c>
-      <c r="R88">
+      <c r="O89" t="s">
+        <v>255</v>
+      </c>
+      <c r="R89">
         <f t="shared" si="16"/>
         <v>1.7801836140313326E-3</v>
       </c>
-      <c r="S88">
+      <c r="S89">
         <f t="shared" si="17"/>
         <v>1.7801836140313325</v>
       </c>
-      <c r="T88">
+      <c r="T89">
         <f t="shared" si="15"/>
         <v>0.82142261487285606</v>
       </c>
-      <c r="U88" t="s">
-        <v>160</v>
-      </c>
-      <c r="V88" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C89" t="s">
-        <v>117</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="U89" t="s">
+        <v>152</v>
+      </c>
+      <c r="V89" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" t="s">
+        <v>341</v>
+      </c>
+      <c r="D90" t="s">
         <v>7</v>
       </c>
-      <c r="E89">
+      <c r="E90">
         <v>3</v>
       </c>
-      <c r="F89">
+      <c r="F90">
         <v>1</v>
       </c>
-      <c r="G89">
+      <c r="G90">
         <v>1024</v>
       </c>
-      <c r="H89" s="5">
+      <c r="H90" s="5">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89" t="s">
-        <v>343</v>
-      </c>
-      <c r="K89">
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>334</v>
+      </c>
+      <c r="K90">
         <v>8</v>
       </c>
-      <c r="L89">
+      <c r="L90">
         <v>9</v>
       </c>
-      <c r="M89" t="s">
-        <v>241</v>
-      </c>
-      <c r="N89">
+      <c r="M90" t="s">
+        <v>232</v>
+      </c>
+      <c r="N90">
         <v>21600</v>
       </c>
-      <c r="O89" t="s">
-        <v>264</v>
-      </c>
-      <c r="P89" t="s">
-        <v>319</v>
-      </c>
-      <c r="R89">
+      <c r="O90" t="s">
+        <v>255</v>
+      </c>
+      <c r="P90" t="s">
+        <v>310</v>
+      </c>
+      <c r="R90">
         <f t="shared" si="16"/>
         <v>4.7407407407407405E-2</v>
       </c>
-      <c r="S89">
+      <c r="S90">
         <f t="shared" si="17"/>
         <v>47.407407407407405</v>
       </c>
-      <c r="T89">
+      <c r="T90">
         <f t="shared" si="15"/>
         <v>9</v>
       </c>
-      <c r="U89" t="s">
-        <v>160</v>
-      </c>
-      <c r="V89" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C90" t="s">
-        <v>121</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="U90" t="s">
+        <v>152</v>
+      </c>
+      <c r="V90" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91" t="s">
         <v>18</v>
       </c>
-      <c r="E90">
+      <c r="E91">
         <v>5</v>
       </c>
-      <c r="F90">
+      <c r="F91">
         <v>5</v>
       </c>
-      <c r="G90">
+      <c r="G91">
         <v>2048</v>
       </c>
-      <c r="H90" s="5">
+      <c r="H91" s="5">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90" t="s">
-        <v>343</v>
-      </c>
-      <c r="K90">
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>334</v>
+      </c>
+      <c r="K91">
         <v>10</v>
       </c>
-      <c r="L90">
+      <c r="L91">
         <v>18</v>
       </c>
-      <c r="M90" t="s">
-        <v>265</v>
-      </c>
-      <c r="N90">
+      <c r="M91" t="s">
+        <v>256</v>
+      </c>
+      <c r="N91">
         <v>972000</v>
       </c>
-      <c r="O90" t="s">
-        <v>264</v>
-      </c>
-      <c r="P90" t="s">
-        <v>319</v>
-      </c>
-      <c r="R90">
+      <c r="O91" t="s">
+        <v>255</v>
+      </c>
+      <c r="P91" t="s">
+        <v>310</v>
+      </c>
+      <c r="R91">
         <f t="shared" si="16"/>
         <v>2.1069958847736627E-3</v>
       </c>
-      <c r="S90">
+      <c r="S91">
         <f t="shared" si="17"/>
         <v>2.1069958847736627</v>
       </c>
-      <c r="T90">
+      <c r="T91">
         <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
-      <c r="U90" t="s">
-        <v>161</v>
-      </c>
-      <c r="V90" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="U91" t="s">
+        <v>153</v>
+      </c>
+      <c r="V91" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C91" t="s">
-        <v>122</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="C92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D92" t="s">
         <v>33</v>
       </c>
-      <c r="E91">
+      <c r="E92">
         <v>7</v>
       </c>
-      <c r="F91">
+      <c r="F92">
         <v>10</v>
       </c>
-      <c r="G91">
+      <c r="G92">
         <v>4096</v>
       </c>
-      <c r="H91" s="5">
+      <c r="H92" s="5">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91" t="s">
-        <v>343</v>
-      </c>
-      <c r="K91">
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92" t="s">
+        <v>334</v>
+      </c>
+      <c r="K92">
         <v>1400</v>
       </c>
-      <c r="L91">
+      <c r="L92">
         <v>2800</v>
       </c>
-      <c r="M91" t="s">
-        <v>237</v>
-      </c>
-      <c r="N91">
+      <c r="M92" t="s">
+        <v>228</v>
+      </c>
+      <c r="N92">
         <v>92035450</v>
       </c>
-      <c r="P91" t="s">
-        <v>319</v>
-      </c>
-      <c r="R91">
+      <c r="P92" t="s">
+        <v>310</v>
+      </c>
+      <c r="R92">
         <f t="shared" si="16"/>
         <v>4.4504590350783313E-5</v>
       </c>
-      <c r="S91">
+      <c r="S92">
         <f t="shared" si="17"/>
         <v>4.4504590350783316E-2</v>
       </c>
-      <c r="T91">
+      <c r="T92">
         <f t="shared" si="15"/>
         <v>0.65713809189828487</v>
       </c>
-      <c r="U91" t="s">
-        <v>160</v>
-      </c>
-      <c r="V91" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B92" t="s">
-        <v>115</v>
-      </c>
-      <c r="C92" t="s">
-        <v>116</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="U92" t="s">
+        <v>152</v>
+      </c>
+      <c r="V92" t="s">
+        <v>152</v>
+      </c>
+      <c r="W92" s="6">
+        <v>2.1730757E-7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" t="s">
+        <v>110</v>
+      </c>
+      <c r="D93" t="s">
         <v>7</v>
       </c>
-      <c r="E92">
+      <c r="E93">
         <v>9</v>
       </c>
-      <c r="F92">
+      <c r="F93">
         <v>5</v>
       </c>
-      <c r="G92">
+      <c r="G93">
         <v>1024</v>
       </c>
-      <c r="H92" s="5">
+      <c r="H93" s="5">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92" t="s">
-        <v>343</v>
-      </c>
-      <c r="K92">
-        <v>20</v>
-      </c>
-      <c r="L92">
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93" t="s">
+        <v>334</v>
+      </c>
+      <c r="K93">
         <v>30</v>
       </c>
-      <c r="M92" t="s">
-        <v>226</v>
-      </c>
-      <c r="N92">
+      <c r="L93">
+        <v>30</v>
+      </c>
+      <c r="M93" t="s">
+        <v>218</v>
+      </c>
+      <c r="N93">
         <v>1800</v>
       </c>
-      <c r="O92" t="s">
-        <v>264</v>
-      </c>
-      <c r="P92" t="s">
-        <v>319</v>
-      </c>
-      <c r="R92">
+      <c r="O93" t="s">
+        <v>255</v>
+      </c>
+      <c r="P93" t="s">
+        <v>310</v>
+      </c>
+      <c r="R93">
         <f t="shared" si="16"/>
         <v>0.56888888888888889</v>
       </c>
-      <c r="S92">
+      <c r="S93">
         <f t="shared" si="17"/>
         <v>568.88888888888891</v>
       </c>
-      <c r="T92">
+      <c r="T93">
         <f t="shared" si="15"/>
         <v>360</v>
       </c>
-      <c r="U92" t="s">
-        <v>161</v>
-      </c>
-      <c r="V92" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B93" t="s">
-        <v>128</v>
-      </c>
-      <c r="C93" t="s">
-        <v>163</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="U93" t="s">
+        <v>153</v>
+      </c>
+      <c r="V93" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B94" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94" t="s">
+        <v>155</v>
+      </c>
+      <c r="D94" t="s">
         <v>33</v>
       </c>
-      <c r="E93">
+      <c r="E94">
         <v>5</v>
       </c>
-      <c r="F93">
+      <c r="F94">
         <v>10</v>
       </c>
-      <c r="G93">
+      <c r="G94">
         <v>38348.134845200002</v>
       </c>
-      <c r="H93" s="5">
+      <c r="H94" s="5">
         <f t="shared" si="12"/>
         <v>37.449350434765627</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="K93">
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="K94">
         <v>700</v>
       </c>
-      <c r="L93">
+      <c r="L94">
         <v>1000</v>
       </c>
-      <c r="M93" t="s">
-        <v>237</v>
-      </c>
-      <c r="N93">
+      <c r="M94" t="s">
+        <v>228</v>
+      </c>
+      <c r="N94">
         <v>92035450</v>
       </c>
-      <c r="R93">
+      <c r="R94">
         <f t="shared" si="16"/>
         <v>4.1666700000054331E-4</v>
       </c>
-      <c r="S93">
+      <c r="S94">
         <f t="shared" si="17"/>
         <v>0.4166670000005433</v>
       </c>
-      <c r="T93">
+      <c r="T94">
         <f t="shared" si="15"/>
         <v>0.23469217567795889</v>
       </c>
-      <c r="U93" t="s">
-        <v>160</v>
-      </c>
-      <c r="V93" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B94" t="s">
-        <v>127</v>
-      </c>
-      <c r="C94" t="s">
-        <v>148</v>
-      </c>
-      <c r="D94" t="s">
-        <v>33</v>
-      </c>
-      <c r="E94">
-        <v>6</v>
-      </c>
-      <c r="F94">
-        <v>17</v>
-      </c>
-      <c r="G94">
-        <v>76696.269690300003</v>
-      </c>
-      <c r="H94" s="5">
-        <f t="shared" si="12"/>
-        <v>74.898700869433597</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>2800</v>
-      </c>
-      <c r="L94">
-        <v>2800</v>
-      </c>
-      <c r="M94" t="s">
-        <v>250</v>
-      </c>
-      <c r="N94">
-        <v>184070900</v>
-      </c>
-      <c r="R94">
-        <f t="shared" si="16"/>
-        <v>4.1666700000000001E-4</v>
-      </c>
-      <c r="S94">
-        <f t="shared" si="17"/>
-        <v>0.41666700000000001</v>
-      </c>
-      <c r="T94">
-        <f t="shared" si="15"/>
-        <v>0.32856904594914244</v>
-      </c>
       <c r="U94" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V94" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B95" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="D95" t="s">
         <v>33</v>
       </c>
       <c r="E95">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F95">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G95">
         <v>76696.269690300003</v>
@@ -7456,13 +7570,13 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>5600</v>
+        <v>2800</v>
       </c>
       <c r="L95">
-        <v>5600</v>
+        <v>2800</v>
       </c>
       <c r="M95" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="N95">
         <v>184070900</v>
@@ -7477,100 +7591,100 @@
       </c>
       <c r="T95">
         <f t="shared" si="15"/>
-        <v>0.65713809189828487</v>
+        <v>0.32856904594914244</v>
       </c>
       <c r="U95" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V95" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B96" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C96" t="s">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="D96" t="s">
         <v>33</v>
       </c>
       <c r="E96">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F96">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G96">
-        <v>115044.40453499999</v>
+        <v>76696.269690300003</v>
       </c>
       <c r="H96" s="5">
         <f t="shared" si="12"/>
-        <v>112.34805130371093</v>
+        <v>74.898700869433597</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="K96">
-        <v>12600</v>
+        <v>5600</v>
       </c>
       <c r="L96">
-        <v>12600</v>
+        <v>5600</v>
       </c>
       <c r="M96" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="N96">
-        <v>276106350</v>
+        <v>184070900</v>
       </c>
       <c r="R96">
         <f t="shared" si="16"/>
-        <v>4.1666699999837019E-4</v>
+        <v>4.1666700000000001E-4</v>
       </c>
       <c r="S96">
         <f t="shared" si="17"/>
-        <v>0.4166669999983702</v>
+        <v>0.41666700000000001</v>
       </c>
       <c r="T96">
         <f t="shared" si="15"/>
-        <v>0.98570713784742725</v>
+        <v>0.65713809189828487</v>
       </c>
       <c r="U96" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V96" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B97" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C97" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D97" t="s">
         <v>33</v>
       </c>
       <c r="E97">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F97">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G97">
-        <v>76696.269690300003</v>
+        <v>115044.40453499999</v>
       </c>
       <c r="H97" s="5">
         <f t="shared" si="12"/>
-        <v>74.898700869433597</v>
+        <v>112.34805130371093</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -7582,96 +7696,102 @@
         <v>12600</v>
       </c>
       <c r="M97" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N97">
-        <v>184070900</v>
+        <v>276106350</v>
       </c>
       <c r="R97">
         <f t="shared" si="16"/>
-        <v>4.1666700000000001E-4</v>
+        <v>4.1666699999837019E-4</v>
       </c>
       <c r="S97">
         <f t="shared" si="17"/>
-        <v>0.41666700000000001</v>
+        <v>0.4166669999983702</v>
       </c>
       <c r="T97">
         <f t="shared" si="15"/>
-        <v>1.478560706771141</v>
+        <v>0.98570713784742725</v>
       </c>
       <c r="U97" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V97" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>267</v>
+        <v>116</v>
       </c>
       <c r="B98" t="s">
-        <v>268</v>
+        <v>117</v>
       </c>
       <c r="C98" t="s">
-        <v>275</v>
+        <v>138</v>
       </c>
       <c r="D98" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E98">
         <v>9</v>
       </c>
       <c r="F98">
-        <v>0.05</v>
+        <v>30</v>
       </c>
       <c r="G98">
-        <v>63</v>
+        <v>76696.269690300003</v>
       </c>
       <c r="H98" s="5">
-        <f t="shared" ref="H98:H129" si="18">G98/1024</f>
-        <v>6.15234375E-2</v>
+        <f t="shared" si="12"/>
+        <v>74.898700869433597</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>7</v>
+        <v>12600</v>
       </c>
       <c r="L98">
-        <v>15</v>
+        <v>12600</v>
       </c>
       <c r="M98" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="N98">
-        <v>151200</v>
-      </c>
-      <c r="O98" t="s">
-        <v>306</v>
+        <v>184070900</v>
       </c>
       <c r="R98">
         <f t="shared" si="16"/>
-        <v>4.1666666666666669E-4</v>
+        <v>4.1666700000000001E-4</v>
       </c>
       <c r="S98">
         <f t="shared" si="17"/>
-        <v>0.41666666666666669</v>
+        <v>0.41666700000000001</v>
       </c>
       <c r="T98">
         <f t="shared" si="15"/>
-        <v>2.1428571428571428</v>
+        <v>1.478560706771141</v>
+      </c>
+      <c r="U98" t="s">
+        <v>152</v>
+      </c>
+      <c r="V98" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B99" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C99" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E99">
         <v>9</v>
@@ -7680,160 +7800,157 @@
         <v>0.05</v>
       </c>
       <c r="G99">
+        <v>63</v>
+      </c>
+      <c r="H99" s="5">
+        <f t="shared" ref="H99:H115" si="18">G99/1024</f>
+        <v>6.15234375E-2</v>
+      </c>
+      <c r="K99">
+        <v>7</v>
+      </c>
+      <c r="L99">
+        <v>15</v>
+      </c>
+      <c r="M99" t="s">
+        <v>222</v>
+      </c>
+      <c r="N99">
+        <v>151200</v>
+      </c>
+      <c r="O99" t="s">
+        <v>297</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="16"/>
+        <v>4.1666666666666669E-4</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="17"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="T99">
+        <f t="shared" si="15"/>
+        <v>2.1428571428571428</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B100" t="s">
+        <v>261</v>
+      </c>
+      <c r="C100" t="s">
+        <v>265</v>
+      </c>
+      <c r="D100" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100">
+        <v>9</v>
+      </c>
+      <c r="F100">
+        <v>0.05</v>
+      </c>
+      <c r="G100">
         <v>3240</v>
       </c>
-      <c r="H99" s="5">
+      <c r="H100" s="5">
         <f t="shared" si="18"/>
         <v>3.1640625</v>
       </c>
-      <c r="K99">
+      <c r="K100">
         <v>11</v>
       </c>
-      <c r="L99">
+      <c r="L100">
         <v>50</v>
       </c>
-      <c r="M99" t="s">
-        <v>279</v>
-      </c>
-      <c r="N99">
+      <c r="M100" t="s">
+        <v>270</v>
+      </c>
+      <c r="N100">
         <v>3888000</v>
       </c>
-      <c r="O99" t="s">
-        <v>305</v>
-      </c>
-      <c r="R99">
+      <c r="O100" t="s">
+        <v>296</v>
+      </c>
+      <c r="R100">
         <f t="shared" si="16"/>
         <v>8.3333333333333339E-4</v>
       </c>
-      <c r="S99">
+      <c r="S100">
         <f t="shared" si="17"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="T99">
+      <c r="T100">
         <f t="shared" si="15"/>
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B100" t="s">
-        <v>271</v>
-      </c>
-      <c r="C100" t="s">
-        <v>272</v>
-      </c>
-      <c r="D100" t="s">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B101" t="s">
+        <v>262</v>
+      </c>
+      <c r="C101" t="s">
+        <v>263</v>
+      </c>
+      <c r="D101" t="s">
         <v>7</v>
       </c>
-      <c r="E100">
+      <c r="E101">
         <v>9</v>
       </c>
-      <c r="F100">
+      <c r="F101">
         <v>0.05</v>
       </c>
-      <c r="G100">
+      <c r="G101">
         <v>32</v>
       </c>
-      <c r="H100" s="5">
+      <c r="H101" s="5">
         <f t="shared" si="18"/>
         <v>3.125E-2</v>
       </c>
-      <c r="K100">
+      <c r="K101">
         <v>14</v>
       </c>
-      <c r="L100">
+      <c r="L101">
         <v>10</v>
       </c>
-      <c r="M100" t="s">
-        <v>226</v>
-      </c>
-      <c r="N100">
+      <c r="M101" t="s">
+        <v>218</v>
+      </c>
+      <c r="N101">
         <v>1800</v>
       </c>
-      <c r="O100" t="s">
-        <v>304</v>
-      </c>
-      <c r="R100">
+      <c r="O101" t="s">
+        <v>295</v>
+      </c>
+      <c r="R101">
         <f t="shared" si="16"/>
         <v>1.7777777777777778E-2</v>
       </c>
-      <c r="S100">
+      <c r="S101">
         <f t="shared" si="17"/>
         <v>17.777777777777779</v>
       </c>
-      <c r="T100">
+      <c r="T101">
         <f t="shared" si="15"/>
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B101" t="s">
-        <v>269</v>
-      </c>
-      <c r="C101" t="s">
-        <v>273</v>
-      </c>
-      <c r="D101" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101">
-        <v>9</v>
-      </c>
-      <c r="F101">
-        <v>5</v>
-      </c>
-      <c r="G101">
-        <v>1024</v>
-      </c>
-      <c r="H101" s="5">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="J101">
-        <v>1</v>
-      </c>
-      <c r="K101">
-        <v>19</v>
-      </c>
-      <c r="L101">
-        <v>25</v>
-      </c>
-      <c r="M101" t="s">
-        <v>278</v>
-      </c>
-      <c r="N101">
-        <v>5</v>
-      </c>
-      <c r="O101" t="s">
-        <v>288</v>
-      </c>
-      <c r="R101">
-        <f t="shared" si="16"/>
-        <v>204.8</v>
-      </c>
-      <c r="S101">
-        <f t="shared" si="17"/>
-        <v>204800</v>
-      </c>
-      <c r="T101">
-        <f t="shared" si="15"/>
-        <v>108000</v>
-      </c>
-    </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B102" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="C102" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -7855,19 +7972,19 @@
         <v>1</v>
       </c>
       <c r="K102">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L102">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M102" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="N102">
         <v>5</v>
       </c>
       <c r="O102" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="R102">
         <f t="shared" si="16"/>
@@ -7879,114 +7996,129 @@
       </c>
       <c r="T102">
         <f t="shared" si="15"/>
-        <v>151200</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B103" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C103" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D103" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E103">
         <v>9</v>
       </c>
       <c r="F103">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="G103">
-        <v>38348.134845200002</v>
+        <v>1024</v>
       </c>
       <c r="H103" s="5">
         <f t="shared" si="18"/>
-        <v>37.449350434765627</v>
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
       </c>
       <c r="K103">
-        <v>7875</v>
+        <v>21</v>
       </c>
       <c r="L103">
-        <v>3000</v>
+        <v>35</v>
       </c>
       <c r="M103" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="N103">
-        <v>92035450</v>
+        <v>5</v>
       </c>
       <c r="O103" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="R103">
         <f t="shared" si="16"/>
-        <v>4.1666700000054331E-4</v>
+        <v>204.8</v>
       </c>
       <c r="S103">
         <f t="shared" si="17"/>
-        <v>0.4166670000005433</v>
+        <v>204800</v>
       </c>
       <c r="T103">
         <f t="shared" si="15"/>
-        <v>0.70407652703387669</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+        <v>151200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B104" t="s">
         <v>267</v>
       </c>
-      <c r="B104" t="s">
-        <v>281</v>
-      </c>
       <c r="C104" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="E104">
+        <v>9</v>
       </c>
       <c r="F104">
         <v>0.05</v>
       </c>
+      <c r="G104">
+        <v>19174.067425000001</v>
+      </c>
       <c r="H104" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>18.724675219726564</v>
+      </c>
+      <c r="K104">
+        <v>3937.5</v>
+      </c>
+      <c r="L104">
+        <v>3000</v>
       </c>
       <c r="M104" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="N104">
-        <v>5</v>
+        <v>46017725</v>
       </c>
       <c r="O104" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="R104">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4.1666700005269712E-4</v>
       </c>
       <c r="S104">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.41666700005269713</v>
       </c>
       <c r="T104">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.4081530540677534</v>
       </c>
     </row>
     <row r="105" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B105" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="C105" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
@@ -7999,13 +8131,13 @@
         <v>0</v>
       </c>
       <c r="M105" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="N105">
         <v>5</v>
       </c>
       <c r="O105" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="R105">
         <f t="shared" si="16"/>
@@ -8022,13 +8154,13 @@
     </row>
     <row r="106" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B106" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C106" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
@@ -8041,13 +8173,13 @@
         <v>0</v>
       </c>
       <c r="M106" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="N106">
         <v>5</v>
       </c>
       <c r="O106" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="R106">
         <f t="shared" si="16"/>
@@ -8064,13 +8196,13 @@
     </row>
     <row r="107" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B107" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C107" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
@@ -8083,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="M107" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="N107">
         <v>5</v>
       </c>
       <c r="O107" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="R107">
         <f t="shared" si="16"/>
@@ -8104,210 +8236,189 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>129</v>
+        <v>258</v>
+      </c>
+      <c r="B108" t="s">
+        <v>271</v>
       </c>
       <c r="C108" t="s">
-        <v>107</v>
+        <v>278</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
       </c>
-      <c r="E108">
-        <v>3</v>
-      </c>
       <c r="F108">
         <v>0.05</v>
       </c>
-      <c r="G108">
-        <v>0.53333333333333299</v>
-      </c>
       <c r="H108" s="5">
         <f t="shared" si="18"/>
-        <v>5.20833333333333E-4</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="K108">
-        <v>8</v>
-      </c>
-      <c r="L108">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M108" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="N108">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="O108" t="s">
-        <v>264</v>
-      </c>
-      <c r="P108" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="R108">
         <f t="shared" si="16"/>
-        <v>8.8888888888888837E-3</v>
+        <v>0</v>
       </c>
       <c r="S108">
         <f t="shared" si="17"/>
-        <v>8.888888888888884</v>
+        <v>0</v>
       </c>
       <c r="T108">
         <f t="shared" si="15"/>
-        <v>2520</v>
-      </c>
-      <c r="U108" t="s">
-        <v>160</v>
-      </c>
-      <c r="V108" t="s">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C109" t="s">
         <v>101</v>
       </c>
-      <c r="C109" t="s">
-        <v>108</v>
-      </c>
       <c r="D109" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F109">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="G109">
-        <v>2700</v>
+        <v>0.53333333333333299</v>
       </c>
       <c r="H109" s="5">
         <f t="shared" si="18"/>
-        <v>2.63671875</v>
+        <v>5.20833333333333E-4</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="K109">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L109">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M109" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="N109">
-        <v>648000</v>
+        <v>60</v>
       </c>
       <c r="O109" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>318</v>
+        <v>255</v>
+      </c>
+      <c r="P109" t="s">
+        <v>310</v>
       </c>
       <c r="R109">
         <f t="shared" si="16"/>
-        <v>4.1666666666666666E-3</v>
+        <v>8.8888888888888837E-3</v>
       </c>
       <c r="S109">
         <f t="shared" si="17"/>
-        <v>4.166666666666667</v>
+        <v>8.888888888888884</v>
       </c>
       <c r="T109">
         <f t="shared" si="15"/>
-        <v>0.46666666666666667</v>
+        <v>2520</v>
       </c>
       <c r="U109" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="V109" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C110" t="s">
         <v>102</v>
       </c>
-      <c r="C110" t="s">
-        <v>109</v>
-      </c>
       <c r="D110" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E110">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G110">
-        <v>191740.674226</v>
+        <v>2700</v>
       </c>
       <c r="H110" s="5">
         <f t="shared" si="18"/>
-        <v>187.24675217382813</v>
+        <v>2.63671875</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="K110">
-        <v>14000</v>
+        <v>9</v>
       </c>
       <c r="L110">
-        <v>12500</v>
+        <v>14</v>
       </c>
       <c r="M110" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="N110">
-        <v>460177250</v>
+        <v>648000</v>
       </c>
       <c r="O110" t="s">
-        <v>317</v>
+        <v>308</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>309</v>
       </c>
       <c r="R110">
         <f t="shared" si="16"/>
-        <v>4.1666700000054325E-4</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="S110">
         <f t="shared" si="17"/>
-        <v>0.41666700000054324</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="T110">
-        <f>K110/(N110/21600)</f>
-        <v>0.65713809189828487</v>
+        <f t="shared" si="15"/>
+        <v>0.46666666666666667</v>
       </c>
       <c r="U110" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="V110" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C111" t="s">
         <v>103</v>
-      </c>
-      <c r="C111" t="s">
-        <v>110</v>
       </c>
       <c r="D111" t="s">
         <v>33</v>
@@ -8319,242 +8430,305 @@
         <v>1</v>
       </c>
       <c r="G111">
-        <v>95870.337112900001</v>
+        <v>191740.674226</v>
       </c>
       <c r="H111" s="5">
         <f t="shared" si="18"/>
-        <v>93.623376086816407</v>
+        <v>187.24675217382813</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="K111">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L111">
-        <v>6250</v>
+        <v>12500</v>
       </c>
       <c r="M111" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="N111">
-        <v>230088625</v>
+        <v>460177250</v>
       </c>
       <c r="O111" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="R111">
         <f t="shared" si="16"/>
-        <v>4.1666700000010865E-4</v>
+        <v>4.1666700000054325E-4</v>
       </c>
       <c r="S111">
         <f t="shared" si="17"/>
-        <v>0.41666700000010864</v>
+        <v>0.41666700000054324</v>
       </c>
       <c r="T111">
         <f>K111/(N111/21600)</f>
         <v>0.65713809189828487</v>
       </c>
       <c r="U111" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="V111" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C112" t="s">
         <v>104</v>
-      </c>
-      <c r="C112" t="s">
-        <v>111</v>
       </c>
       <c r="D112" t="s">
         <v>33</v>
       </c>
       <c r="E112">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F112">
         <v>1</v>
       </c>
       <c r="G112">
-        <v>19174.067422600001</v>
+        <v>95870.337112900001</v>
       </c>
       <c r="H112" s="5">
         <f t="shared" si="18"/>
-        <v>18.724675217382813</v>
+        <v>93.623376086816407</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="K112">
-        <v>350</v>
+        <v>7000</v>
       </c>
       <c r="L112">
-        <v>200</v>
+        <v>6250</v>
       </c>
       <c r="M112" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N112">
-        <v>46017725</v>
+        <v>230088625</v>
       </c>
       <c r="O112" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="R112">
         <f t="shared" si="16"/>
-        <v>4.1666700000054331E-4</v>
+        <v>4.1666700000010865E-4</v>
       </c>
       <c r="S112">
         <f t="shared" si="17"/>
-        <v>0.4166670000005433</v>
+        <v>0.41666700000010864</v>
       </c>
       <c r="T112">
-        <f>L112/(N112/21600)</f>
-        <v>9.3876870271183563E-2</v>
+        <f>K112/(N112/21600)</f>
+        <v>0.65713809189828487</v>
       </c>
       <c r="U112" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="V112" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C113" t="s">
         <v>105</v>
-      </c>
-      <c r="C113" t="s">
-        <v>112</v>
       </c>
       <c r="D113" t="s">
         <v>33</v>
       </c>
       <c r="E113">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F113">
         <v>1</v>
       </c>
       <c r="G113">
-        <v>9587.0337112899997</v>
+        <v>19174.067422600001</v>
       </c>
       <c r="H113" s="5">
         <f t="shared" si="18"/>
-        <v>9.3623376086816403</v>
+        <v>18.724675217382813</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="K113">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="L113">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M113" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="N113">
-        <v>23008862.5</v>
+        <v>46017725</v>
       </c>
       <c r="O113" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="R113">
         <f t="shared" si="16"/>
-        <v>4.1666700000010865E-4</v>
+        <v>4.1666700000054331E-4</v>
       </c>
       <c r="S113">
         <f t="shared" si="17"/>
-        <v>0.41666700000010864</v>
+        <v>0.4166670000005433</v>
       </c>
       <c r="T113">
         <f>L113/(N113/21600)</f>
         <v>9.3876870271183563E-2</v>
       </c>
       <c r="U113" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="V113" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C114" t="s">
         <v>106</v>
       </c>
-      <c r="C114" t="s">
-        <v>113</v>
-      </c>
       <c r="D114" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E114">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F114">
         <v>1</v>
       </c>
       <c r="G114">
-        <v>270</v>
+        <v>9587.0337112899997</v>
       </c>
       <c r="H114" s="5">
         <f t="shared" si="18"/>
-        <v>0.263671875</v>
+        <v>9.3623376086816403</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="K114">
+        <v>175</v>
+      </c>
+      <c r="L114">
         <v>100</v>
       </c>
-      <c r="L114">
-        <v>50</v>
-      </c>
       <c r="M114" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="N114">
-        <v>648000</v>
+        <v>23008862.5</v>
       </c>
       <c r="O114" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="R114">
         <f t="shared" si="16"/>
-        <v>4.1666666666666669E-4</v>
+        <v>4.1666700000010865E-4</v>
       </c>
       <c r="S114">
         <f t="shared" si="17"/>
-        <v>0.41666666666666669</v>
+        <v>0.41666700000010864</v>
       </c>
       <c r="T114">
         <f>L114/(N114/21600)</f>
+        <v>9.3876870271183563E-2</v>
+      </c>
+      <c r="U114" t="s">
+        <v>153</v>
+      </c>
+      <c r="V114" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C115" t="s">
+        <v>107</v>
+      </c>
+      <c r="D115" t="s">
+        <v>23</v>
+      </c>
+      <c r="E115">
+        <v>9</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>270</v>
+      </c>
+      <c r="H115" s="5">
+        <f t="shared" si="18"/>
+        <v>0.263671875</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>100</v>
+      </c>
+      <c r="L115">
+        <v>50</v>
+      </c>
+      <c r="M115" t="s">
+        <v>237</v>
+      </c>
+      <c r="N115">
+        <v>648000</v>
+      </c>
+      <c r="O115" t="s">
+        <v>308</v>
+      </c>
+      <c r="R115">
+        <f t="shared" si="16"/>
+        <v>4.1666666666666669E-4</v>
+      </c>
+      <c r="S115">
+        <f t="shared" si="17"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="T115">
+        <f>L115/(N115/21600)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="U114" t="s">
-        <v>161</v>
-      </c>
-      <c r="V114" t="s">
-        <v>160</v>
+      <c r="U115" t="s">
+        <v>153</v>
+      </c>
+      <c r="V115" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W114">
-    <sortCondition ref="A2:A114"/>
-    <sortCondition ref="E2:E114"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W115">
+    <sortCondition ref="A2:A115"/>
+    <sortCondition ref="E2:E115"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/Plotting/SciencePlanning2.xlsx
+++ b/Plotting/SciencePlanning2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Kerbal Space Program\GameData\SkyhawkKerbalism\Plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393D3E19-C123-440A-9A24-25323E165440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F451ADE7-0449-4C0B-825C-B8977B419BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2640" yWindow="4308" windowWidth="7620" windowHeight="11316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,62 +37,174 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={4AD0B25D-FBBE-4F3E-95BD-4349D90A118E}</author>
-    <author>tc={676C6664-70D9-4EA0-9D15-7122881486E3}</author>
-    <author>tc={87A32ECE-6FD6-44FD-AB28-41C6A0E2542A}</author>
-    <author>tc={FAF16BF8-FBEE-4319-8B08-C83E0AC671DB}</author>
-    <author>tc={2DA95CAA-63CC-4D36-AB37-0FD68B7CF000}</author>
-    <author>tc={6C58BFDE-74F5-4E6A-B092-F88585F4166A}</author>
-    <author>tc={B94C6FB9-F021-4382-896E-E09CFC68A36E}</author>
-    <author>tc={D385F571-7CA4-495B-8EA7-8EFD03DC1822}</author>
     <author>tc={3EC4FB80-AA05-4DB3-89AC-6143958B9228}</author>
     <author>tc={0E43C4CD-C40D-4D04-BB33-6B1A4F875E81}</author>
     <author>tc={FD00C05B-D394-4BCE-B9C7-A3C734040ADF}</author>
     <author>tc={7628AF1C-28B0-4030-9684-89A3A99DDE58}</author>
     <author>tc={9999F68D-1CE7-4684-B1A1-D53CF0EA10DA}</author>
-    <author>tc={46B95C89-383A-486D-895A-CD0A8599700A}</author>
-    <author>tc={7D3FCB4E-15B0-4178-9C3D-68E02C5ECB6E}</author>
-    <author>tc={DF1CCCF3-C1B7-4AFA-970F-CABF9FDDB4D6}</author>
-    <author>tc={D4E04E95-4E60-4750-A1E1-8ACB4F352D5F}</author>
-    <author>tc={75567BF1-379E-4D4E-8F23-30E8255A236F}</author>
-    <author>tc={E8018AD4-E6A6-4612-9090-884922D0207D}</author>
-    <author>tc={20C8BB2E-7232-484C-B6F1-8BCE6B2A819A}</author>
-    <author>tc={961FCAFA-59FB-4147-9612-1B02330CF6CD}</author>
-    <author>tc={56E50E1B-94ED-477F-B095-ED47C1C57BE2}</author>
-    <author>tc={E84DFBFE-0271-48CF-86DA-A32745F5CA67}</author>
-    <author>tc={C7611BF8-196F-4AA2-8441-7897CE9A4D57}</author>
-    <author>tc={22CD25CC-896C-4694-B549-A77A9A3A2123}</author>
+    <author>tc={D47781EA-64CD-40C8-A9E2-7F04F3404344}</author>
     <author>tc={9958ED9D-ED83-4FE1-A9F4-36FC33863058}</author>
-    <author>tc={C41CB0B8-3C6B-43C2-8047-017DAA4591F5}</author>
-    <author>tc={A06F25E8-2D89-4199-B097-E45CA1EE1DCF}</author>
-    <author>tc={474FA9BB-41E1-4C9E-ADE3-F0B70E653916}</author>
-    <author>tc={EB1E3752-19AF-4AE0-A774-095E630A1675}</author>
-    <author>tc={51ED5DD2-6FF2-4617-B23E-4A6C2D9CB09B}</author>
-    <author>tc={BFAA6533-E42F-4FFC-8A46-6880BE62B9CF}</author>
-    <author>tc={FF4B742F-7FDA-4A40-87F2-85C4D8BF390E}</author>
-    <author>tc={D47781EA-64CD-40C8-A9E2-7F04F3404344}</author>
+    <author>tc={B94C6FB9-F021-4382-896E-E09CFC68A36E}</author>
     <author>tc={D34D2204-ED10-4749-9EE9-8A1EC9350E5D}</author>
     <author>tc={EC008EAE-E6C3-4DB8-9866-46EA1EE8520A}</author>
     <author>tc={653E04C6-34B5-40A8-B8BD-22BD611FD0C4}</author>
-    <author>tc={936ED0DE-655E-40A2-B8A2-0D4A0360B251}</author>
     <author>tc={14ABA252-8575-4EFD-908D-8CFC6BD4EACC}</author>
+    <author>tc={46B95C89-383A-486D-895A-CD0A8599700A}</author>
+    <author>tc={7D3FCB4E-15B0-4178-9C3D-68E02C5ECB6E}</author>
+    <author>tc={4AD0B25D-FBBE-4F3E-95BD-4349D90A118E}</author>
+    <author>tc={676C6664-70D9-4EA0-9D15-7122881486E3}</author>
+    <author>tc={87A32ECE-6FD6-44FD-AB28-41C6A0E2542A}</author>
+    <author>tc={FAF16BF8-FBEE-4319-8B08-C83E0AC671DB}</author>
+    <author>tc={E84DFBFE-0271-48CF-86DA-A32745F5CA67}</author>
+    <author>tc={A06F25E8-2D89-4199-B097-E45CA1EE1DCF}</author>
+    <author>tc={E8018AD4-E6A6-4612-9090-884922D0207D}</author>
+    <author>tc={C7611BF8-196F-4AA2-8441-7897CE9A4D57}</author>
+    <author>tc={2DA95CAA-63CC-4D36-AB37-0FD68B7CF000}</author>
     <author>tc={9598CB20-CFD1-45F8-AACE-902E8C1F748E}</author>
     <author>tc={DBBA6B56-5FB6-4DD3-9FD7-E12F346DB0E8}</author>
-    <author>tc={73B7F616-0A10-45BE-AD6C-66A741CCCF15}</author>
-    <author>tc={9A52AF0B-0F09-4A92-BE29-DE3B88558F9D}</author>
-    <author>tc={88CF805A-9179-456B-A8B8-9EAA894AC628}</author>
-    <author>tc={CCEDA396-E1ED-424B-85DD-5F8455F223C6}</author>
-    <author>tc={8BBB282A-A9E1-42B7-9483-A81B797ADF89}</author>
-    <author>tc={7D59DD35-2ED2-4FDB-94B1-1D2F6F09F225}</author>
     <author>tc={4BCE4DED-0683-48F2-8FA3-01A147EBE6EB}</author>
     <author>tc={F99B5D72-597D-49D0-AED2-D197A6CD3D93}</author>
     <author>tc={817180CB-BCAE-4DF5-AE78-6B31128A2F3E}</author>
     <author>tc={E6C309BD-09DD-41C6-9D18-20907246A2E1}</author>
     <author>tc={251F8309-3C96-4F71-A84E-614F66B277D2}</author>
     <author>tc={EC3E079B-A467-4380-8E4F-59C8A3C76F34}</author>
+    <author>tc={D385F571-7CA4-495B-8EA7-8EFD03DC1822}</author>
+    <author>tc={DF1CCCF3-C1B7-4AFA-970F-CABF9FDDB4D6}</author>
+    <author>tc={20C8BB2E-7232-484C-B6F1-8BCE6B2A819A}</author>
+    <author>tc={73B7F616-0A10-45BE-AD6C-66A741CCCF15}</author>
+    <author>tc={9A52AF0B-0F09-4A92-BE29-DE3B88558F9D}</author>
+    <author>tc={88CF805A-9179-456B-A8B8-9EAA894AC628}</author>
+    <author>tc={CCEDA396-E1ED-424B-85DD-5F8455F223C6}</author>
+    <author>tc={8BBB282A-A9E1-42B7-9483-A81B797ADF89}</author>
+    <author>tc={6C58BFDE-74F5-4E6A-B092-F88585F4166A}</author>
+    <author>tc={961FCAFA-59FB-4147-9612-1B02330CF6CD}</author>
+    <author>tc={474FA9BB-41E1-4C9E-ADE3-F0B70E653916}</author>
+    <author>tc={EB1E3752-19AF-4AE0-A774-095E630A1675}</author>
+    <author>tc={51ED5DD2-6FF2-4617-B23E-4A6C2D9CB09B}</author>
+    <author>tc={C41CB0B8-3C6B-43C2-8047-017DAA4591F5}</author>
+    <author>tc={D4E04E95-4E60-4750-A1E1-8ACB4F352D5F}</author>
+    <author>tc={75567BF1-379E-4D4E-8F23-30E8255A236F}</author>
+    <author>tc={56E50E1B-94ED-477F-B095-ED47C1C57BE2}</author>
+    <author>tc={22CD25CC-896C-4694-B549-A77A9A3A2123}</author>
+    <author>tc={BFAA6533-E42F-4FFC-8A46-6880BE62B9CF}</author>
+    <author>tc={FF4B742F-7FDA-4A40-87F2-85C4D8BF390E}</author>
+    <author>tc={936ED0DE-655E-40A2-B8A2-0D4A0360B251}</author>
+    <author>tc={7D59DD35-2ED2-4FDB-94B1-1D2F6F09F225}</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{4AD0B25D-FBBE-4F3E-95BD-4349D90A118E}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{3EC4FB80-AA05-4DB3-89AC-6143958B9228}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    doesn't take that long to pick up rocks</t>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{0E43C4CD-C40D-4D04-BB33-6B1A4F875E81}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    doesn't take that long to pick up rocks</t>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="2" shapeId="0" xr:uid="{FD00C05B-D394-4BCE-B9C7-A3C734040ADF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    doesn't take that long to pick up rocks</t>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="3" shapeId="0" xr:uid="{7628AF1C-28B0-4030-9684-89A3A99DDE58}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    doesn't take that long to pick up rocks</t>
+      </text>
+    </comment>
+    <comment ref="N6" authorId="4" shapeId="0" xr:uid="{9999F68D-1CE7-4684-B1A1-D53CF0EA10DA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    doesn't take that long to pick up rocks</t>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="5" shapeId="0" xr:uid="{D47781EA-64CD-40C8-A9E2-7F04F3404344}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    About how long Insight is progged to last for</t>
+      </text>
+    </comment>
+    <comment ref="L10" authorId="6" shapeId="0" xr:uid="{9958ED9D-ED83-4FE1-A9F4-36FC33863058}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Aviation Values are doubled due to kerbin atmo being 0.5x</t>
+      </text>
+    </comment>
+    <comment ref="Q18" authorId="7" shapeId="0" xr:uid="{B94C6FB9-F021-4382-896E-E09CFC68A36E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    half what a kerbonaut consumes per day</t>
+      </text>
+    </comment>
+    <comment ref="C26" authorId="8" shapeId="0" xr:uid="{D34D2204-ED10-4749-9EE9-8A1EC9350E5D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    make this one a transmission with a very high transmission rate</t>
+      </text>
+    </comment>
+    <comment ref="N26" authorId="9" shapeId="0" xr:uid="{EC008EAE-E6C3-4DB8-9866-46EA1EE8520A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    actual broadcast may not be long, but prepwork sure will be</t>
+      </text>
+    </comment>
+    <comment ref="N27" authorId="10" shapeId="0" xr:uid="{653E04C6-34B5-40A8-B8BD-22BD611FD0C4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    About same length as Mars/Duna mission. Making sure the crew won't go cuckoo for coco puffs mid flight</t>
+      </text>
+    </comment>
+    <comment ref="N28" authorId="11" shapeId="0" xr:uid="{14ABA252-8575-4EFD-908D-8CFC6BD4EACC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    ISS has been completed for about 10 years now</t>
+      </text>
+    </comment>
+    <comment ref="N30" authorId="12" shapeId="0" xr:uid="{46B95C89-383A-486D-895A-CD0A8599700A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Basically just a quick elevator pitch</t>
+      </text>
+    </comment>
+    <comment ref="N31" authorId="13" shapeId="0" xr:uid="{7D3FCB4E-15B0-4178-9C3D-68E02C5ECB6E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    doesn't take that long to pick up rocks</t>
+      </text>
+    </comment>
+    <comment ref="G33" authorId="14" shapeId="0" xr:uid="{4AD0B25D-FBBE-4F3E-95BD-4349D90A118E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -100,7 +212,7 @@
     All unmanned experiments need at least this much</t>
       </text>
     </comment>
-    <comment ref="L2" authorId="1" shapeId="0" xr:uid="{676C6664-70D9-4EA0-9D15-7122881486E3}">
+    <comment ref="L33" authorId="15" shapeId="0" xr:uid="{676C6664-70D9-4EA0-9D15-7122881486E3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -112,7 +224,7 @@
     1,3,5 at first, +1 for each tier up you go</t>
       </text>
     </comment>
-    <comment ref="M2" authorId="2" shapeId="0" xr:uid="{87A32ECE-6FD6-44FD-AB28-41C6A0E2542A}">
+    <comment ref="M33" authorId="16" shapeId="0" xr:uid="{87A32ECE-6FD6-44FD-AB28-41C6A0E2542A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -122,7 +234,7 @@
     Best bet is probs to make most defualt experiments less than 10 points, and then longer term ones or manned ones in that &lt; 50 range. LT ones go in the &lt;500 range, and ULT goes above that</t>
       </text>
     </comment>
-    <comment ref="G3" authorId="3" shapeId="0" xr:uid="{FAF16BF8-FBEE-4319-8B08-C83E0AC671DB}">
+    <comment ref="G34" authorId="17" shapeId="0" xr:uid="{FAF16BF8-FBEE-4319-8B08-C83E0AC671DB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -130,7 +242,39 @@
     Nigh all unmanned experiments need at least this much (covers data recording and other similar actions)</t>
       </text>
     </comment>
-    <comment ref="N18" authorId="4" shapeId="0" xr:uid="{2DA95CAA-63CC-4D36-AB37-0FD68B7CF000}">
+    <comment ref="N50" authorId="18" shapeId="0" xr:uid="{E84DFBFE-0271-48CF-86DA-A32745F5CA67}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Based on wikipedia - btw this used film, so it's gonna need to be returned by hand.</t>
+      </text>
+    </comment>
+    <comment ref="N55" authorId="19" shapeId="0" xr:uid="{A06F25E8-2D89-4199-B097-E45CA1EE1DCF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    According to most videos I've seen in moves pretty quick, so lets say 30 seconds</t>
+      </text>
+    </comment>
+    <comment ref="N56" authorId="20" shapeId="0" xr:uid="{E8018AD4-E6A6-4612-9090-884922D0207D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    about the same as stock Kerbalism</t>
+      </text>
+    </comment>
+    <comment ref="N57" authorId="21" shapeId="0" xr:uid="{C7611BF8-196F-4AA2-8441-7897CE9A4D57}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Can you keep a lander operational this long? Can you?</t>
+      </text>
+    </comment>
+    <comment ref="N60" authorId="22" shapeId="0" xr:uid="{2DA95CAA-63CC-4D36-AB37-0FD68B7CF000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -138,7 +282,139 @@
     enough that a flyby will give you useful science, but u will still need more if you want to get the full amount</t>
       </text>
     </comment>
-    <comment ref="A20" authorId="5" shapeId="0" xr:uid="{6C58BFDE-74F5-4E6A-B092-F88585F4166A}">
+    <comment ref="B66" authorId="23" shapeId="0" xr:uid="{9598CB20-CFD1-45F8-AACE-902E8C1F748E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Lunar one only goes on Kerbin Moons and only gives one set of science, off-world one is per planet/moon and is less restrictive, but requires shadow</t>
+      </text>
+    </comment>
+    <comment ref="N66" authorId="24" shapeId="0" xr:uid="{DBBA6B56-5FB6-4DD3-9FD7-E12F346DB0E8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    requires darkness so that may make things fun</t>
+      </text>
+    </comment>
+    <comment ref="B68" authorId="25" shapeId="0" xr:uid="{4BCE4DED-0683-48F2-8FA3-01A147EBE6EB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Also completes biome's Regional Geology Research experiment
+Reply:
+    still biome based tho</t>
+      </text>
+    </comment>
+    <comment ref="B69" authorId="26" shapeId="0" xr:uid="{F99B5D72-597D-49D0-AED2-D197A6CD3D93}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    might be hemisphere based - not sure</t>
+      </text>
+    </comment>
+    <comment ref="N69" authorId="27" shapeId="0" xr:uid="{817180CB-BCAE-4DF5-AE78-6B31128A2F3E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    requires darkness so that may make things fun</t>
+      </text>
+    </comment>
+    <comment ref="B72" authorId="28" shapeId="0" xr:uid="{E6C309BD-09DD-41C6-9D18-20907246A2E1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    once per planet
+Reply:
+    requires a LOT of kerbals</t>
+      </text>
+    </comment>
+    <comment ref="N72" authorId="29" shapeId="0" xr:uid="{251F8309-3C96-4F71-A84E-614F66B277D2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    If you can manage a 20 kerbal base for 10 years, you deserve the science!</t>
+      </text>
+    </comment>
+    <comment ref="N73" authorId="30" shapeId="0" xr:uid="{EC3E079B-A467-4380-8E4F-59C8A3C76F34}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Big Base with huge power consumption gives lots of science for a very long time</t>
+      </text>
+    </comment>
+    <comment ref="N79" authorId="31" shapeId="0" xr:uid="{D385F571-7CA4-495B-8EA7-8EFD03DC1822}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    still a lot longer tho as its belt based</t>
+      </text>
+    </comment>
+    <comment ref="B81" authorId="32" shapeId="0" xr:uid="{DF1CCCF3-C1B7-4AFA-970F-CABF9FDDB4D6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    samples</t>
+      </text>
+    </comment>
+    <comment ref="B82" authorId="33" shapeId="0" xr:uid="{20C8BB2E-7232-484C-B6F1-8BCE6B2A819A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    samples</t>
+      </text>
+    </comment>
+    <comment ref="A83" authorId="34" shapeId="0" xr:uid="{73B7F616-0A10-45BE-AD6C-66A741CCCF15}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Carried in materials Lab - most are unmanned, but a lot produce samples</t>
+      </text>
+    </comment>
+    <comment ref="N83" authorId="35" shapeId="0" xr:uid="{9A52AF0B-0F09-4A92-BE29-DE3B88558F9D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Do you really want to be down there longer?</t>
+      </text>
+    </comment>
+    <comment ref="B84" authorId="36" shapeId="0" xr:uid="{88CF805A-9179-456B-A8B8-9EAA894AC628}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Manned, samples</t>
+      </text>
+    </comment>
+    <comment ref="H84" authorId="37" shapeId="0" xr:uid="{CCEDA396-E1ED-424B-85DD-5F8455F223C6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    will say it involves taking a ton of surface samples from different locations</t>
+      </text>
+    </comment>
+    <comment ref="N84" authorId="38" shapeId="0" xr:uid="{8BBB282A-A9E1-42B7-9483-A81B797ADF89}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    long enough for the kerbals to get a ton of samples so long as they keep moving</t>
+      </text>
+    </comment>
+    <comment ref="A86" authorId="39" shapeId="0" xr:uid="{6C58BFDE-74F5-4E6A-B092-F88585F4166A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -146,119 +422,7 @@
     will likely be on seperate parts only.</t>
       </text>
     </comment>
-    <comment ref="Q22" authorId="6" shapeId="0" xr:uid="{B94C6FB9-F021-4382-896E-E09CFC68A36E}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    half what a kerbonaut consumes per day</t>
-      </text>
-    </comment>
-    <comment ref="N26" authorId="7" shapeId="0" xr:uid="{D385F571-7CA4-495B-8EA7-8EFD03DC1822}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    still a lot longer tho as its belt based</t>
-      </text>
-    </comment>
-    <comment ref="N30" authorId="8" shapeId="0" xr:uid="{3EC4FB80-AA05-4DB3-89AC-6143958B9228}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    doesn't take that long to pick up rocks</t>
-      </text>
-    </comment>
-    <comment ref="N31" authorId="9" shapeId="0" xr:uid="{0E43C4CD-C40D-4D04-BB33-6B1A4F875E81}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    doesn't take that long to pick up rocks</t>
-      </text>
-    </comment>
-    <comment ref="N32" authorId="10" shapeId="0" xr:uid="{FD00C05B-D394-4BCE-B9C7-A3C734040ADF}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    doesn't take that long to pick up rocks</t>
-      </text>
-    </comment>
-    <comment ref="N33" authorId="11" shapeId="0" xr:uid="{7628AF1C-28B0-4030-9684-89A3A99DDE58}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    doesn't take that long to pick up rocks</t>
-      </text>
-    </comment>
-    <comment ref="N34" authorId="12" shapeId="0" xr:uid="{9999F68D-1CE7-4684-B1A1-D53CF0EA10DA}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    doesn't take that long to pick up rocks</t>
-      </text>
-    </comment>
-    <comment ref="N36" authorId="13" shapeId="0" xr:uid="{46B95C89-383A-486D-895A-CD0A8599700A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Basically just a quick elevator pitch</t>
-      </text>
-    </comment>
-    <comment ref="N37" authorId="14" shapeId="0" xr:uid="{7D3FCB4E-15B0-4178-9C3D-68E02C5ECB6E}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    doesn't take that long to pick up rocks</t>
-      </text>
-    </comment>
-    <comment ref="B39" authorId="15" shapeId="0" xr:uid="{DF1CCCF3-C1B7-4AFA-970F-CABF9FDDB4D6}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    samples</t>
-      </text>
-    </comment>
-    <comment ref="B40" authorId="16" shapeId="0" xr:uid="{D4E04E95-4E60-4750-A1E1-8ACB4F352D5F}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    polar retrograde</t>
-      </text>
-    </comment>
-    <comment ref="N40" authorId="17" shapeId="0" xr:uid="{75567BF1-379E-4D4E-8F23-30E8255A236F}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Takes about a year to get cloud-free photoes of all land area</t>
-      </text>
-    </comment>
-    <comment ref="N49" authorId="18" shapeId="0" xr:uid="{E8018AD4-E6A6-4612-9090-884922D0207D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    about the same as stock Kerbalism</t>
-      </text>
-    </comment>
-    <comment ref="B51" authorId="19" shapeId="0" xr:uid="{20C8BB2E-7232-484C-B6F1-8BCE6B2A819A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    samples</t>
-      </text>
-    </comment>
-    <comment ref="N52" authorId="20" shapeId="0" xr:uid="{961FCAFA-59FB-4147-9612-1B02330CF6CD}">
+    <comment ref="N87" authorId="40" shapeId="0" xr:uid="{961FCAFA-59FB-4147-9612-1B02330CF6CD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -266,47 +430,31 @@
     Seems like the NRO started launching Orions in the mid 80s so lets say 40 years in a funky low retrograde orbit</t>
       </text>
     </comment>
-    <comment ref="B53" authorId="21" shapeId="0" xr:uid="{56E50E1B-94ED-477F-B095-ED47C1C57BE2}">
+    <comment ref="B89" authorId="41" shapeId="0" xr:uid="{474FA9BB-41E1-4C9E-ADE3-F0B70E653916}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    molynia</t>
+    interplanetary orbit only</t>
       </text>
     </comment>
-    <comment ref="N55" authorId="22" shapeId="0" xr:uid="{E84DFBFE-0271-48CF-86DA-A32745F5CA67}">
+    <comment ref="N89" authorId="42" shapeId="0" xr:uid="{EB1E3752-19AF-4AE0-A774-095E630A1675}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Based on wikipedia - btw this used film, so it's gonna need to be returned by hand.</t>
+    Better hope it detects solar flares before they hit it...</t>
       </text>
     </comment>
-    <comment ref="N56" authorId="23" shapeId="0" xr:uid="{C7611BF8-196F-4AA2-8441-7897CE9A4D57}">
+    <comment ref="N91" authorId="43" shapeId="0" xr:uid="{51ED5DD2-6FF2-4617-B23E-4A6C2D9CB09B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Can you keep a lander operational this long? Can you?</t>
+    Makes it so it's more than just a quick pop out of the heliosphere - you're gonna have to be on an escape trajectory</t>
       </text>
     </comment>
-    <comment ref="N59" authorId="24" shapeId="0" xr:uid="{22CD25CC-896C-4694-B549-A77A9A3A2123}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    lets hope for the best case scenario</t>
-      </text>
-    </comment>
-    <comment ref="L60" authorId="25" shapeId="0" xr:uid="{9958ED9D-ED83-4FE1-A9F4-36FC33863058}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Aviation Values are doubled due to kerbin atmo being 0.5x</t>
-      </text>
-    </comment>
-    <comment ref="N65" authorId="26" shapeId="0" xr:uid="{C41CB0B8-3C6B-43C2-8047-017DAA4591F5}">
+    <comment ref="N92" authorId="44" shapeId="0" xr:uid="{C41CB0B8-3C6B-43C2-8047-017DAA4591F5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -316,39 +464,39 @@
     Also based on wikipedia, it seems that they were in orbit for about 2 days each, and if we assume half of that is for assorted technical stuff, then half is for capturing</t>
       </text>
     </comment>
-    <comment ref="N76" authorId="27" shapeId="0" xr:uid="{A06F25E8-2D89-4199-B097-E45CA1EE1DCF}">
+    <comment ref="B93" authorId="45" shapeId="0" xr:uid="{D4E04E95-4E60-4750-A1E1-8ACB4F352D5F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    According to most videos I've seen in moves pretty quick, so lets say 30 seconds</t>
+    polar retrograde</t>
       </text>
     </comment>
-    <comment ref="B78" authorId="28" shapeId="0" xr:uid="{474FA9BB-41E1-4C9E-ADE3-F0B70E653916}">
+    <comment ref="N93" authorId="46" shapeId="0" xr:uid="{75567BF1-379E-4D4E-8F23-30E8255A236F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    interplanetary orbit only</t>
+    Takes about a year to get cloud-free photoes of all land area</t>
       </text>
     </comment>
-    <comment ref="N78" authorId="29" shapeId="0" xr:uid="{EB1E3752-19AF-4AE0-A774-095E630A1675}">
+    <comment ref="B94" authorId="47" shapeId="0" xr:uid="{56E50E1B-94ED-477F-B095-ED47C1C57BE2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Better hope it detects solar flares before they hit it...</t>
+    molynia</t>
       </text>
     </comment>
-    <comment ref="N79" authorId="30" shapeId="0" xr:uid="{51ED5DD2-6FF2-4617-B23E-4A6C2D9CB09B}">
+    <comment ref="N100" authorId="48" shapeId="0" xr:uid="{22CD25CC-896C-4694-B549-A77A9A3A2123}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Makes it so it's more than just a quick pop out of the heliosphere - you're gonna have to be on an escape trajectory</t>
+    lets hope for the best case scenario</t>
       </text>
     </comment>
-    <comment ref="N80" authorId="31" shapeId="0" xr:uid="{BFAA6533-E42F-4FFC-8A46-6880BE62B9CF}">
+    <comment ref="N113" authorId="49" shapeId="0" xr:uid="{BFAA6533-E42F-4FFC-8A46-6880BE62B9CF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -356,7 +504,7 @@
     We seem to have two at a time, and they've been active for about 50 years - I've halved the values to 25 per Sat as I highly doubt many players will finish them otherwise...</t>
       </text>
     </comment>
-    <comment ref="N81" authorId="32" shapeId="0" xr:uid="{FF4B742F-7FDA-4A40-87F2-85C4D8BF390E}">
+    <comment ref="N114" authorId="50" shapeId="0" xr:uid="{FF4B742F-7FDA-4A40-87F2-85C4D8BF390E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -364,39 +512,7 @@
     We seem to have two at a time, and it's hemispherical, so that means 1/2 GOES</t>
       </text>
     </comment>
-    <comment ref="N86" authorId="33" shapeId="0" xr:uid="{D47781EA-64CD-40C8-A9E2-7F04F3404344}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    About how long Insight is progged to last for</t>
-      </text>
-    </comment>
-    <comment ref="C87" authorId="34" shapeId="0" xr:uid="{D34D2204-ED10-4749-9EE9-8A1EC9350E5D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    make this one a transmission with a very high transmission rate</t>
-      </text>
-    </comment>
-    <comment ref="N87" authorId="35" shapeId="0" xr:uid="{EC008EAE-E6C3-4DB8-9866-46EA1EE8520A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    actual broadcast may not be long, but prepwork sure will be</t>
-      </text>
-    </comment>
-    <comment ref="N88" authorId="36" shapeId="0" xr:uid="{653E04C6-34B5-40A8-B8BD-22BD611FD0C4}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    About same length as Mars/Duna mission. Making sure the crew won't go cuckoo for coco puffs mid flight</t>
-      </text>
-    </comment>
-    <comment ref="N90" authorId="37" shapeId="0" xr:uid="{936ED0DE-655E-40A2-B8A2-0D4A0360B251}">
+    <comment ref="N115" authorId="51" shapeId="0" xr:uid="{936ED0DE-655E-40A2-B8A2-0D4A0360B251}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -404,128 +520,12 @@
     shrunk down a lot from GOES (it's equivalent) cuz 50 years is a long time for another planet (and also cuz its implied the science from GOES and LANDSAT is also cuz of uses that need civilization like weather forecasting)</t>
       </text>
     </comment>
-    <comment ref="N92" authorId="38" shapeId="0" xr:uid="{14ABA252-8575-4EFD-908D-8CFC6BD4EACC}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    ISS has been completed for about 10 years now</t>
-      </text>
-    </comment>
-    <comment ref="B95" authorId="39" shapeId="0" xr:uid="{9598CB20-CFD1-45F8-AACE-902E8C1F748E}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Lunar one only goes on Kerbin Moons and only gives one set of science, off-world one is per planet/moon and is less restrictive, but requires shadow</t>
-      </text>
-    </comment>
-    <comment ref="N95" authorId="40" shapeId="0" xr:uid="{DBBA6B56-5FB6-4DD3-9FD7-E12F346DB0E8}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    requires darkness so that may make things fun</t>
-      </text>
-    </comment>
-    <comment ref="A97" authorId="41" shapeId="0" xr:uid="{73B7F616-0A10-45BE-AD6C-66A741CCCF15}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Carried in materials Lab - most are unmanned, but a lot produce samples</t>
-      </text>
-    </comment>
-    <comment ref="N97" authorId="42" shapeId="0" xr:uid="{9A52AF0B-0F09-4A92-BE29-DE3B88558F9D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Do you really want to be down there longer?</t>
-      </text>
-    </comment>
-    <comment ref="B98" authorId="43" shapeId="0" xr:uid="{88CF805A-9179-456B-A8B8-9EAA894AC628}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Manned, samples</t>
-      </text>
-    </comment>
-    <comment ref="H98" authorId="44" shapeId="0" xr:uid="{CCEDA396-E1ED-424B-85DD-5F8455F223C6}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    will say it involves taking a ton of surface samples from different locations</t>
-      </text>
-    </comment>
-    <comment ref="N98" authorId="45" shapeId="0" xr:uid="{8BBB282A-A9E1-42B7-9483-A81B797ADF89}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    long enough for the kerbals to get a ton of samples so long as they keep moving</t>
-      </text>
-    </comment>
-    <comment ref="N111" authorId="46" shapeId="0" xr:uid="{7D59DD35-2ED2-4FDB-94B1-1D2F6F09F225}">
+    <comment ref="N117" authorId="52" shapeId="0" xr:uid="{7D59DD35-2ED2-4FDB-94B1-1D2F6F09F225}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Not like you are gonna survive the radiation much longer than that...</t>
-      </text>
-    </comment>
-    <comment ref="B112" authorId="47" shapeId="0" xr:uid="{4BCE4DED-0683-48F2-8FA3-01A147EBE6EB}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Also completes biome's Regional Geology Research experiment
-Reply:
-    still biome based tho</t>
-      </text>
-    </comment>
-    <comment ref="B113" authorId="48" shapeId="0" xr:uid="{F99B5D72-597D-49D0-AED2-D197A6CD3D93}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    might be hemisphere based - not sure</t>
-      </text>
-    </comment>
-    <comment ref="N113" authorId="49" shapeId="0" xr:uid="{817180CB-BCAE-4DF5-AE78-6B31128A2F3E}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    requires darkness so that may make things fun</t>
-      </text>
-    </comment>
-    <comment ref="B116" authorId="50" shapeId="0" xr:uid="{E6C309BD-09DD-41C6-9D18-20907246A2E1}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    once per planet
-Reply:
-    requires a LOT of kerbals</t>
-      </text>
-    </comment>
-    <comment ref="N116" authorId="51" shapeId="0" xr:uid="{251F8309-3C96-4F71-A84E-614F66B277D2}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    If you can manage a 20 kerbal base for 10 years, you deserve the science!</t>
-      </text>
-    </comment>
-    <comment ref="N117" authorId="52" shapeId="0" xr:uid="{EC3E079B-A467-4380-8E4F-59C8A3C76F34}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Big Base with huge power consumption gives lots of science for a very long time</t>
       </text>
     </comment>
   </commentList>
@@ -1951,182 +1951,182 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G2" dT="2022-02-19T18:40:08.33" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{4AD0B25D-FBBE-4F3E-95BD-4349D90A118E}">
+  <threadedComment ref="N2" dT="2022-02-17T06:08:02.40" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{3EC4FB80-AA05-4DB3-89AC-6143958B9228}">
+    <text>doesn't take that long to pick up rocks</text>
+  </threadedComment>
+  <threadedComment ref="N3" dT="2022-02-17T06:08:02.40" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{0E43C4CD-C40D-4D04-BB33-6B1A4F875E81}">
+    <text>doesn't take that long to pick up rocks</text>
+  </threadedComment>
+  <threadedComment ref="N4" dT="2022-02-17T06:08:02.40" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{FD00C05B-D394-4BCE-B9C7-A3C734040ADF}">
+    <text>doesn't take that long to pick up rocks</text>
+  </threadedComment>
+  <threadedComment ref="N5" dT="2022-02-17T06:08:02.40" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{7628AF1C-28B0-4030-9684-89A3A99DDE58}">
+    <text>doesn't take that long to pick up rocks</text>
+  </threadedComment>
+  <threadedComment ref="N6" dT="2022-02-17T06:08:02.40" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{9999F68D-1CE7-4684-B1A1-D53CF0EA10DA}">
+    <text>doesn't take that long to pick up rocks</text>
+  </threadedComment>
+  <threadedComment ref="N9" dT="2022-02-17T05:50:18.60" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{D47781EA-64CD-40C8-A9E2-7F04F3404344}">
+    <text>About how long Insight is progged to last for</text>
+  </threadedComment>
+  <threadedComment ref="L10" dT="2022-03-03T16:38:33.84" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{9958ED9D-ED83-4FE1-A9F4-36FC33863058}">
+    <text>Aviation Values are doubled due to kerbin atmo being 0.5x</text>
+  </threadedComment>
+  <threadedComment ref="Q18" dT="2022-02-19T18:30:20.11" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{B94C6FB9-F021-4382-896E-E09CFC68A36E}">
+    <text>half what a kerbonaut consumes per day</text>
+  </threadedComment>
+  <threadedComment ref="C26" dT="2022-03-30T17:04:53.84" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{D34D2204-ED10-4749-9EE9-8A1EC9350E5D}">
+    <text>make this one a transmission with a very high transmission rate</text>
+  </threadedComment>
+  <threadedComment ref="N26" dT="2022-02-17T06:07:01.69" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{EC008EAE-E6C3-4DB8-9866-46EA1EE8520A}">
+    <text>actual broadcast may not be long, but prepwork sure will be</text>
+  </threadedComment>
+  <threadedComment ref="N27" dT="2022-02-17T06:04:23.41" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{653E04C6-34B5-40A8-B8BD-22BD611FD0C4}">
+    <text>About same length as Mars/Duna mission. Making sure the crew won't go cuckoo for coco puffs mid flight</text>
+  </threadedComment>
+  <threadedComment ref="N28" dT="2022-02-17T06:03:50.45" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{14ABA252-8575-4EFD-908D-8CFC6BD4EACC}">
+    <text>ISS has been completed for about 10 years now</text>
+  </threadedComment>
+  <threadedComment ref="N30" dT="2022-02-17T06:07:35.59" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{46B95C89-383A-486D-895A-CD0A8599700A}">
+    <text>Basically just a quick elevator pitch</text>
+  </threadedComment>
+  <threadedComment ref="N31" dT="2022-02-17T06:08:02.40" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{7D3FCB4E-15B0-4178-9C3D-68E02C5ECB6E}">
+    <text>doesn't take that long to pick up rocks</text>
+  </threadedComment>
+  <threadedComment ref="G33" dT="2022-02-19T18:40:08.33" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{4AD0B25D-FBBE-4F3E-95BD-4349D90A118E}">
     <text>All unmanned experiments need at least this much</text>
   </threadedComment>
-  <threadedComment ref="L2" dT="2022-02-27T07:29:42.98" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{676C6664-70D9-4EA0-9D15-7122881486E3}">
+  <threadedComment ref="L33" dT="2022-02-27T07:29:42.98" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{676C6664-70D9-4EA0-9D15-7122881486E3}">
     <text>Consider rebalancing a lot of this stuff - rather than focusing on the idea of rewarding with techs, focus more on making it so you need to do a majority of the experiments to progress - remember, sciences rewards increase massively for each planet further out you go</text>
   </threadedComment>
-  <threadedComment ref="L2" dT="2022-02-27T07:30:49.55" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{175F8E1D-6D25-495B-9B7E-2A57AC61D7D2}" parentId="{676C6664-70D9-4EA0-9D15-7122881486E3}">
+  <threadedComment ref="L33" dT="2022-02-27T07:30:49.55" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{175F8E1D-6D25-495B-9B7E-2A57AC61D7D2}" parentId="{676C6664-70D9-4EA0-9D15-7122881486E3}">
     <text>Best bet is probs to make most defualt experiments less than 10 points, and then longer term ones or manned ones in that &lt; 50 range. LT ones go in the &lt;500 range, and ULT goes above that</text>
   </threadedComment>
-  <threadedComment ref="L2" dT="2022-03-03T16:29:55.33" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{24FB39B4-CB65-45CF-82EB-5BDD9D144510}" parentId="{676C6664-70D9-4EA0-9D15-7122881486E3}">
+  <threadedComment ref="L33" dT="2022-03-03T16:29:55.33" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{24FB39B4-CB65-45CF-82EB-5BDD9D144510}" parentId="{676C6664-70D9-4EA0-9D15-7122881486E3}">
     <text>1,3,5 at first, +1 for each tier up you go</text>
   </threadedComment>
-  <threadedComment ref="M2" dT="2022-02-27T07:29:42.98" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{87A32ECE-6FD6-44FD-AB28-41C6A0E2542A}">
+  <threadedComment ref="M33" dT="2022-02-27T07:29:42.98" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{87A32ECE-6FD6-44FD-AB28-41C6A0E2542A}">
     <text>Consider rebalancing a lot of this stuff - rather than focusing on the idea of rewarding with techs, focus more on making it so you need to do a majority of the experiments to progress - remember, sciences rewards increase massively for each planet further out you go</text>
   </threadedComment>
-  <threadedComment ref="M2" dT="2022-02-27T07:30:49.55" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{4C6DD720-3227-43D6-99C9-FE5001A587C7}" parentId="{87A32ECE-6FD6-44FD-AB28-41C6A0E2542A}">
+  <threadedComment ref="M33" dT="2022-02-27T07:30:49.55" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{4C6DD720-3227-43D6-99C9-FE5001A587C7}" parentId="{87A32ECE-6FD6-44FD-AB28-41C6A0E2542A}">
     <text>Best bet is probs to make most defualt experiments less than 10 points, and then longer term ones or manned ones in that &lt; 50 range. LT ones go in the &lt;500 range, and ULT goes above that</text>
   </threadedComment>
-  <threadedComment ref="G3" dT="2022-02-19T18:40:44.66" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{FAF16BF8-FBEE-4319-8B08-C83E0AC671DB}">
+  <threadedComment ref="G34" dT="2022-02-19T18:40:44.66" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{FAF16BF8-FBEE-4319-8B08-C83E0AC671DB}">
     <text>Nigh all unmanned experiments need at least this much (covers data recording and other similar actions)</text>
   </threadedComment>
-  <threadedComment ref="N18" dT="2022-02-17T06:01:35.95" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{2DA95CAA-63CC-4D36-AB37-0FD68B7CF000}">
+  <threadedComment ref="N50" dT="2022-02-17T05:48:15.68" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{E84DFBFE-0271-48CF-86DA-A32745F5CA67}">
+    <text>Based on wikipedia - btw this used film, so it's gonna need to be returned by hand.</text>
+  </threadedComment>
+  <threadedComment ref="N55" dT="2022-02-17T05:56:29.36" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{A06F25E8-2D89-4199-B097-E45CA1EE1DCF}">
+    <text>According to most videos I've seen in moves pretty quick, so lets say 30 seconds</text>
+  </threadedComment>
+  <threadedComment ref="N56" dT="2022-02-17T05:54:39.14" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{E8018AD4-E6A6-4612-9090-884922D0207D}">
+    <text>about the same as stock Kerbalism</text>
+  </threadedComment>
+  <threadedComment ref="N57" dT="2022-02-17T05:53:34.13" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{C7611BF8-196F-4AA2-8441-7897CE9A4D57}">
+    <text>Can you keep a lander operational this long? Can you?</text>
+  </threadedComment>
+  <threadedComment ref="N60" dT="2022-02-17T06:01:35.95" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{2DA95CAA-63CC-4D36-AB37-0FD68B7CF000}">
     <text>enough that a flyby will give you useful science, but u will still need more if you want to get the full amount</text>
   </threadedComment>
-  <threadedComment ref="A20" dT="2022-03-15T16:42:53.08" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{6C58BFDE-74F5-4E6A-B092-F88585F4166A}">
+  <threadedComment ref="B66" dT="2022-02-14T18:01:17.89" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{9598CB20-CFD1-45F8-AACE-902E8C1F748E}">
+    <text>Lunar one only goes on Kerbin Moons and only gives one set of science, off-world one is per planet/moon and is less restrictive, but requires shadow</text>
+  </threadedComment>
+  <threadedComment ref="N66" dT="2022-02-17T06:06:40.88" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{DBBA6B56-5FB6-4DD3-9FD7-E12F346DB0E8}">
+    <text>requires darkness so that may make things fun</text>
+  </threadedComment>
+  <threadedComment ref="B68" dT="2022-02-14T18:13:20.85" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{4BCE4DED-0683-48F2-8FA3-01A147EBE6EB}">
+    <text>Also completes biome's Regional Geology Research experiment</text>
+  </threadedComment>
+  <threadedComment ref="B68" dT="2022-02-14T18:24:19.83" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{42B721F7-29F0-49EC-AD28-31671EE20CB0}" parentId="{4BCE4DED-0683-48F2-8FA3-01A147EBE6EB}">
+    <text>still biome based tho</text>
+  </threadedComment>
+  <threadedComment ref="B69" dT="2022-02-14T18:32:15.48" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{F99B5D72-597D-49D0-AED2-D197A6CD3D93}">
+    <text>might be hemisphere based - not sure</text>
+  </threadedComment>
+  <threadedComment ref="N69" dT="2022-02-17T06:06:40.88" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{817180CB-BCAE-4DF5-AE78-6B31128A2F3E}">
+    <text>requires darkness so that may make things fun</text>
+  </threadedComment>
+  <threadedComment ref="B72" dT="2022-02-14T18:24:01.36" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{E6C309BD-09DD-41C6-9D18-20907246A2E1}">
+    <text>once per planet</text>
+  </threadedComment>
+  <threadedComment ref="B72" dT="2022-02-14T18:31:01.02" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{0276A4DD-83BC-4B68-8E55-C763C4E47BEC}" parentId="{E6C309BD-09DD-41C6-9D18-20907246A2E1}">
+    <text>requires a LOT of kerbals</text>
+  </threadedComment>
+  <threadedComment ref="N72" dT="2022-02-17T06:04:47.75" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{251F8309-3C96-4F71-A84E-614F66B277D2}">
+    <text>If you can manage a 20 kerbal base for 10 years, you deserve the science!</text>
+  </threadedComment>
+  <threadedComment ref="N73" dT="2022-02-17T06:05:17.78" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{EC3E079B-A467-4380-8E4F-59C8A3C76F34}">
+    <text>Big Base with huge power consumption gives lots of science for a very long time</text>
+  </threadedComment>
+  <threadedComment ref="N79" dT="2022-02-17T06:00:39.79" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{D385F571-7CA4-495B-8EA7-8EFD03DC1822}">
+    <text>still a lot longer tho as its belt based</text>
+  </threadedComment>
+  <threadedComment ref="B81" dT="2022-02-14T18:16:49.09" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{DF1CCCF3-C1B7-4AFA-970F-CABF9FDDB4D6}">
+    <text>samples</text>
+  </threadedComment>
+  <threadedComment ref="B82" dT="2022-02-14T18:17:04.43" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{20C8BB2E-7232-484C-B6F1-8BCE6B2A819A}">
+    <text>samples</text>
+  </threadedComment>
+  <threadedComment ref="A83" dT="2022-02-14T18:16:32.93" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{73B7F616-0A10-45BE-AD6C-66A741CCCF15}">
+    <text>Carried in materials Lab - most are unmanned, but a lot produce samples</text>
+  </threadedComment>
+  <threadedComment ref="N83" dT="2022-02-17T06:05:32.74" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{9A52AF0B-0F09-4A92-BE29-DE3B88558F9D}">
+    <text>Do you really want to be down there longer?</text>
+  </threadedComment>
+  <threadedComment ref="B84" dT="2022-02-14T18:16:44.59" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{88CF805A-9179-456B-A8B8-9EAA894AC628}">
+    <text>Manned, samples</text>
+  </threadedComment>
+  <threadedComment ref="H84" dT="2022-03-07T06:24:57.83" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{CCEDA396-E1ED-424B-85DD-5F8455F223C6}">
+    <text>will say it involves taking a ton of surface samples from different locations</text>
+  </threadedComment>
+  <threadedComment ref="N84" dT="2022-02-17T06:06:03.05" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{8BBB282A-A9E1-42B7-9483-A81B797ADF89}">
+    <text>long enough for the kerbals to get a ton of samples so long as they keep moving</text>
+  </threadedComment>
+  <threadedComment ref="A86" dT="2022-03-15T16:42:53.08" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{6C58BFDE-74F5-4E6A-B092-F88585F4166A}">
     <text>will likely be on seperate parts only.</text>
   </threadedComment>
-  <threadedComment ref="Q22" dT="2022-02-19T18:30:20.11" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{B94C6FB9-F021-4382-896E-E09CFC68A36E}">
-    <text>half what a kerbonaut consumes per day</text>
+  <threadedComment ref="N87" dT="2022-02-17T05:43:27.92" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{961FCAFA-59FB-4147-9612-1B02330CF6CD}">
+    <text>Seems like the NRO started launching Orions in the mid 80s so lets say 40 years in a funky low retrograde orbit</text>
   </threadedComment>
-  <threadedComment ref="N26" dT="2022-02-17T06:00:39.79" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{D385F571-7CA4-495B-8EA7-8EFD03DC1822}">
-    <text>still a lot longer tho as its belt based</text>
+  <threadedComment ref="B89" dT="2022-02-14T18:04:02.60" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{474FA9BB-41E1-4C9E-ADE3-F0B70E653916}">
+    <text>interplanetary orbit only</text>
   </threadedComment>
-  <threadedComment ref="N30" dT="2022-02-17T06:08:02.40" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{3EC4FB80-AA05-4DB3-89AC-6143958B9228}">
-    <text>doesn't take that long to pick up rocks</text>
+  <threadedComment ref="N89" dT="2022-02-17T05:57:00.96" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{EB1E3752-19AF-4AE0-A774-095E630A1675}">
+    <text>Better hope it detects solar flares before they hit it...</text>
   </threadedComment>
-  <threadedComment ref="N31" dT="2022-02-17T06:08:02.40" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{0E43C4CD-C40D-4D04-BB33-6B1A4F875E81}">
-    <text>doesn't take that long to pick up rocks</text>
+  <threadedComment ref="N91" dT="2022-02-17T05:47:10.00" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{51ED5DD2-6FF2-4617-B23E-4A6C2D9CB09B}">
+    <text>Makes it so it's more than just a quick pop out of the heliosphere - you're gonna have to be on an escape trajectory</text>
   </threadedComment>
-  <threadedComment ref="N32" dT="2022-02-17T06:08:02.40" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{FD00C05B-D394-4BCE-B9C7-A3C734040ADF}">
-    <text>doesn't take that long to pick up rocks</text>
+  <threadedComment ref="N92" dT="2022-02-17T05:39:26.97" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{C41CB0B8-3C6B-43C2-8047-017DAA4591F5}">
+    <text>Just grabbing a few quick images of key targets</text>
   </threadedComment>
-  <threadedComment ref="N33" dT="2022-02-17T06:08:02.40" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{7628AF1C-28B0-4030-9684-89A3A99DDE58}">
-    <text>doesn't take that long to pick up rocks</text>
+  <threadedComment ref="N92" dT="2022-02-17T05:41:37.13" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{51922344-0465-4574-851B-ABFA826C7EAD}" parentId="{C41CB0B8-3C6B-43C2-8047-017DAA4591F5}">
+    <text>Also based on wikipedia, it seems that they were in orbit for about 2 days each, and if we assume half of that is for assorted technical stuff, then half is for capturing</text>
   </threadedComment>
-  <threadedComment ref="N34" dT="2022-02-17T06:08:02.40" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{9999F68D-1CE7-4684-B1A1-D53CF0EA10DA}">
-    <text>doesn't take that long to pick up rocks</text>
-  </threadedComment>
-  <threadedComment ref="N36" dT="2022-02-17T06:07:35.59" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{46B95C89-383A-486D-895A-CD0A8599700A}">
-    <text>Basically just a quick elevator pitch</text>
-  </threadedComment>
-  <threadedComment ref="N37" dT="2022-02-17T06:08:02.40" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{7D3FCB4E-15B0-4178-9C3D-68E02C5ECB6E}">
-    <text>doesn't take that long to pick up rocks</text>
-  </threadedComment>
-  <threadedComment ref="B39" dT="2022-02-14T18:16:49.09" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{DF1CCCF3-C1B7-4AFA-970F-CABF9FDDB4D6}">
-    <text>samples</text>
-  </threadedComment>
-  <threadedComment ref="B40" dT="2022-02-14T18:20:51.62" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{D4E04E95-4E60-4750-A1E1-8ACB4F352D5F}">
+  <threadedComment ref="B93" dT="2022-02-14T18:20:51.62" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{D4E04E95-4E60-4750-A1E1-8ACB4F352D5F}">
     <text>polar retrograde</text>
   </threadedComment>
-  <threadedComment ref="N40" dT="2022-02-16T21:19:22.76" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{75567BF1-379E-4D4E-8F23-30E8255A236F}">
+  <threadedComment ref="N93" dT="2022-02-16T21:19:22.76" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{75567BF1-379E-4D4E-8F23-30E8255A236F}">
     <text>Takes about a year to get cloud-free photoes of all land area</text>
   </threadedComment>
-  <threadedComment ref="N49" dT="2022-02-17T05:54:39.14" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{E8018AD4-E6A6-4612-9090-884922D0207D}">
-    <text>about the same as stock Kerbalism</text>
-  </threadedComment>
-  <threadedComment ref="B51" dT="2022-02-14T18:17:04.43" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{20C8BB2E-7232-484C-B6F1-8BCE6B2A819A}">
-    <text>samples</text>
-  </threadedComment>
-  <threadedComment ref="N52" dT="2022-02-17T05:43:27.92" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{961FCAFA-59FB-4147-9612-1B02330CF6CD}">
-    <text>Seems like the NRO started launching Orions in the mid 80s so lets say 40 years in a funky low retrograde orbit</text>
-  </threadedComment>
-  <threadedComment ref="B53" dT="2022-02-14T18:20:42.74" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{56E50E1B-94ED-477F-B095-ED47C1C57BE2}">
+  <threadedComment ref="B94" dT="2022-02-14T18:20:42.74" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{56E50E1B-94ED-477F-B095-ED47C1C57BE2}">
     <text>molynia</text>
   </threadedComment>
-  <threadedComment ref="N55" dT="2022-02-17T05:48:15.68" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{E84DFBFE-0271-48CF-86DA-A32745F5CA67}">
-    <text>Based on wikipedia - btw this used film, so it's gonna need to be returned by hand.</text>
-  </threadedComment>
-  <threadedComment ref="N56" dT="2022-02-17T05:53:34.13" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{C7611BF8-196F-4AA2-8441-7897CE9A4D57}">
-    <text>Can you keep a lander operational this long? Can you?</text>
-  </threadedComment>
-  <threadedComment ref="N59" dT="2022-02-17T05:35:22.11" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{22CD25CC-896C-4694-B549-A77A9A3A2123}">
+  <threadedComment ref="N100" dT="2022-02-17T05:35:22.11" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{22CD25CC-896C-4694-B549-A77A9A3A2123}">
     <text>lets hope for the best case scenario</text>
   </threadedComment>
-  <threadedComment ref="L60" dT="2022-03-03T16:38:33.84" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{9958ED9D-ED83-4FE1-A9F4-36FC33863058}">
-    <text>Aviation Values are doubled due to kerbin atmo being 0.5x</text>
-  </threadedComment>
-  <threadedComment ref="N65" dT="2022-02-17T05:39:26.97" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{C41CB0B8-3C6B-43C2-8047-017DAA4591F5}">
-    <text>Just grabbing a few quick images of key targets</text>
-  </threadedComment>
-  <threadedComment ref="N65" dT="2022-02-17T05:41:37.13" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{51922344-0465-4574-851B-ABFA826C7EAD}" parentId="{C41CB0B8-3C6B-43C2-8047-017DAA4591F5}">
-    <text>Also based on wikipedia, it seems that they were in orbit for about 2 days each, and if we assume half of that is for assorted technical stuff, then half is for capturing</text>
-  </threadedComment>
-  <threadedComment ref="N76" dT="2022-02-17T05:56:29.36" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{A06F25E8-2D89-4199-B097-E45CA1EE1DCF}">
-    <text>According to most videos I've seen in moves pretty quick, so lets say 30 seconds</text>
-  </threadedComment>
-  <threadedComment ref="B78" dT="2022-02-14T18:04:02.60" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{474FA9BB-41E1-4C9E-ADE3-F0B70E653916}">
-    <text>interplanetary orbit only</text>
-  </threadedComment>
-  <threadedComment ref="N78" dT="2022-02-17T05:57:00.96" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{EB1E3752-19AF-4AE0-A774-095E630A1675}">
-    <text>Better hope it detects solar flares before they hit it...</text>
-  </threadedComment>
-  <threadedComment ref="N79" dT="2022-02-17T05:47:10.00" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{51ED5DD2-6FF2-4617-B23E-4A6C2D9CB09B}">
-    <text>Makes it so it's more than just a quick pop out of the heliosphere - you're gonna have to be on an escape trajectory</text>
-  </threadedComment>
-  <threadedComment ref="N80" dT="2022-02-17T05:27:28.97" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{BFAA6533-E42F-4FFC-8A46-6880BE62B9CF}">
+  <threadedComment ref="N113" dT="2022-02-17T05:27:28.97" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{BFAA6533-E42F-4FFC-8A46-6880BE62B9CF}">
     <text>We seem to have two at a time, and they've been active for about 50 years - I've halved the values to 25 per Sat as I highly doubt many players will finish them otherwise...</text>
   </threadedComment>
-  <threadedComment ref="N81" dT="2022-02-17T05:27:28.97" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{FF4B742F-7FDA-4A40-87F2-85C4D8BF390E}">
+  <threadedComment ref="N114" dT="2022-02-17T05:27:28.97" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{FF4B742F-7FDA-4A40-87F2-85C4D8BF390E}">
     <text>We seem to have two at a time, and it's hemispherical, so that means 1/2 GOES</text>
   </threadedComment>
-  <threadedComment ref="N86" dT="2022-02-17T05:50:18.60" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{D47781EA-64CD-40C8-A9E2-7F04F3404344}">
-    <text>About how long Insight is progged to last for</text>
-  </threadedComment>
-  <threadedComment ref="C87" dT="2022-03-30T17:04:53.84" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{D34D2204-ED10-4749-9EE9-8A1EC9350E5D}">
-    <text>make this one a transmission with a very high transmission rate</text>
-  </threadedComment>
-  <threadedComment ref="N87" dT="2022-02-17T06:07:01.69" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{EC008EAE-E6C3-4DB8-9866-46EA1EE8520A}">
-    <text>actual broadcast may not be long, but prepwork sure will be</text>
-  </threadedComment>
-  <threadedComment ref="N88" dT="2022-02-17T06:04:23.41" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{653E04C6-34B5-40A8-B8BD-22BD611FD0C4}">
-    <text>About same length as Mars/Duna mission. Making sure the crew won't go cuckoo for coco puffs mid flight</text>
-  </threadedComment>
-  <threadedComment ref="N90" dT="2022-02-17T05:38:46.20" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{936ED0DE-655E-40A2-B8A2-0D4A0360B251}">
+  <threadedComment ref="N115" dT="2022-02-17T05:38:46.20" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{936ED0DE-655E-40A2-B8A2-0D4A0360B251}">
     <text>shrunk down a lot from GOES (it's equivalent) cuz 50 years is a long time for another planet (and also cuz its implied the science from GOES and LANDSAT is also cuz of uses that need civilization like weather forecasting)</text>
   </threadedComment>
-  <threadedComment ref="N92" dT="2022-02-17T06:03:50.45" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{14ABA252-8575-4EFD-908D-8CFC6BD4EACC}">
-    <text>ISS has been completed for about 10 years now</text>
-  </threadedComment>
-  <threadedComment ref="B95" dT="2022-02-14T18:01:17.89" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{9598CB20-CFD1-45F8-AACE-902E8C1F748E}">
-    <text>Lunar one only goes on Kerbin Moons and only gives one set of science, off-world one is per planet/moon and is less restrictive, but requires shadow</text>
-  </threadedComment>
-  <threadedComment ref="N95" dT="2022-02-17T06:06:40.88" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{DBBA6B56-5FB6-4DD3-9FD7-E12F346DB0E8}">
-    <text>requires darkness so that may make things fun</text>
-  </threadedComment>
-  <threadedComment ref="A97" dT="2022-02-14T18:16:32.93" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{73B7F616-0A10-45BE-AD6C-66A741CCCF15}">
-    <text>Carried in materials Lab - most are unmanned, but a lot produce samples</text>
-  </threadedComment>
-  <threadedComment ref="N97" dT="2022-02-17T06:05:32.74" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{9A52AF0B-0F09-4A92-BE29-DE3B88558F9D}">
-    <text>Do you really want to be down there longer?</text>
-  </threadedComment>
-  <threadedComment ref="B98" dT="2022-02-14T18:16:44.59" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{88CF805A-9179-456B-A8B8-9EAA894AC628}">
-    <text>Manned, samples</text>
-  </threadedComment>
-  <threadedComment ref="H98" dT="2022-03-07T06:24:57.83" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{CCEDA396-E1ED-424B-85DD-5F8455F223C6}">
-    <text>will say it involves taking a ton of surface samples from different locations</text>
-  </threadedComment>
-  <threadedComment ref="N98" dT="2022-02-17T06:06:03.05" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{8BBB282A-A9E1-42B7-9483-A81B797ADF89}">
-    <text>long enough for the kerbals to get a ton of samples so long as they keep moving</text>
-  </threadedComment>
-  <threadedComment ref="N111" dT="2022-02-17T05:36:40.85" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{7D59DD35-2ED2-4FDB-94B1-1D2F6F09F225}">
+  <threadedComment ref="N117" dT="2022-02-17T05:36:40.85" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{7D59DD35-2ED2-4FDB-94B1-1D2F6F09F225}">
     <text>Not like you are gonna survive the radiation much longer than that...</text>
-  </threadedComment>
-  <threadedComment ref="B112" dT="2022-02-14T18:13:20.85" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{4BCE4DED-0683-48F2-8FA3-01A147EBE6EB}">
-    <text>Also completes biome's Regional Geology Research experiment</text>
-  </threadedComment>
-  <threadedComment ref="B112" dT="2022-02-14T18:24:19.83" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{42B721F7-29F0-49EC-AD28-31671EE20CB0}" parentId="{4BCE4DED-0683-48F2-8FA3-01A147EBE6EB}">
-    <text>still biome based tho</text>
-  </threadedComment>
-  <threadedComment ref="B113" dT="2022-02-14T18:32:15.48" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{F99B5D72-597D-49D0-AED2-D197A6CD3D93}">
-    <text>might be hemisphere based - not sure</text>
-  </threadedComment>
-  <threadedComment ref="N113" dT="2022-02-17T06:06:40.88" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{817180CB-BCAE-4DF5-AE78-6B31128A2F3E}">
-    <text>requires darkness so that may make things fun</text>
-  </threadedComment>
-  <threadedComment ref="B116" dT="2022-02-14T18:24:01.36" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{E6C309BD-09DD-41C6-9D18-20907246A2E1}">
-    <text>once per planet</text>
-  </threadedComment>
-  <threadedComment ref="B116" dT="2022-02-14T18:31:01.02" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{0276A4DD-83BC-4B68-8E55-C763C4E47BEC}" parentId="{E6C309BD-09DD-41C6-9D18-20907246A2E1}">
-    <text>requires a LOT of kerbals</text>
-  </threadedComment>
-  <threadedComment ref="N116" dT="2022-02-17T06:04:47.75" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{251F8309-3C96-4F71-A84E-614F66B277D2}">
-    <text>If you can manage a 20 kerbal base for 10 years, you deserve the science!</text>
-  </threadedComment>
-  <threadedComment ref="N117" dT="2022-02-17T06:05:17.78" personId="{FAB6C0CA-8FE6-45ED-BB8F-02C29414AA90}" id="{EC3E079B-A467-4380-8E4F-59C8A3C76F34}">
-    <text>Big Base with huge power consumption gives lots of science for a very long time</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -2135,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2234,13 +2234,13 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
         <v>352</v>
@@ -2249,44 +2249,41 @@
         <v>7</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.1</v>
+        <v>1024</v>
       </c>
       <c r="I2" s="5">
         <f>H2/1024</f>
-        <v>9.7656250000000005E-5</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="O2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="S2">
         <f>H2/O2</f>
-        <v>3.3333333333333335E-3</v>
+        <v>68.266666666666666</v>
       </c>
       <c r="T2">
         <f>S2*1000</f>
-        <v>3.3333333333333335</v>
+        <v>68266.666666666672</v>
       </c>
       <c r="U2">
         <f>M2/(O2/21600)</f>
-        <v>1440</v>
+        <v>72000</v>
       </c>
       <c r="V2" t="s">
         <v>152</v>
@@ -2297,13 +2294,13 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
         <v>352</v>
@@ -2312,10 +2309,10 @@
         <v>7</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1024</v>
@@ -2325,28 +2322,28 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="M3">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="O3">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="S3">
         <f>H3/O3</f>
-        <v>17.066666666666666</v>
+        <v>68.266666666666666</v>
       </c>
       <c r="T3">
         <f>S3*1000</f>
-        <v>17066.666666666668</v>
+        <v>68266.666666666672</v>
       </c>
       <c r="U3">
         <f>M3/(O3/21600)</f>
-        <v>3600</v>
+        <v>108000</v>
       </c>
       <c r="V3" t="s">
         <v>152</v>
@@ -2357,13 +2354,13 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
         <v>352</v>
@@ -2372,10 +2369,10 @@
         <v>7</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>1024</v>
@@ -2385,34 +2382,28 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="N4" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="O4">
-        <v>1800</v>
-      </c>
-      <c r="P4" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>310</v>
+        <v>15</v>
       </c>
       <c r="S4">
         <f>H4/O4</f>
-        <v>0.56888888888888889</v>
+        <v>68.266666666666666</v>
       </c>
       <c r="T4">
         <f>S4*1000</f>
-        <v>568.88888888888891</v>
+        <v>68266.666666666672</v>
       </c>
       <c r="U4">
         <f>M4/(O4/21600)</f>
-        <v>60</v>
+        <v>144000</v>
       </c>
       <c r="V4" t="s">
         <v>152</v>
@@ -2423,13 +2414,13 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
         <v>352</v>
@@ -2438,44 +2429,41 @@
         <v>7</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.25</v>
+        <v>1024</v>
       </c>
       <c r="I5" s="5">
         <f>H5/1024</f>
-        <v>2.44140625E-4</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>400</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="N5" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="O5">
-        <v>600</v>
+        <v>15</v>
       </c>
       <c r="S5">
         <f>H5/O5</f>
-        <v>4.1666666666666669E-4</v>
+        <v>68.266666666666666</v>
       </c>
       <c r="T5">
         <f>S5*1000</f>
-        <v>0.41666666666666669</v>
+        <v>68266.666666666672</v>
       </c>
       <c r="U5">
         <f>M5/(O5/21600)</f>
-        <v>108</v>
+        <v>216000</v>
       </c>
       <c r="V5" t="s">
         <v>152</v>
@@ -2486,13 +2474,13 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
         <v>352</v>
@@ -2501,44 +2489,41 @@
         <v>7</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.25</v>
+        <v>1024</v>
       </c>
       <c r="I6" s="5">
         <f>H6/1024</f>
-        <v>2.44140625E-4</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>800</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="N6" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="O6">
-        <v>600</v>
+        <v>15</v>
       </c>
       <c r="S6">
         <f>H6/O6</f>
-        <v>4.1666666666666669E-4</v>
+        <v>68.266666666666666</v>
       </c>
       <c r="T6">
         <f>S6*1000</f>
-        <v>0.41666666666666669</v>
+        <v>68266.666666666672</v>
       </c>
       <c r="U6">
         <f>M6/(O6/21600)</f>
-        <v>216</v>
+        <v>288000</v>
       </c>
       <c r="V6" t="s">
         <v>152</v>
@@ -2549,22 +2534,22 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" t="s">
-        <v>148</v>
+        <v>90</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <v>0.05</v>
@@ -2576,32 +2561,38 @@
         <f>H7/1024</f>
         <v>1</v>
       </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
       <c r="L7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="O7">
-        <v>64800</v>
+        <v>900</v>
       </c>
       <c r="S7">
         <f>H7/O7</f>
-        <v>1.580246913580247E-2</v>
+        <v>1.1377777777777778</v>
       </c>
       <c r="T7">
         <f>S7*1000</f>
-        <v>15.80246913580247</v>
+        <v>1137.7777777777778</v>
       </c>
       <c r="U7">
         <f>M7/(O7/21600)</f>
-        <v>5</v>
+        <v>600</v>
       </c>
       <c r="V7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="W7" t="s">
         <v>152</v>
@@ -2609,47 +2600,47 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
+        <v>90</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
         <v>352</v>
       </c>
       <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8">
         <v>7</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
       </c>
       <c r="G8">
         <v>0.05</v>
       </c>
       <c r="H8">
-        <v>1.5</v>
+        <v>45</v>
       </c>
       <c r="I8" s="5">
         <f>H8/1024</f>
-        <v>1.46484375E-3</v>
+        <v>4.39453125E-2</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N8" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="O8">
-        <v>3600</v>
+        <v>108000</v>
       </c>
       <c r="S8">
         <f>H8/O8</f>
@@ -2661,7 +2652,7 @@
       </c>
       <c r="U8">
         <f>M8/(O8/21600)</f>
-        <v>30</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="s">
         <v>152</v>
@@ -2672,62 +2663,62 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>143</v>
+        <v>90</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>0.05</v>
       </c>
       <c r="H9">
-        <v>0.25</v>
+        <v>15339.253938100001</v>
       </c>
       <c r="I9" s="5">
         <f>H9/1024</f>
-        <v>2.44140625E-4</v>
+        <v>14.979740173925782</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="N9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="O9">
-        <v>600</v>
+        <v>36814180</v>
       </c>
       <c r="S9">
         <f>H9/O9</f>
-        <v>4.1666666666666669E-4</v>
+        <v>4.1666700000108655E-4</v>
       </c>
       <c r="T9">
         <f>S9*1000</f>
-        <v>0.41666666666666669</v>
+        <v>0.41666700000108653</v>
       </c>
       <c r="U9">
         <f>M9/(O9/21600)</f>
-        <v>144</v>
+        <v>0.11734608783897944</v>
       </c>
       <c r="V9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="W9" t="s">
         <v>152</v>
@@ -2735,79 +2726,70 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>313</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>315</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>319</v>
       </c>
       <c r="D10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0.05</v>
       </c>
       <c r="H10">
-        <v>0.75</v>
+        <v>1024</v>
       </c>
       <c r="I10" s="5">
         <f>H10/1024</f>
-        <v>7.32421875E-4</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="O10">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="S10">
         <f>H10/O10</f>
-        <v>4.1666666666666669E-4</v>
+        <v>3.4133333333333336</v>
       </c>
       <c r="T10">
         <f>S10*1000</f>
-        <v>0.41666666666666669</v>
+        <v>3413.3333333333335</v>
       </c>
       <c r="U10">
         <f>M10/(O10/21600)</f>
-        <v>48</v>
-      </c>
-      <c r="V10" t="s">
-        <v>152</v>
-      </c>
-      <c r="W10" t="s">
-        <v>152</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>313</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>325</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="D11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -2819,423 +2801,343 @@
         <v>0.05</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>1024</v>
       </c>
       <c r="I11" s="5">
         <f>H11/1024</f>
-        <v>8.7890625E-3</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N11" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="O11">
-        <v>21600</v>
-      </c>
-      <c r="P11" t="s">
-        <v>257</v>
+        <v>3600</v>
       </c>
       <c r="S11">
         <f>H11/O11</f>
-        <v>4.1666666666666669E-4</v>
+        <v>0.28444444444444444</v>
       </c>
       <c r="T11">
         <f>S11*1000</f>
-        <v>0.41666666666666669</v>
+        <v>284.44444444444446</v>
       </c>
       <c r="U11">
         <f>M11/(O11/21600)</f>
-        <v>5</v>
-      </c>
-      <c r="V11" t="s">
-        <v>152</v>
-      </c>
-      <c r="W11" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>313</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>316</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>320</v>
       </c>
       <c r="D12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12">
         <v>0.05</v>
       </c>
       <c r="H12">
-        <v>0.375</v>
+        <v>1024</v>
       </c>
       <c r="I12" s="5">
         <f>H12/1024</f>
-        <v>3.662109375E-4</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N12" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="O12">
-        <v>900</v>
-      </c>
-      <c r="P12" t="s">
-        <v>255</v>
+        <v>1800</v>
       </c>
       <c r="S12">
         <f>H12/O12</f>
-        <v>4.1666666666666669E-4</v>
+        <v>0.56888888888888889</v>
       </c>
       <c r="T12">
         <f>S12*1000</f>
-        <v>0.41666666666666669</v>
+        <v>568.88888888888891</v>
       </c>
       <c r="U12">
         <f>M12/(O12/21600)</f>
-        <v>72</v>
-      </c>
-      <c r="V12" t="s">
-        <v>152</v>
-      </c>
-      <c r="W12" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>313</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>314</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>321</v>
       </c>
       <c r="D13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H13">
-        <v>1.125</v>
+        <v>1024</v>
       </c>
       <c r="I13" s="5">
         <f>H13/1024</f>
-        <v>1.0986328125E-3</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="N13" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="O13">
-        <v>2700</v>
+        <v>300</v>
       </c>
       <c r="S13">
         <f>H13/O13</f>
-        <v>4.1666666666666669E-4</v>
+        <v>3.4133333333333336</v>
       </c>
       <c r="T13">
         <f>S13*1000</f>
-        <v>0.41666666666666669</v>
+        <v>3413.3333333333335</v>
       </c>
       <c r="U13">
         <f>M13/(O13/21600)</f>
-        <v>40</v>
-      </c>
-      <c r="V13" t="s">
-        <v>152</v>
-      </c>
-      <c r="W13" t="s">
-        <v>152</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="D14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G14">
         <v>0.05</v>
       </c>
       <c r="H14">
-        <v>7.4999999999999997E-2</v>
+        <v>1024</v>
       </c>
       <c r="I14" s="5">
         <f>H14/1024</f>
-        <v>7.3242187499999997E-5</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N14" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O14">
-        <v>180</v>
+        <v>1800</v>
       </c>
       <c r="S14">
         <f>H14/O14</f>
-        <v>4.1666666666666664E-4</v>
+        <v>0.56888888888888889</v>
       </c>
       <c r="T14">
         <f>S14*1000</f>
-        <v>0.41666666666666663</v>
+        <v>568.88888888888891</v>
       </c>
       <c r="U14">
         <f>M14/(O14/21600)</f>
-        <v>360</v>
-      </c>
-      <c r="V14" t="s">
-        <v>152</v>
-      </c>
-      <c r="W14" t="s">
-        <v>152</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>313</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>318</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>323</v>
       </c>
       <c r="D15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H15">
-        <v>39575.243499999997</v>
+        <v>1024</v>
       </c>
       <c r="I15" s="5">
         <f>H15/1024</f>
-        <v>38.647698730468747</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>70</v>
+        <v>560</v>
       </c>
       <c r="M15">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="N15" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="O15">
-        <f>9203545*2</f>
-        <v>18407090</v>
+        <v>300</v>
       </c>
       <c r="S15">
         <f>H15/O15</f>
-        <v>2.15E-3</v>
-      </c>
-      <c r="T15">
-        <f>S15*1000</f>
-        <v>2.15</v>
-      </c>
-      <c r="U15">
-        <f>M15/(O15/21600)</f>
-        <v>0.14081530540677534</v>
-      </c>
-      <c r="V15" t="s">
-        <v>152</v>
-      </c>
-      <c r="W15" t="s">
-        <v>152</v>
+        <v>3.4133333333333336</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>313</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>327</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>335</v>
       </c>
       <c r="D16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G16">
         <v>0.05</v>
       </c>
       <c r="H16">
-        <v>0.125</v>
+        <v>1024</v>
       </c>
       <c r="I16" s="5">
         <f>H16/1024</f>
-        <v>1.220703125E-4</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>560</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>560</v>
       </c>
       <c r="N16" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="O16">
         <v>300</v>
       </c>
       <c r="S16">
         <f>H16/O16</f>
-        <v>4.1666666666666669E-4</v>
-      </c>
-      <c r="T16">
-        <f>S16*1000</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="U16">
-        <f>M16/(O16/21600)</f>
-        <v>432</v>
-      </c>
-      <c r="V16" t="s">
-        <v>152</v>
-      </c>
-      <c r="W16" t="s">
-        <v>152</v>
+        <v>3.4133333333333336</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>145</v>
+      </c>
+      <c r="B17" t="s">
+        <v>148</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="D17" t="s">
         <v>352</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H17">
-        <v>7669.62</v>
+        <v>1024</v>
       </c>
       <c r="I17" s="5">
         <f>H17/1024</f>
-        <v>7.4898632812499999</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N17" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="O17">
-        <v>9203545</v>
+        <v>64800</v>
       </c>
       <c r="S17">
         <f>H17/O17</f>
-        <v>8.3333324278851251E-4</v>
+        <v>1.580246913580247E-2</v>
       </c>
       <c r="T17">
         <f>S17*1000</f>
-        <v>0.83333324278851251</v>
+        <v>15.80246913580247</v>
       </c>
       <c r="U17">
         <f>M17/(O17/21600)</f>
-        <v>4.6938435135591774E-2</v>
+        <v>5</v>
       </c>
       <c r="V17" t="s">
         <v>152</v>
@@ -3246,59 +3148,60 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="D18" t="s">
         <v>352</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18">
         <v>0.1</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>4096</v>
       </c>
       <c r="I18" s="5">
         <f>H18/1024</f>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M18">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N18" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="O18">
-        <v>1800</v>
-      </c>
+        <v>151200</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="R18" s="3"/>
       <c r="S18">
         <f>H18/O18</f>
-        <v>8.8888888888888889E-3</v>
+        <v>2.7089947089947091E-2</v>
       </c>
       <c r="T18">
         <f>S18*1000</f>
-        <v>8.8888888888888893</v>
+        <v>27.089947089947092</v>
       </c>
       <c r="U18">
         <f>M18/(O18/21600)</f>
-        <v>120</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="V18" t="s">
         <v>152</v>
@@ -3309,13 +3212,13 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
         <v>352</v>
@@ -3324,285 +3227,260 @@
         <v>7</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>0.125</v>
       </c>
       <c r="I19" s="5">
         <f>H19/1024</f>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
+        <v>1.220703125E-4</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>7.25</v>
       </c>
       <c r="M19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N19" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="O19">
-        <v>1800</v>
+        <v>300</v>
+      </c>
+      <c r="P19" t="s">
+        <v>285</v>
       </c>
       <c r="S19">
         <f>H19/O19</f>
-        <v>8.8888888888888889E-3</v>
+        <v>4.1666666666666669E-4</v>
       </c>
       <c r="T19">
         <f>S19*1000</f>
-        <v>8.8888888888888893</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="U19">
         <f>M19/(O19/21600)</f>
-        <v>120</v>
+        <v>576</v>
       </c>
       <c r="V19" t="s">
-        <v>152</v>
-      </c>
-      <c r="W19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>156</v>
+      </c>
+      <c r="B20" t="s">
+        <v>157</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="D20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H20">
-        <v>5752.22</v>
+        <v>512</v>
       </c>
       <c r="I20" s="5">
         <f>H20/1024</f>
-        <v>5.6174023437500002</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L20">
-        <v>52.5</v>
+        <v>70</v>
       </c>
       <c r="M20">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N20" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="O20">
-        <v>13805317.5</v>
+        <v>7200</v>
+      </c>
+      <c r="P20" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>292</v>
       </c>
       <c r="S20">
         <f>H20/O20</f>
-        <v>4.1666698357353972E-4</v>
+        <v>7.1111111111111111E-2</v>
       </c>
       <c r="T20">
         <f>S20*1000</f>
-        <v>0.41666698357353971</v>
+        <v>71.111111111111114</v>
       </c>
       <c r="U20">
         <f>M20/(O20/21600)</f>
-        <v>0.14081530540677534</v>
-      </c>
-      <c r="V20" t="s">
-        <v>152</v>
-      </c>
-      <c r="W20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>343</v>
+        <v>156</v>
+      </c>
+      <c r="B21" t="s">
+        <v>169</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="D21" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G21">
         <v>0.05</v>
       </c>
       <c r="H21">
-        <v>0.53333333333333299</v>
+        <v>1024</v>
       </c>
       <c r="I21" s="5">
         <f>H21/1024</f>
-        <v>5.20833333333333E-4</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="M21">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="N21" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="O21">
-        <v>60</v>
+        <v>7200</v>
       </c>
       <c r="P21" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="S21">
         <f>H21/O21</f>
-        <v>8.8888888888888837E-3</v>
+        <v>0.14222222222222222</v>
       </c>
       <c r="T21">
         <f>S21*1000</f>
-        <v>8.888888888888884</v>
+        <v>142.22222222222223</v>
       </c>
       <c r="U21">
         <f>M21/(O21/21600)</f>
-        <v>2520</v>
-      </c>
-      <c r="V21" t="s">
-        <v>152</v>
-      </c>
-      <c r="W21" t="s">
-        <v>152</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E22" t="s">
         <v>23</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H22">
-        <v>4096</v>
+        <v>1024</v>
       </c>
       <c r="I22" s="5">
         <f>H22/1024</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N22" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="O22">
-        <v>151200</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="R22" s="3"/>
+        <v>21600</v>
+      </c>
+      <c r="P22" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>292</v>
+      </c>
       <c r="S22">
         <f>H22/O22</f>
-        <v>2.7089947089947091E-2</v>
+        <v>4.7407407407407405E-2</v>
       </c>
       <c r="T22">
         <f>S22*1000</f>
-        <v>27.089947089947092</v>
+        <v>47.407407407407405</v>
       </c>
       <c r="U22">
         <f>M22/(O22/21600)</f>
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="V22" t="s">
-        <v>152</v>
-      </c>
-      <c r="W22" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="D23" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G23">
         <v>0.05</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2048</v>
       </c>
       <c r="I23" s="5">
         <f>H23/1024</f>
-        <v>2.9296875E-3</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>7</v>
+        <v>280</v>
       </c>
       <c r="M23">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="N23" t="s">
         <v>221</v>
@@ -3610,418 +3488,376 @@
       <c r="O23">
         <v>7200</v>
       </c>
+      <c r="P23" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>293</v>
+      </c>
       <c r="S23">
         <f>H23/O23</f>
-        <v>4.1666666666666669E-4</v>
+        <v>0.28444444444444444</v>
       </c>
       <c r="T23">
         <f>S23*1000</f>
-        <v>0.41666666666666669</v>
+        <v>284.44444444444446</v>
       </c>
       <c r="U23">
         <f>M23/(O23/21600)</f>
-        <v>24</v>
-      </c>
-      <c r="V23" t="s">
-        <v>152</v>
-      </c>
-      <c r="W23" t="s">
-        <v>152</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="D24" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24">
         <v>7</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
       </c>
       <c r="G24">
         <v>0.05</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>2048</v>
       </c>
       <c r="I24" s="5">
         <f>H24/1024</f>
-        <v>8.7890625E-3</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>7</v>
+        <v>280</v>
       </c>
       <c r="M24">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="N24" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="O24">
-        <v>21600</v>
+        <v>43200</v>
+      </c>
+      <c r="P24" t="s">
+        <v>286</v>
       </c>
       <c r="S24">
         <f>H24/O24</f>
-        <v>4.1666666666666669E-4</v>
+        <v>4.7407407407407405E-2</v>
       </c>
       <c r="T24">
         <f>S24*1000</f>
-        <v>0.41666666666666669</v>
+        <v>47.407407407407405</v>
       </c>
       <c r="U24">
         <f>M24/(O24/21600)</f>
-        <v>8</v>
-      </c>
-      <c r="V24" t="s">
-        <v>152</v>
-      </c>
-      <c r="W24" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>347</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
-        <v>348</v>
+        <v>177</v>
       </c>
       <c r="D25" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25">
         <v>7</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
       </c>
       <c r="G25">
         <v>0.05</v>
       </c>
       <c r="H25">
-        <v>1.5</v>
+        <v>3072</v>
       </c>
       <c r="I25" s="5">
         <f>H25/1024</f>
-        <v>1.46484375E-3</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>420</v>
       </c>
       <c r="M25">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="N25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O25">
-        <v>3600</v>
+        <v>9203545</v>
+      </c>
+      <c r="P25" t="s">
+        <v>287</v>
       </c>
       <c r="S25">
         <f>H25/O25</f>
-        <v>4.1666666666666669E-4</v>
+        <v>3.3378442763087483E-4</v>
       </c>
       <c r="T25">
         <f>S25*1000</f>
-        <v>0.41666666666666669</v>
+        <v>0.33378442763087485</v>
       </c>
       <c r="U25">
         <f>M25/(O25/21600)</f>
-        <v>30</v>
+        <v>1.1734608783897944</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="D26" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E26" t="s">
         <v>23</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G26">
-        <v>0.05</v>
+        <v>3.7</v>
       </c>
       <c r="H26">
-        <v>4.5</v>
+        <v>2048</v>
       </c>
       <c r="I26" s="5">
         <f>H26/1024</f>
-        <v>4.39453125E-3</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>280</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>400</v>
       </c>
       <c r="N26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O26">
-        <v>10800</v>
+        <v>21600</v>
+      </c>
+      <c r="P26" t="s">
+        <v>286</v>
       </c>
       <c r="S26">
         <f>H26/O26</f>
-        <v>4.1666666666666669E-4</v>
+        <v>9.481481481481481E-2</v>
       </c>
       <c r="T26">
         <f>S26*1000</f>
-        <v>0.41666666666666669</v>
+        <v>94.81481481481481</v>
       </c>
       <c r="U26">
         <f>M26/(O26/21600)</f>
-        <v>12</v>
-      </c>
-      <c r="V26" t="s">
-        <v>152</v>
-      </c>
-      <c r="W26" t="s">
-        <v>152</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>78</v>
+        <v>156</v>
+      </c>
+      <c r="B27" t="s">
+        <v>166</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="D27" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G27">
         <v>0.05</v>
       </c>
       <c r="H27">
-        <v>190</v>
+        <v>8192</v>
       </c>
       <c r="I27" s="5">
         <f>H27/1024</f>
-        <v>0.185546875</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L27">
-        <v>9</v>
+        <v>1120</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="N27" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="O27">
-        <v>453600</v>
+        <v>18407090</v>
       </c>
       <c r="P27" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="S27">
         <f>H27/O27</f>
-        <v>4.1887125220458553E-4</v>
+        <v>4.4504590350783314E-4</v>
       </c>
       <c r="T27">
         <f>S27*1000</f>
-        <v>0.41887125220458554</v>
+        <v>0.44504590350783313</v>
       </c>
       <c r="U27">
         <f>M27/(O27/21600)</f>
-        <v>1</v>
-      </c>
-      <c r="V27" t="s">
-        <v>152</v>
-      </c>
-      <c r="W27" t="s">
-        <v>152</v>
+        <v>1.1734608783897944</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>72</v>
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>164</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="D28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G28">
         <v>0.05</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>32768</v>
       </c>
       <c r="I28" s="5">
         <f>H28/1024</f>
-        <v>2.9296875E-3</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="L28">
-        <v>7</v>
+        <v>5600</v>
       </c>
       <c r="M28">
-        <v>8</v>
+        <v>5000</v>
       </c>
       <c r="N28" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="O28">
-        <v>7200</v>
+        <v>920354500</v>
       </c>
       <c r="P28" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="S28">
         <f>H28/O28</f>
-        <v>4.1666666666666669E-4</v>
-      </c>
-      <c r="T28" t="e">
-        <f>#REF!*1000</f>
-        <v>#REF!</v>
+        <v>3.5603672280626653E-5</v>
+      </c>
+      <c r="T28">
+        <f>S28*1000</f>
+        <v>3.560367228062665E-2</v>
       </c>
       <c r="U28">
         <f>M28/(O28/21600)</f>
-        <v>24</v>
-      </c>
-      <c r="V28" t="s">
-        <v>152</v>
-      </c>
-      <c r="W28" t="s">
-        <v>152</v>
+        <v>0.11734608783897944</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>344</v>
+        <v>156</v>
+      </c>
+      <c r="B29" t="s">
+        <v>167</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="D29" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G29">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H29">
-        <v>2700</v>
+        <v>16384</v>
       </c>
       <c r="I29" s="5">
         <f>H29/1024</f>
-        <v>2.63671875</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L29">
-        <v>9</v>
+        <v>2800</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>2500</v>
       </c>
       <c r="N29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O29">
-        <v>648000</v>
+        <v>46017725</v>
       </c>
       <c r="P29" t="s">
-        <v>308</v>
-      </c>
-      <c r="R29" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="S29">
         <f>H29/O29</f>
-        <v>4.1666666666666666E-3</v>
+        <v>3.560367228062665E-4</v>
       </c>
       <c r="T29">
         <f>S29*1000</f>
-        <v>4.166666666666667</v>
+        <v>0.35603672280626653</v>
       </c>
       <c r="U29">
         <f>M29/(O29/21600)</f>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="V29" t="s">
-        <v>152</v>
-      </c>
-      <c r="W29" t="s">
-        <v>152</v>
+        <v>1.1734608783897944</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
         <v>352</v>
@@ -4036,35 +3872,35 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1024</v>
+        <v>0.125</v>
       </c>
       <c r="I30" s="5">
         <f>H30/1024</f>
-        <v>1</v>
+        <v>1.220703125E-4</v>
       </c>
       <c r="L30">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="M30">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="N30" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="O30">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="S30">
         <f>H30/O30</f>
-        <v>68.266666666666666</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="T30">
         <f>S30*1000</f>
-        <v>68266.666666666672</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="U30">
         <f>M30/(O30/21600)</f>
-        <v>72000</v>
+        <v>8640</v>
       </c>
       <c r="V30" t="s">
         <v>152</v>
@@ -4075,13 +3911,13 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
         <v>352</v>
@@ -4103,10 +3939,10 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M31">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N31" t="s">
         <v>254</v>
@@ -4124,7 +3960,7 @@
       </c>
       <c r="U31">
         <f>M31/(O31/21600)</f>
-        <v>108000</v>
+        <v>72000</v>
       </c>
       <c r="V31" t="s">
         <v>152</v>
@@ -4135,13 +3971,13 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="C32" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="D32" t="s">
         <v>352</v>
@@ -4156,52 +3992,43 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1024</v>
+        <v>0.125</v>
       </c>
       <c r="I32" s="5">
         <f>H32/1024</f>
-        <v>1</v>
+        <v>1.220703125E-4</v>
       </c>
       <c r="L32">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N32" t="s">
-        <v>254</v>
-      </c>
-      <c r="O32">
-        <v>15</v>
-      </c>
-      <c r="S32">
+        <v>253</v>
+      </c>
+      <c r="S32" t="e">
         <f>H32/O32</f>
-        <v>68.266666666666666</v>
-      </c>
-      <c r="T32">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T32" t="e">
         <f>S32*1000</f>
-        <v>68266.666666666672</v>
-      </c>
-      <c r="U32">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U32" t="e">
         <f>M32/(O32/21600)</f>
-        <v>144000</v>
-      </c>
-      <c r="V32" t="s">
-        <v>152</v>
-      </c>
-      <c r="W32" t="s">
-        <v>152</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>132</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
         <v>352</v>
@@ -4210,41 +4037,44 @@
         <v>7</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H33">
-        <v>1024</v>
+        <v>0.1</v>
       </c>
       <c r="I33" s="5">
         <f>H33/1024</f>
+        <v>9.7656250000000005E-5</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>1</v>
       </c>
-      <c r="L33">
-        <v>400</v>
-      </c>
       <c r="M33">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="O33">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="S33">
         <f>H33/O33</f>
-        <v>68.266666666666666</v>
+        <v>3.3333333333333335E-3</v>
       </c>
       <c r="T33">
         <f>S33*1000</f>
-        <v>68266.666666666672</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="U33">
         <f>M33/(O33/21600)</f>
-        <v>216000</v>
+        <v>1440</v>
       </c>
       <c r="V33" t="s">
         <v>152</v>
@@ -4255,13 +4085,13 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>132</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
         <v>352</v>
@@ -4270,10 +4100,10 @@
         <v>7</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H34">
         <v>1024</v>
@@ -4283,28 +4113,28 @@
         <v>1</v>
       </c>
       <c r="L34">
-        <v>800</v>
+        <v>12</v>
       </c>
       <c r="M34">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="N34" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="O34">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="S34">
         <f>H34/O34</f>
-        <v>68.266666666666666</v>
+        <v>17.066666666666666</v>
       </c>
       <c r="T34">
         <f>S34*1000</f>
-        <v>68266.666666666672</v>
+        <v>17066.666666666668</v>
       </c>
       <c r="U34">
         <f>M34/(O34/21600)</f>
-        <v>288000</v>
+        <v>3600</v>
       </c>
       <c r="V34" t="s">
         <v>152</v>
@@ -4315,13 +4145,13 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>156</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
         <v>352</v>
@@ -4330,32 +4160,32 @@
         <v>7</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>0.05</v>
       </c>
       <c r="H35">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="I35" s="5">
         <f>H35/1024</f>
-        <v>1.220703125E-4</v>
+        <v>2.44140625E-4</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>7.25</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="O35">
-        <v>300</v>
-      </c>
-      <c r="P35" t="s">
-        <v>285</v>
+        <v>600</v>
       </c>
       <c r="S35">
         <f>H35/O35</f>
@@ -4367,21 +4197,24 @@
       </c>
       <c r="U35">
         <f>M35/(O35/21600)</f>
-        <v>576</v>
+        <v>108</v>
       </c>
       <c r="V35" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="W35" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
         <v>352</v>
@@ -4390,41 +4223,44 @@
         <v>7</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H36">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="I36" s="5">
         <f>H36/1024</f>
-        <v>1.220703125E-4</v>
+        <v>2.44140625E-4</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>12.5</v>
+        <v>4</v>
       </c>
       <c r="M36">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N36" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="O36">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="S36">
         <f>H36/O36</f>
-        <v>4.1666666666666666E-3</v>
+        <v>4.1666666666666669E-4</v>
       </c>
       <c r="T36">
         <f>S36*1000</f>
-        <v>4.166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="U36">
         <f>M36/(O36/21600)</f>
-        <v>8640</v>
+        <v>216</v>
       </c>
       <c r="V36" t="s">
         <v>152</v>
@@ -4435,13 +4271,13 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
         <v>352</v>
@@ -4450,41 +4286,44 @@
         <v>7</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H37">
-        <v>1024</v>
+        <v>1.5</v>
       </c>
       <c r="I37" s="5">
         <f>H37/1024</f>
-        <v>1</v>
+        <v>1.46484375E-3</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M37">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="O37">
-        <v>15</v>
+        <v>3600</v>
       </c>
       <c r="S37">
         <f>H37/O37</f>
-        <v>68.266666666666666</v>
+        <v>4.1666666666666669E-4</v>
       </c>
       <c r="T37">
         <f>S37*1000</f>
-        <v>68266.666666666672</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="U37">
         <f>M37/(O37/21600)</f>
-        <v>72000</v>
+        <v>30</v>
       </c>
       <c r="V37" t="s">
         <v>152</v>
@@ -4495,13 +4334,13 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
         <v>352</v>
@@ -4510,49 +4349,61 @@
         <v>7</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H38">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="I38" s="5">
         <f>H38/1024</f>
-        <v>1.220703125E-4</v>
+        <v>2.44140625E-4</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>253</v>
-      </c>
-      <c r="S38" t="e">
+        <v>233</v>
+      </c>
+      <c r="O38">
+        <v>600</v>
+      </c>
+      <c r="S38">
         <f>H38/O38</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T38" t="e">
+        <v>4.1666666666666669E-4</v>
+      </c>
+      <c r="T38">
         <f>S38*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U38" t="e">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="U38">
         <f>M38/(O38/21600)</f>
-        <v>#DIV/0!</v>
+        <v>144</v>
+      </c>
+      <c r="V38" t="s">
+        <v>152</v>
+      </c>
+      <c r="W38" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>193</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
         <v>352</v>
@@ -4561,113 +4412,113 @@
         <v>7</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G39">
-        <v>2.5</v>
+        <v>0.05</v>
       </c>
       <c r="H39">
-        <v>1024</v>
+        <v>0.75</v>
       </c>
       <c r="I39" s="5">
         <f>H39/1024</f>
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
+        <v>7.32421875E-4</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="O39">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="S39">
         <f>H39/O39</f>
-        <v>3.4133333333333336</v>
+        <v>4.1666666666666669E-4</v>
       </c>
       <c r="T39">
         <f>S39*1000</f>
-        <v>3413.3333333333335</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="U39">
         <f>M39/(O39/21600)</f>
-        <v>1080</v>
+        <v>48</v>
+      </c>
+      <c r="V39" t="s">
+        <v>152</v>
+      </c>
+      <c r="W39" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>113</v>
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>346</v>
       </c>
       <c r="D40" t="s">
         <v>352</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="H40">
-        <v>2048</v>
+        <v>9</v>
       </c>
       <c r="I40" s="5">
         <f>H40/1024</f>
-        <v>2</v>
+        <v>8.7890625E-3</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
-      <c r="K40" t="s">
-        <v>334</v>
-      </c>
       <c r="L40">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M40">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="O40">
-        <v>972000</v>
+        <v>21600</v>
       </c>
       <c r="P40" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
       <c r="S40">
         <f>H40/O40</f>
-        <v>2.1069958847736627E-3</v>
+        <v>4.1666666666666669E-4</v>
       </c>
       <c r="T40">
         <f>S40*1000</f>
-        <v>2.1069958847736627</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="U40">
         <f>M40/(O40/21600)</f>
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="V40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W40" t="s">
         <v>152</v>
@@ -4675,59 +4526,62 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
         <v>352</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G41">
-        <v>10</v>
+        <v>0.05</v>
       </c>
       <c r="H41">
-        <v>38348.134845200002</v>
+        <v>0.375</v>
       </c>
       <c r="I41" s="5">
         <f>H41/1024</f>
-        <v>37.449350434765627</v>
+        <v>3.662109375E-4</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>700</v>
+        <v>3</v>
       </c>
       <c r="M41">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O41">
-        <v>92035450</v>
+        <v>900</v>
+      </c>
+      <c r="P41" t="s">
+        <v>255</v>
       </c>
       <c r="S41">
         <f>H41/O41</f>
-        <v>4.1666700000054331E-4</v>
+        <v>4.1666666666666669E-4</v>
       </c>
       <c r="T41">
         <f>S41*1000</f>
-        <v>0.4166670000005433</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="U41">
         <f>M41/(O41/21600)</f>
-        <v>0.23469217567795889</v>
+        <v>72</v>
       </c>
       <c r="V41" t="s">
         <v>152</v>
@@ -4741,59 +4595,59 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="D42" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1917</v>
+        <v>0.375</v>
       </c>
       <c r="I42" s="5">
         <f>H42/1024</f>
-        <v>1.8720703125</v>
+        <v>3.662109375E-4</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M42">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N42" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="O42">
-        <v>3888000</v>
+        <v>900</v>
       </c>
       <c r="S42">
         <f>H42/O42</f>
-        <v>4.9305555555555561E-4</v>
+        <v>4.1666666666666669E-4</v>
       </c>
       <c r="T42">
         <f>S42*1000</f>
-        <v>0.49305555555555558</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="U42">
         <f>M42/(O42/21600)</f>
-        <v>0.16666666666666666</v>
+        <v>288</v>
       </c>
       <c r="V42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="W42" t="s">
         <v>152</v>
@@ -4801,59 +4655,60 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>63</v>
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
         <v>352</v>
       </c>
       <c r="E43" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G43">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>1620</v>
+        <v>39575.243499999997</v>
       </c>
       <c r="I43" s="5">
         <f>H43/1024</f>
-        <v>1.58203125</v>
+        <v>38.647698730468747</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="N43" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="O43">
-        <v>1944000</v>
+        <f>9203545*2</f>
+        <v>18407090</v>
       </c>
       <c r="S43">
         <f>H43/O43</f>
-        <v>8.3333333333333339E-4</v>
+        <v>2.15E-3</v>
       </c>
       <c r="T43">
         <f>S43*1000</f>
-        <v>0.83333333333333337</v>
+        <v>2.15</v>
       </c>
       <c r="U43">
         <f>M43/(O43/21600)</f>
-        <v>0.14444444444444443</v>
+        <v>0.14081530540677534</v>
       </c>
       <c r="V43" t="s">
         <v>152</v>
@@ -4864,13 +4719,13 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="D44" t="s">
         <v>352</v>
@@ -4879,50 +4734,44 @@
         <v>7</v>
       </c>
       <c r="F44">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G44">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="H44">
-        <v>32</v>
+        <v>0.125</v>
       </c>
       <c r="I44" s="5">
         <f>H44/1024</f>
-        <v>3.125E-2</v>
+        <v>1.220703125E-4</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
-      <c r="L44" t="s">
-        <v>330</v>
+      <c r="L44">
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N44" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="O44">
-        <v>1800</v>
-      </c>
-      <c r="P44" t="s">
-        <v>255</v>
-      </c>
-      <c r="R44" t="s">
-        <v>58</v>
+        <v>300</v>
       </c>
       <c r="S44">
         <f>H44/O44</f>
-        <v>1.7777777777777778E-2</v>
+        <v>4.1666666666666669E-4</v>
       </c>
       <c r="T44">
         <f>S44*1000</f>
-        <v>17.777777777777779</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="U44">
         <f>M44/(O44/21600)</f>
-        <v>60</v>
+        <v>432</v>
       </c>
       <c r="V44" t="s">
         <v>152</v>
@@ -4933,32 +4782,32 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D45" t="s">
         <v>352</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F45">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G45">
         <v>0.05</v>
       </c>
       <c r="H45">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I45" s="5">
         <f>H45/1024</f>
-        <v>2.63671875E-2</v>
+        <v>2.9296875E-3</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -4967,13 +4816,13 @@
         <v>7</v>
       </c>
       <c r="M45">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N45" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="O45">
-        <v>64800</v>
+        <v>7200</v>
       </c>
       <c r="S45">
         <f>H45/O45</f>
@@ -4985,7 +4834,7 @@
       </c>
       <c r="U45">
         <f>M45/(O45/21600)</f>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="V45" t="s">
         <v>152</v>
@@ -4996,59 +4845,59 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="D46" t="s">
         <v>352</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G46">
-        <v>17</v>
+        <v>0.05</v>
       </c>
       <c r="H46">
-        <v>76696.269690300003</v>
+        <v>9</v>
       </c>
       <c r="I46" s="5">
         <f>H46/1024</f>
-        <v>74.898700869433597</v>
+        <v>8.7890625E-3</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>2800</v>
+        <v>7</v>
       </c>
       <c r="M46">
-        <v>2800</v>
+        <v>8</v>
       </c>
       <c r="N46" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="O46">
-        <v>184070900</v>
+        <v>21600</v>
       </c>
       <c r="S46">
         <f>H46/O46</f>
-        <v>4.1666700000000001E-4</v>
+        <v>4.1666666666666669E-4</v>
       </c>
       <c r="T46">
         <f>S46*1000</f>
-        <v>0.41666700000000001</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="U46">
         <f>M46/(O46/21600)</f>
-        <v>0.32856904594914244</v>
+        <v>8</v>
       </c>
       <c r="V46" t="s">
         <v>152</v>
@@ -5059,47 +4908,47 @@
     </row>
     <row r="47" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>347</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>348</v>
       </c>
       <c r="D47" t="s">
         <v>352</v>
       </c>
       <c r="E47" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F47">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G47">
         <v>0.05</v>
       </c>
       <c r="H47">
-        <v>45</v>
+        <v>1.5</v>
       </c>
       <c r="I47" s="5">
         <f>H47/1024</f>
-        <v>4.39453125E-2</v>
+        <v>1.46484375E-3</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M47">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="O47">
-        <v>108000</v>
+        <v>3600</v>
       </c>
       <c r="S47">
         <f>H47/O47</f>
@@ -5111,13 +4960,7 @@
       </c>
       <c r="U47">
         <f>M47/(O47/21600)</f>
-        <v>1.8</v>
-      </c>
-      <c r="V47" t="s">
-        <v>152</v>
-      </c>
-      <c r="W47" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5125,10 +4968,10 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>349</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>354</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
         <v>352</v>
@@ -5137,165 +4980,165 @@
         <v>18</v>
       </c>
       <c r="F48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G48">
-        <v>0.05</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H48">
-        <v>7669.6208333300001</v>
+        <v>1917</v>
       </c>
       <c r="I48" s="5">
         <f>H48/1024</f>
+        <v>1.8720703125</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>11</v>
+      </c>
+      <c r="M48">
+        <v>30</v>
+      </c>
+      <c r="N48" t="s">
+        <v>270</v>
+      </c>
+      <c r="O48">
+        <v>3888000</v>
+      </c>
+      <c r="S48">
+        <f>H48/O48</f>
+        <v>4.9305555555555561E-4</v>
+      </c>
+      <c r="T48">
+        <f>S48*1000</f>
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="U48">
+        <f>M48/(O48/21600)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="V48" t="s">
+        <v>152</v>
+      </c>
+      <c r="W48" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>349</v>
+      </c>
+      <c r="C49" t="s">
+        <v>354</v>
+      </c>
+      <c r="D49" t="s">
+        <v>352</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49">
+        <v>0.05</v>
+      </c>
+      <c r="H49">
+        <v>7669.6208333300001</v>
+      </c>
+      <c r="I49" s="5">
+        <f>H49/1024</f>
         <v>7.4898640950488282</v>
       </c>
-      <c r="L48">
+      <c r="L49">
         <v>280</v>
       </c>
-      <c r="N48" t="s">
+      <c r="N49" t="s">
         <v>217</v>
       </c>
-      <c r="O48">
+      <c r="O49">
         <f>9203545*2</f>
         <v>18407090</v>
       </c>
-      <c r="P48" t="s">
+      <c r="P49" t="s">
         <v>350</v>
-      </c>
-      <c r="S48">
-        <f>H48/O48</f>
-        <v>4.1666666666648558E-4</v>
-      </c>
-      <c r="T48">
-        <f>S48*1000</f>
-        <v>0.41666666666648555</v>
-      </c>
-      <c r="U48">
-        <f>M48/(O48/21600)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" t="s">
-        <v>352</v>
-      </c>
-      <c r="E49" t="s">
-        <v>23</v>
-      </c>
-      <c r="F49">
-        <v>7</v>
-      </c>
-      <c r="G49">
-        <v>0.05</v>
-      </c>
-      <c r="H49">
-        <v>21</v>
-      </c>
-      <c r="I49" s="5">
-        <f>H49/1024</f>
-        <v>2.05078125E-2</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>10</v>
-      </c>
-      <c r="M49">
-        <v>12</v>
-      </c>
-      <c r="N49" t="s">
-        <v>247</v>
-      </c>
-      <c r="O49">
-        <v>50400</v>
       </c>
       <c r="S49">
         <f>H49/O49</f>
-        <v>4.1666666666666669E-4</v>
+        <v>4.1666666666648558E-4</v>
       </c>
       <c r="T49">
         <f>S49*1000</f>
-        <v>0.41666666666666669</v>
+        <v>0.41666666666648555</v>
       </c>
       <c r="U49">
         <f>M49/(O49/21600)</f>
-        <v>5.1428571428571423</v>
-      </c>
-      <c r="V49" t="s">
-        <v>152</v>
-      </c>
-      <c r="W49" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" t="s">
-        <v>300</v>
+        <v>4</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D50" t="s">
         <v>352</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F50">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G50">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="H50">
-        <v>32</v>
+        <v>16384</v>
       </c>
       <c r="I50" s="5">
         <f>H50/1024</f>
-        <v>3.125E-2</v>
+        <v>16</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>12</v>
+        <v>840</v>
       </c>
       <c r="M50">
-        <v>10</v>
+        <v>350</v>
       </c>
       <c r="N50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O50">
-        <v>1800</v>
+        <v>9203545</v>
       </c>
       <c r="P50" t="s">
         <v>255</v>
       </c>
       <c r="S50">
         <f>H50/O50</f>
-        <v>1.7777777777777778E-2</v>
+        <v>1.7801836140313326E-3</v>
       </c>
       <c r="T50">
         <f>S50*1000</f>
-        <v>17.777777777777779</v>
+        <v>1.7801836140313325</v>
       </c>
       <c r="U50">
         <f>M50/(O50/21600)</f>
-        <v>120</v>
+        <v>0.82142261487285606</v>
       </c>
       <c r="V50" t="s">
         <v>152</v>
@@ -5304,121 +5147,124 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B51" t="s">
-        <v>131</v>
+        <v>62</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="D51" t="s">
         <v>352</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F51">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H51">
-        <v>2048</v>
+        <v>7669.62</v>
       </c>
       <c r="I51" s="5">
         <f>H51/1024</f>
-        <v>2</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
+        <v>7.4898632812499999</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="M51">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N51" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="O51">
-        <v>1800</v>
+        <v>9203545</v>
       </c>
       <c r="S51">
         <f>H51/O51</f>
-        <v>1.1377777777777778</v>
+        <v>8.3333324278851251E-4</v>
       </c>
       <c r="T51">
         <f>S51*1000</f>
-        <v>1137.7777777777778</v>
+        <v>0.83333324278851251</v>
       </c>
       <c r="U51">
         <f>M51/(O51/21600)</f>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+        <v>4.6938435135591774E-2</v>
+      </c>
+      <c r="V51" t="s">
+        <v>152</v>
+      </c>
+      <c r="W51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>340</v>
+        <v>64</v>
       </c>
       <c r="D52" t="s">
         <v>352</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F52">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H52">
-        <v>76696.269690300003</v>
+        <v>1620</v>
       </c>
       <c r="I52" s="5">
         <f>H52/1024</f>
-        <v>74.898700869433597</v>
+        <v>1.58203125</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>2800</v>
+        <v>11</v>
       </c>
       <c r="M52">
-        <v>5600</v>
+        <v>13</v>
       </c>
       <c r="N52" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="O52">
-        <v>184070900</v>
-      </c>
-      <c r="P52" t="s">
-        <v>311</v>
+        <v>1944000</v>
       </c>
       <c r="S52">
         <f>H52/O52</f>
-        <v>4.1666700000000001E-4</v>
+        <v>8.3333333333333339E-4</v>
       </c>
       <c r="T52">
-        <f>S53*1000</f>
-        <v>4.4504590350783316E-2</v>
+        <f>S52*1000</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="U52">
-        <f>L52/(O52/21600)</f>
-        <v>0.32856904594914244</v>
+        <f>M52/(O52/21600)</f>
+        <v>0.14444444444444443</v>
       </c>
       <c r="V52" t="s">
         <v>152</v>
@@ -5427,46 +5273,43 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="D53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E53" t="s">
         <v>33</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G53">
-        <v>10</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H53">
-        <v>4096</v>
+        <v>76696.2696</v>
       </c>
       <c r="I53" s="5">
         <f>H53/1024</f>
-        <v>4</v>
+        <v>74.89870078125</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
-      <c r="K53" t="s">
-        <v>334</v>
-      </c>
       <c r="L53">
-        <v>1400</v>
+        <v>250</v>
       </c>
       <c r="M53">
-        <v>2800</v>
+        <v>500</v>
       </c>
       <c r="N53" t="s">
         <v>228</v>
@@ -5474,298 +5317,289 @@
       <c r="O53">
         <v>92035450</v>
       </c>
-      <c r="Q53" t="s">
-        <v>310</v>
-      </c>
       <c r="S53">
         <f>H53/O53</f>
-        <v>4.4504590350783313E-5</v>
+        <v>8.3333399901885637E-4</v>
       </c>
       <c r="T53">
         <f>S53*1000</f>
-        <v>4.4504590350783316E-2</v>
+        <v>0.83333399901885641</v>
       </c>
       <c r="U53">
         <f>M53/(O53/21600)</f>
-        <v>0.65713809189828487</v>
+        <v>0.11734608783897944</v>
       </c>
       <c r="V53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="W53" t="s">
         <v>152</v>
       </c>
-      <c r="X53" s="6">
-        <v>2.1730757E-7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" t="s">
-        <v>119</v>
+        <v>82</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="D54" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F54">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G54">
-        <v>23</v>
+        <v>2.5</v>
       </c>
       <c r="H54">
-        <v>76696.269690300003</v>
+        <v>13</v>
       </c>
       <c r="I54" s="5">
         <f>H54/1024</f>
-        <v>74.898700869433597</v>
+        <v>1.26953125E-2</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>5600</v>
+        <v>10</v>
       </c>
       <c r="M54">
-        <v>5600</v>
+        <v>10</v>
       </c>
       <c r="N54" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
       <c r="O54">
-        <v>184070900</v>
+        <v>30</v>
       </c>
       <c r="S54">
         <f>H54/O54</f>
-        <v>4.1666700000000001E-4</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="T54">
         <f>S54*1000</f>
-        <v>0.41666700000000001</v>
+        <v>433.33333333333337</v>
       </c>
       <c r="U54">
         <f>M54/(O54/21600)</f>
-        <v>0.65713809189828487</v>
+        <v>7200</v>
       </c>
       <c r="V54" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="W54" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D55" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F55">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G55">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H55">
-        <v>16384</v>
+        <v>1024</v>
       </c>
       <c r="I55" s="5">
         <f>H55/1024</f>
-        <v>16</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>3</v>
       </c>
       <c r="L55">
-        <v>840</v>
+        <v>17</v>
       </c>
       <c r="M55">
-        <v>350</v>
+        <v>25</v>
       </c>
       <c r="N55" t="s">
-        <v>220</v>
+        <v>299</v>
       </c>
       <c r="O55">
-        <v>9203545</v>
-      </c>
-      <c r="P55" t="s">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="S55">
         <f>H55/O55</f>
-        <v>1.7801836140313326E-3</v>
+        <v>34.133333333333333</v>
       </c>
       <c r="T55">
         <f>S55*1000</f>
-        <v>1.7801836140313325</v>
+        <v>34133.333333333336</v>
       </c>
       <c r="U55">
         <f>M55/(O55/21600)</f>
-        <v>0.82142261487285606</v>
+        <v>18000</v>
       </c>
       <c r="V55" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="W55" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
-        <v>339</v>
+        <v>86</v>
       </c>
       <c r="D56" t="s">
         <v>352</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G56">
         <v>0.05</v>
       </c>
       <c r="H56">
-        <v>38348.134845200002</v>
+        <v>21</v>
       </c>
       <c r="I56" s="5">
         <f>H56/1024</f>
-        <v>37.449350434765627</v>
+        <v>2.05078125E-2</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="L56">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="M56">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="N56" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="O56">
-        <v>92035450</v>
+        <v>50400</v>
       </c>
       <c r="S56">
         <f>H56/O56</f>
-        <v>4.1666700000054331E-4</v>
+        <v>4.1666666666666669E-4</v>
       </c>
       <c r="T56">
         <f>S56*1000</f>
-        <v>0.4166670000005433</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="U56">
         <f>M56/(O56/21600)</f>
-        <v>1.1734608783897945E-2</v>
+        <v>5.1428571428571423</v>
       </c>
       <c r="V56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W56" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B57" t="s">
-        <v>118</v>
+        <v>82</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>339</v>
       </c>
       <c r="D57" t="s">
         <v>352</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F57">
         <v>8</v>
       </c>
       <c r="G57">
-        <v>21</v>
+        <v>0.05</v>
       </c>
       <c r="H57">
-        <v>115044.40453499999</v>
+        <v>38348.134845200002</v>
       </c>
       <c r="I57" s="5">
         <f>H57/1024</f>
-        <v>112.34805130371093</v>
+        <v>37.449350434765627</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="L57">
-        <v>12600</v>
+        <v>75</v>
       </c>
       <c r="M57">
-        <v>12600</v>
+        <v>50</v>
       </c>
       <c r="N57" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="O57">
-        <v>276106350</v>
+        <v>92035450</v>
       </c>
       <c r="S57">
         <f>H57/O57</f>
-        <v>4.1666699999837019E-4</v>
+        <v>4.1666700000054331E-4</v>
       </c>
       <c r="T57">
         <f>S57*1000</f>
-        <v>0.4166669999983702</v>
+        <v>0.4166670000005433</v>
       </c>
       <c r="U57">
         <f>M57/(O57/21600)</f>
-        <v>0.98570713784742725</v>
+        <v>1.1734608783897945E-2</v>
       </c>
       <c r="V57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="W57" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" t="s">
-        <v>141</v>
+        <v>82</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>337</v>
       </c>
       <c r="D58" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E58" t="s">
         <v>7</v>
@@ -5774,107 +5608,76 @@
         <v>9</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H58">
-        <v>64</v>
-      </c>
-      <c r="I58" s="5">
-        <f>H58/1024</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="L58" t="s">
-        <v>331</v>
-      </c>
-      <c r="M58">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="L58">
+        <v>13</v>
       </c>
       <c r="N58" t="s">
-        <v>218</v>
-      </c>
-      <c r="O58">
-        <v>1800</v>
-      </c>
-      <c r="R58" t="s">
-        <v>305</v>
-      </c>
-      <c r="S58">
-        <f>H58/O58</f>
-        <v>3.5555555555555556E-2</v>
-      </c>
-      <c r="T58">
-        <f>S58*1000</f>
-        <v>35.555555555555557</v>
-      </c>
-      <c r="U58">
-        <f>M58/(O58/21600)</f>
-        <v>120</v>
-      </c>
-      <c r="V58" t="s">
-        <v>152</v>
-      </c>
-      <c r="W58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="D59" t="s">
         <v>352</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F59">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>30</v>
+        <v>0.05</v>
       </c>
       <c r="H59">
-        <v>76696.269690300003</v>
+        <v>1024</v>
       </c>
       <c r="I59" s="5">
         <f>H59/1024</f>
-        <v>74.898700869433597</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59">
-        <v>12600</v>
+        <v>5</v>
       </c>
       <c r="M59">
-        <v>12600</v>
+        <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="O59">
-        <v>184070900</v>
+        <v>1800</v>
+      </c>
+      <c r="P59" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>310</v>
       </c>
       <c r="S59">
         <f>H59/O59</f>
-        <v>4.1666700000000001E-4</v>
+        <v>0.56888888888888889</v>
       </c>
       <c r="T59">
         <f>S59*1000</f>
-        <v>0.41666700000000001</v>
+        <v>568.88888888888891</v>
       </c>
       <c r="U59">
         <f>M59/(O59/21600)</f>
-        <v>1.478560706771141</v>
+        <v>60</v>
       </c>
       <c r="V59" t="s">
         <v>152</v>
@@ -5883,123 +5686,141 @@
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>313</v>
+        <v>47</v>
       </c>
       <c r="B60" t="s">
-        <v>315</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>319</v>
+        <v>53</v>
       </c>
       <c r="D60" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E60" t="s">
         <v>7</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H60">
-        <v>1024</v>
+        <v>16</v>
       </c>
       <c r="I60" s="5">
         <f>H60/1024</f>
-        <v>1</v>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M60">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N60" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="O60">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="S60">
         <f>H60/O60</f>
-        <v>3.4133333333333336</v>
+        <v>8.8888888888888889E-3</v>
       </c>
       <c r="T60">
         <f>S60*1000</f>
-        <v>3413.3333333333335</v>
+        <v>8.8888888888888893</v>
       </c>
       <c r="U60">
         <f>M60/(O60/21600)</f>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="V60" t="s">
+        <v>152</v>
+      </c>
+      <c r="W60" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>313</v>
+        <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>325</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>326</v>
+        <v>54</v>
       </c>
       <c r="D61" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E61" t="s">
         <v>7</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G61">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H61">
-        <v>1024</v>
+        <v>16</v>
       </c>
       <c r="I61" s="5">
         <f>H61/1024</f>
-        <v>1</v>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="M61">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O61">
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="S61">
         <f>H61/O61</f>
-        <v>0.28444444444444444</v>
+        <v>8.8888888888888889E-3</v>
       </c>
       <c r="T61">
         <f>S61*1000</f>
-        <v>284.44444444444446</v>
+        <v>8.8888888888888893</v>
       </c>
       <c r="U61">
         <f>M61/(O61/21600)</f>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="V61" t="s">
+        <v>152</v>
+      </c>
+      <c r="W61" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="D62" t="s">
         <v>353</v>
@@ -6008,143 +5829,164 @@
         <v>7</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H62">
-        <v>0.375</v>
+        <v>16</v>
       </c>
       <c r="I62" s="5">
         <f>H62/1024</f>
-        <v>3.662109375E-4</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
-      <c r="L62">
-        <v>12</v>
+      <c r="L62" t="s">
+        <v>329</v>
       </c>
       <c r="M62">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="O62">
-        <v>900</v>
+        <v>1800</v>
+      </c>
+      <c r="P62" t="s">
+        <v>255</v>
+      </c>
+      <c r="R62" t="s">
+        <v>55</v>
       </c>
       <c r="S62">
         <f>H62/O62</f>
-        <v>4.1666666666666669E-4</v>
+        <v>8.8888888888888889E-3</v>
       </c>
       <c r="T62">
         <f>S62*1000</f>
-        <v>0.41666666666666669</v>
+        <v>8.8888888888888893</v>
       </c>
       <c r="U62">
         <f>M62/(O62/21600)</f>
-        <v>288</v>
+        <v>60</v>
       </c>
       <c r="V62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W62" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>313</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>316</v>
+        <v>57</v>
       </c>
       <c r="C63" t="s">
-        <v>320</v>
+        <v>60</v>
       </c>
       <c r="D63" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E63" t="s">
         <v>7</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G63">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="H63">
-        <v>1024</v>
+        <v>32</v>
       </c>
       <c r="I63" s="5">
         <f>H63/1024</f>
-        <v>1</v>
-      </c>
-      <c r="L63">
-        <v>16</v>
+        <v>3.125E-2</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="L63" t="s">
+        <v>330</v>
       </c>
       <c r="M63">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="O63">
         <v>1800</v>
       </c>
+      <c r="P63" t="s">
+        <v>255</v>
+      </c>
+      <c r="R63" t="s">
+        <v>58</v>
+      </c>
       <c r="S63">
         <f>H63/O63</f>
-        <v>0.56888888888888889</v>
+        <v>1.7777777777777778E-2</v>
       </c>
       <c r="T63">
         <f>S63*1000</f>
-        <v>568.88888888888891</v>
+        <v>17.777777777777779</v>
       </c>
       <c r="U63">
         <f>M63/(O63/21600)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="V63" t="s">
+        <v>152</v>
+      </c>
+      <c r="W63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>300</v>
       </c>
       <c r="C64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E64" t="s">
         <v>7</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G64">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H64">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I64" s="5">
         <f>H64/1024</f>
-        <v>1.5625E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
-      <c r="L64" t="s">
-        <v>329</v>
+      <c r="L64">
+        <v>12</v>
       </c>
       <c r="M64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N64" t="s">
         <v>218</v>
@@ -6155,20 +5997,17 @@
       <c r="P64" t="s">
         <v>255</v>
       </c>
-      <c r="R64" t="s">
-        <v>55</v>
-      </c>
       <c r="S64">
         <f>H64/O64</f>
-        <v>8.8888888888888889E-3</v>
+        <v>1.7777777777777778E-2</v>
       </c>
       <c r="T64">
         <f>S64*1000</f>
-        <v>8.8888888888888893</v>
+        <v>17.777777777777779</v>
       </c>
       <c r="U64">
         <f>M64/(O64/21600)</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="V64" t="s">
         <v>152</v>
@@ -6179,68 +6018,62 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>112</v>
+        <v>47</v>
+      </c>
+      <c r="B65" t="s">
+        <v>141</v>
       </c>
       <c r="C65" t="s">
-        <v>341</v>
+        <v>142</v>
       </c>
       <c r="D65" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>1024</v>
+        <v>64</v>
       </c>
       <c r="I65" s="5">
         <f>H65/1024</f>
-        <v>1</v>
+        <v>6.25E-2</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
-      <c r="K65" t="s">
-        <v>334</v>
-      </c>
-      <c r="L65">
-        <v>8</v>
+      <c r="L65" t="s">
+        <v>331</v>
       </c>
       <c r="M65">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N65" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="O65">
-        <v>21600</v>
-      </c>
-      <c r="P65" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>310</v>
+        <v>1800</v>
+      </c>
+      <c r="R65" t="s">
+        <v>305</v>
       </c>
       <c r="S65">
         <f>H65/O65</f>
-        <v>4.7407407407407405E-2</v>
+        <v>3.5555555555555556E-2</v>
       </c>
       <c r="T65">
         <f>S65*1000</f>
-        <v>47.407407407407405</v>
+        <v>35.555555555555557</v>
       </c>
       <c r="U65">
         <f>M65/(O65/21600)</f>
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="V65" t="s">
         <v>152</v>
@@ -6251,582 +6084,534 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>313</v>
+        <v>161</v>
       </c>
       <c r="B66" t="s">
-        <v>314</v>
+        <v>184</v>
       </c>
       <c r="C66" t="s">
-        <v>321</v>
+        <v>204</v>
       </c>
       <c r="D66" t="s">
         <v>353</v>
       </c>
       <c r="E66" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G66">
-        <v>0.05</v>
-      </c>
-      <c r="H66">
-        <v>1024</v>
+        <v>100</v>
       </c>
       <c r="I66" s="5">
         <f>H66/1024</f>
-        <v>1</v>
-      </c>
-      <c r="L66">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="N66" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="O66">
-        <v>300</v>
+        <v>92035450</v>
+      </c>
+      <c r="P66" t="s">
+        <v>291</v>
       </c>
       <c r="S66">
         <f>H66/O66</f>
-        <v>3.4133333333333336</v>
+        <v>0</v>
       </c>
       <c r="T66">
         <f>S66*1000</f>
-        <v>3413.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="U66">
         <f>M66/(O66/21600)</f>
-        <v>5040</v>
+        <v>7.0407652703387669E-2</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="C67" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="D67" t="s">
         <v>353</v>
       </c>
       <c r="E67" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G67">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="H67">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="I67" s="5">
         <f>H67/1024</f>
-        <v>6.15234375E-2</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N67" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O67">
-        <v>151200</v>
+        <f>9203545/2</f>
+        <v>4601772.5</v>
+      </c>
+      <c r="P67" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>294</v>
       </c>
       <c r="S67">
         <f>H67/O67</f>
-        <v>4.1666666666666669E-4</v>
+        <v>0</v>
       </c>
       <c r="T67">
         <f>S67*1000</f>
-        <v>0.41666666666666669</v>
+        <v>0</v>
       </c>
       <c r="U67">
         <f>M67/(O67/21600)</f>
-        <v>1.4285714285714286</v>
-      </c>
-      <c r="V67" t="s">
-        <v>153</v>
-      </c>
-      <c r="W67" t="s">
-        <v>152</v>
+        <v>0.46938435135591777</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>313</v>
+        <v>161</v>
       </c>
       <c r="B68" t="s">
-        <v>317</v>
+        <v>212</v>
       </c>
       <c r="C68" t="s">
-        <v>322</v>
+        <v>213</v>
       </c>
       <c r="D68" t="s">
         <v>353</v>
       </c>
       <c r="E68" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F68">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G68">
-        <v>0.05</v>
-      </c>
-      <c r="H68">
-        <v>1024</v>
+        <v>100</v>
       </c>
       <c r="I68" s="5">
         <f>H68/1024</f>
-        <v>1</v>
-      </c>
-      <c r="L68">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M68">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N68" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="O68">
-        <v>1800</v>
+        <v>648000</v>
+      </c>
+      <c r="P68" t="s">
+        <v>286</v>
       </c>
       <c r="S68">
         <f>H68/O68</f>
-        <v>0.56888888888888889</v>
+        <v>0</v>
       </c>
       <c r="T68">
         <f>S68*1000</f>
-        <v>568.88888888888891</v>
+        <v>0</v>
       </c>
       <c r="U68">
         <f>M68/(O68/21600)</f>
-        <v>240</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="C69" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="D69" t="s">
         <v>353</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F69">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G69">
-        <v>0.05</v>
-      </c>
-      <c r="H69">
-        <v>512</v>
+        <v>100</v>
       </c>
       <c r="I69" s="5">
         <f>H69/1024</f>
-        <v>0.5</v>
-      </c>
-      <c r="L69">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M69">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="N69" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="O69">
-        <v>7200</v>
+        <v>92035450</v>
       </c>
       <c r="P69" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="S69">
         <f>H69/O69</f>
-        <v>7.1111111111111111E-2</v>
+        <v>0</v>
       </c>
       <c r="T69">
         <f>S69*1000</f>
-        <v>71.111111111111114</v>
+        <v>0</v>
       </c>
       <c r="U69">
         <f>M69/(O69/21600)</f>
-        <v>150</v>
+        <v>0.1056114790550815</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>83</v>
+        <v>161</v>
+      </c>
+      <c r="B70" t="s">
+        <v>189</v>
       </c>
       <c r="C70" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="D70" t="s">
         <v>353</v>
       </c>
       <c r="E70" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F70">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G70">
-        <v>2.5</v>
-      </c>
-      <c r="H70">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="I70" s="5">
         <f>H70/1024</f>
-        <v>1.26953125E-2</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M70">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="N70" t="s">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="O70">
-        <v>30</v>
+        <v>648000</v>
+      </c>
+      <c r="P70" t="s">
+        <v>286</v>
       </c>
       <c r="S70">
         <f>H70/O70</f>
-        <v>0.43333333333333335</v>
+        <v>0</v>
       </c>
       <c r="T70">
         <f>S70*1000</f>
-        <v>433.33333333333337</v>
+        <v>0</v>
       </c>
       <c r="U70">
         <f>M70/(O70/21600)</f>
-        <v>7200</v>
-      </c>
-      <c r="V70" t="s">
-        <v>153</v>
-      </c>
-      <c r="W70" t="s">
-        <v>152</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>161</v>
+      </c>
+      <c r="B71" t="s">
+        <v>188</v>
       </c>
       <c r="C71" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
       <c r="D71" t="s">
         <v>353</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F71">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G71">
-        <v>0.05</v>
-      </c>
-      <c r="H71">
-        <v>1024</v>
+        <v>100</v>
       </c>
       <c r="I71" s="5">
         <f>H71/1024</f>
-        <v>1</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>3</v>
-      </c>
-      <c r="L71">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M71">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N71" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O71">
-        <v>900</v>
+        <v>1944000</v>
+      </c>
+      <c r="P71" t="s">
+        <v>286</v>
       </c>
       <c r="S71">
         <f>H71/O71</f>
-        <v>1.1377777777777778</v>
+        <v>0</v>
       </c>
       <c r="T71">
         <f>S71*1000</f>
-        <v>1137.7777777777778</v>
+        <v>0</v>
       </c>
       <c r="U71">
         <f>M71/(O71/21600)</f>
-        <v>600</v>
-      </c>
-      <c r="V71" t="s">
-        <v>153</v>
-      </c>
-      <c r="W71" t="s">
-        <v>152</v>
+        <v>1.1111111111111112</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>313</v>
+        <v>161</v>
       </c>
       <c r="B72" t="s">
-        <v>318</v>
+        <v>208</v>
       </c>
       <c r="C72" t="s">
-        <v>323</v>
+        <v>209</v>
       </c>
       <c r="D72" t="s">
         <v>353</v>
       </c>
       <c r="E72" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F72">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G72">
-        <v>0.05</v>
-      </c>
-      <c r="H72">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="I72" s="5">
         <f>H72/1024</f>
-        <v>1</v>
-      </c>
-      <c r="L72">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="M72">
-        <v>280</v>
+        <v>5000</v>
       </c>
       <c r="N72" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O72">
-        <v>300</v>
+        <v>92035450</v>
+      </c>
+      <c r="P72" t="s">
+        <v>290</v>
       </c>
       <c r="S72">
         <f>H72/O72</f>
-        <v>3.4133333333333336</v>
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <f>S72*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <f>M72/(O72/21600)</f>
+        <v>1.1734608783897944</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="C73" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="D73" t="s">
         <v>353</v>
       </c>
       <c r="E73" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F73">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G73">
-        <v>0.05</v>
-      </c>
-      <c r="H73">
-        <v>1024</v>
+        <v>1000</v>
       </c>
       <c r="I73" s="5">
         <f>H73/1024</f>
-        <v>1</v>
-      </c>
-      <c r="L73">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="M73">
-        <v>100</v>
+        <v>30000</v>
       </c>
       <c r="N73" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="O73">
-        <v>7200</v>
+        <v>276106350</v>
       </c>
       <c r="P73" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="S73">
         <f>H73/O73</f>
-        <v>0.14222222222222222</v>
+        <v>0</v>
       </c>
       <c r="T73">
         <f>S73*1000</f>
-        <v>142.22222222222223</v>
+        <v>0</v>
       </c>
       <c r="U73">
         <f>M73/(O73/21600)</f>
-        <v>300</v>
+        <v>2.3469217567795888</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="D74" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E74" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F74">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G74">
-        <v>0.05</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H74">
-        <v>1024</v>
+        <v>1.125</v>
       </c>
       <c r="I74" s="5">
         <f>H74/1024</f>
-        <v>1</v>
+        <v>1.0986328125E-3</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="M74">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="O74">
-        <v>21600</v>
-      </c>
-      <c r="P74" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>292</v>
+        <v>2700</v>
       </c>
       <c r="S74">
         <f>H74/O74</f>
-        <v>4.7407407407407405E-2</v>
+        <v>4.1666666666666669E-4</v>
       </c>
       <c r="T74">
         <f>S74*1000</f>
-        <v>47.407407407407405</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="U74">
         <f>M74/(O74/21600)</f>
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="V74" t="s">
+        <v>152</v>
+      </c>
+      <c r="W74" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>67</v>
+        <v>30</v>
+      </c>
+      <c r="B75" t="s">
+        <v>34</v>
       </c>
       <c r="C75" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="D75" t="s">
         <v>353</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G75">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H75">
-        <v>76696.2696</v>
+        <v>63</v>
       </c>
       <c r="I75" s="5">
         <f>H75/1024</f>
-        <v>74.89870078125</v>
+        <v>6.15234375E-2</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="L75">
-        <v>250</v>
+        <v>7</v>
       </c>
       <c r="M75">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="N75" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="O75">
-        <v>92035450</v>
+        <v>151200</v>
       </c>
       <c r="S75">
         <f>H75/O75</f>
-        <v>8.3333399901885637E-4</v>
+        <v>4.1666666666666669E-4</v>
       </c>
       <c r="T75">
         <f>S75*1000</f>
-        <v>0.83333399901885641</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="U75">
         <f>M75/(O75/21600)</f>
-        <v>0.11734608783897944</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="V75" t="s">
         <v>153</v>
@@ -6837,59 +6622,59 @@
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>84</v>
+        <v>30</v>
+      </c>
+      <c r="B76" t="s">
+        <v>35</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="D76" t="s">
         <v>353</v>
       </c>
       <c r="E76" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F76">
         <v>6</v>
       </c>
       <c r="G76">
-        <v>5</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H76">
-        <v>1024</v>
+        <v>810</v>
       </c>
       <c r="I76" s="5">
         <f>H76/1024</f>
-        <v>1</v>
-      </c>
-      <c r="K76">
-        <v>3</v>
+        <v>0.791015625</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M76">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N76" t="s">
-        <v>299</v>
+        <v>220</v>
       </c>
       <c r="O76">
-        <v>30</v>
+        <v>9203545</v>
       </c>
       <c r="S76">
         <f>H76/O76</f>
-        <v>34.133333333333333</v>
+        <v>8.8009565879234574E-5</v>
       </c>
       <c r="T76">
         <f>S76*1000</f>
-        <v>34133.333333333336</v>
+        <v>8.8009565879234572E-2</v>
       </c>
       <c r="U76">
         <f>M76/(O76/21600)</f>
-        <v>18000</v>
+        <v>4.6938435135591774E-2</v>
       </c>
       <c r="V76" t="s">
         <v>153</v>
@@ -6903,56 +6688,56 @@
         <v>30</v>
       </c>
       <c r="B77" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C77" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D77" t="s">
         <v>353</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G77">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H77">
-        <v>810</v>
+        <v>3834</v>
       </c>
       <c r="I77" s="5">
         <f>H77/1024</f>
-        <v>0.791015625</v>
+        <v>3.744140625</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="L77">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M77">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N77" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="O77">
-        <v>9203545</v>
+        <v>46017725</v>
       </c>
       <c r="S77">
         <f>H77/O77</f>
-        <v>8.8009565879234574E-5</v>
+        <v>8.3315722365675398E-5</v>
       </c>
       <c r="T77">
         <f>S77*1000</f>
-        <v>8.8009565879234572E-2</v>
+        <v>8.3315722365675401E-2</v>
       </c>
       <c r="U77">
         <f>M77/(O77/21600)</f>
-        <v>4.6938435135591774E-2</v>
+        <v>1.6428452297457121E-2</v>
       </c>
       <c r="V77" t="s">
         <v>153</v>
@@ -6963,125 +6748,125 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>185</v>
+        <v>40</v>
+      </c>
+      <c r="B78" t="s">
+        <v>41</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="D78" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F78">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G78">
         <v>0.05</v>
       </c>
       <c r="H78">
-        <v>38348.1348</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I78" s="5">
         <f>H78/1024</f>
-        <v>37.449350390625</v>
+        <v>7.3242187499999997E-5</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="L78">
-        <v>350</v>
+        <v>3</v>
       </c>
       <c r="M78">
-        <v>1400</v>
+        <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="O78">
-        <v>92035450</v>
-      </c>
-      <c r="P78" t="s">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="S78">
         <f>H78/O78</f>
-        <v>4.1666699950942818E-4</v>
+        <v>4.1666666666666664E-4</v>
       </c>
       <c r="T78">
         <f>S78*1000</f>
-        <v>0.4166669995094282</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="U78">
         <f>M78/(O78/21600)</f>
-        <v>0.32856904594914244</v>
+        <v>360</v>
+      </c>
+      <c r="V78" t="s">
+        <v>152</v>
+      </c>
+      <c r="W78" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
+      </c>
+      <c r="B79" t="s">
+        <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D79" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G79">
         <v>0.05</v>
       </c>
       <c r="H79">
-        <v>11504.44</v>
+        <v>4.5</v>
       </c>
       <c r="I79" s="5">
         <f>H79/1024</f>
-        <v>11.2348046875</v>
+        <v>4.39453125E-3</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="L79">
-        <v>1200</v>
+        <v>5</v>
       </c>
       <c r="M79">
-        <v>2100</v>
+        <v>6</v>
       </c>
       <c r="N79" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="O79">
-        <v>27610635</v>
-      </c>
-      <c r="P79" t="s">
-        <v>307</v>
+        <v>10800</v>
       </c>
       <c r="S79">
         <f>H79/O79</f>
-        <v>4.1666698357353972E-4</v>
+        <v>4.1666666666666669E-4</v>
       </c>
       <c r="T79">
         <f>S79*1000</f>
-        <v>0.41666698357353971</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="U79">
         <f>M79/(O79/21600)</f>
-        <v>1.6428452297457121</v>
+        <v>12</v>
       </c>
       <c r="V79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W79" t="s">
         <v>152</v>
@@ -7089,148 +6874,136 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>342</v>
+        <v>40</v>
+      </c>
+      <c r="B80" t="s">
+        <v>45</v>
       </c>
       <c r="C80" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="D80" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E80" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F80">
         <v>6</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H80">
-        <v>191740.674226</v>
+        <v>27</v>
       </c>
       <c r="I80" s="5">
         <f>H80/1024</f>
-        <v>187.24675217382813</v>
+        <v>2.63671875E-2</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="L80">
-        <v>14000</v>
+        <v>7</v>
       </c>
       <c r="M80">
-        <v>12500</v>
+        <v>12</v>
       </c>
       <c r="N80" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O80">
-        <v>460177250</v>
-      </c>
-      <c r="P80" t="s">
-        <v>308</v>
+        <v>64800</v>
       </c>
       <c r="S80">
         <f>H80/O80</f>
-        <v>4.1666700000054325E-4</v>
+        <v>4.1666666666666669E-4</v>
       </c>
       <c r="T80">
         <f>S80*1000</f>
-        <v>0.41666700000054324</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="U80">
-        <f>L80/(O80/21600)</f>
-        <v>0.65713809189828487</v>
+        <f>M80/(O80/21600)</f>
+        <v>4</v>
       </c>
       <c r="V80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W80" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>345</v>
+        <v>193</v>
+      </c>
+      <c r="B81" t="s">
+        <v>130</v>
       </c>
       <c r="C81" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="D81" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F81">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H81">
-        <v>95870.337112900001</v>
+        <v>1024</v>
       </c>
       <c r="I81" s="5">
         <f>H81/1024</f>
-        <v>93.623376086816407</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
       </c>
       <c r="L81">
-        <v>7000</v>
+        <v>12</v>
       </c>
       <c r="M81">
-        <v>6250</v>
+        <v>15</v>
       </c>
       <c r="N81" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="O81">
-        <v>230088625</v>
-      </c>
-      <c r="P81" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="S81">
         <f>H81/O81</f>
-        <v>4.1666700000010865E-4</v>
+        <v>3.4133333333333336</v>
       </c>
       <c r="T81">
         <f>S81*1000</f>
-        <v>0.41666700000010864</v>
+        <v>3413.3333333333335</v>
       </c>
       <c r="U81">
-        <f>L81/(O81/21600)</f>
-        <v>0.65713809189828487</v>
-      </c>
-      <c r="V81" t="s">
-        <v>153</v>
-      </c>
-      <c r="W81" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <f>M81/(O81/21600)</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>313</v>
+        <v>193</v>
       </c>
       <c r="B82" t="s">
-        <v>327</v>
+        <v>131</v>
       </c>
       <c r="C82" t="s">
-        <v>335</v>
+        <v>129</v>
       </c>
       <c r="D82" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E82" t="s">
         <v>7</v>
@@ -7239,41 +7012,52 @@
         <v>7</v>
       </c>
       <c r="G82">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="H82">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="I82" s="5">
         <f>H82/1024</f>
+        <v>2</v>
+      </c>
+      <c r="K82">
         <v>1</v>
       </c>
       <c r="L82">
-        <v>560</v>
+        <v>24</v>
       </c>
       <c r="M82">
-        <v>560</v>
+        <v>30</v>
       </c>
       <c r="N82" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="O82">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="S82">
         <f>H82/O82</f>
-        <v>3.4133333333333336</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1.1377777777777778</v>
+      </c>
+      <c r="T82">
+        <f>S82*1000</f>
+        <v>1137.7777777777778</v>
+      </c>
+      <c r="U82">
+        <f>M82/(O82/21600)</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="C83" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="D83" t="s">
         <v>353</v>
@@ -7282,349 +7066,358 @@
         <v>7</v>
       </c>
       <c r="F83">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G83">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>2048</v>
+        <v>0.25</v>
       </c>
       <c r="I83" s="5">
         <f>H83/1024</f>
-        <v>2</v>
+        <v>2.44140625E-4</v>
       </c>
       <c r="L83">
-        <v>280</v>
+        <v>48</v>
       </c>
       <c r="M83">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N83" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="O83">
-        <v>7200</v>
-      </c>
-      <c r="P83" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>293</v>
+        <v>600</v>
       </c>
       <c r="S83">
         <f>H83/O83</f>
-        <v>0.28444444444444444</v>
+        <v>4.1666666666666669E-4</v>
       </c>
       <c r="T83">
         <f>S83*1000</f>
-        <v>284.44444444444446</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="U83">
         <f>M83/(O83/21600)</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="B84" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="C84" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="D84" t="s">
         <v>353</v>
       </c>
       <c r="E84" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F84">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G84">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="H84">
-        <v>2048</v>
+        <v>12288</v>
       </c>
       <c r="I84" s="5">
         <f>H84/1024</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L84">
-        <v>280</v>
+        <v>96</v>
       </c>
       <c r="M84">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N84" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="O84">
-        <v>43200</v>
+        <v>21600</v>
       </c>
       <c r="P84" t="s">
         <v>286</v>
       </c>
       <c r="S84">
         <f>H84/O84</f>
-        <v>4.7407407407407405E-2</v>
+        <v>0.56888888888888889</v>
       </c>
       <c r="T84">
         <f>S84*1000</f>
-        <v>47.407407407407405</v>
+        <v>568.88888888888891</v>
       </c>
       <c r="U84">
         <f>M84/(O84/21600)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="B85" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="C85" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="D85" t="s">
         <v>353</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F85">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G85">
         <v>0.05</v>
       </c>
       <c r="H85">
-        <v>3072</v>
+        <v>0.5</v>
       </c>
       <c r="I85" s="5">
         <f>H85/1024</f>
-        <v>3</v>
+        <v>4.8828125E-4</v>
       </c>
       <c r="L85">
-        <v>420</v>
+        <v>24</v>
       </c>
       <c r="M85">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="N85" t="s">
-        <v>220</v>
+        <v>324</v>
       </c>
       <c r="O85">
-        <v>9203545</v>
-      </c>
-      <c r="P85" t="s">
-        <v>287</v>
+        <v>1200</v>
       </c>
       <c r="S85">
         <f>H85/O85</f>
-        <v>3.3378442763087483E-4</v>
+        <v>4.1666666666666669E-4</v>
       </c>
       <c r="T85">
         <f>S85*1000</f>
-        <v>0.33378442763087485</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="U85">
         <f>M85/(O85/21600)</f>
-        <v>1.1734608783897944</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C86" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D86" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F86">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G86">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>15339.253938100001</v>
+        <v>5752.22</v>
       </c>
       <c r="I86" s="5">
         <f>H86/1024</f>
-        <v>14.979740173925782</v>
+        <v>5.6174023437500002</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="L86">
-        <v>300</v>
+        <v>52.5</v>
       </c>
       <c r="M86">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N86" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="O86">
-        <v>36814180</v>
+        <v>13805317.5</v>
       </c>
       <c r="S86">
         <f>H86/O86</f>
-        <v>4.1666700000108655E-4</v>
+        <v>4.1666698357353972E-4</v>
       </c>
       <c r="T86">
         <f>S86*1000</f>
-        <v>0.41666700000108653</v>
+        <v>0.41666698357353971</v>
       </c>
       <c r="U86">
         <f>M86/(O86/21600)</f>
-        <v>0.11734608783897944</v>
+        <v>0.14081530540677534</v>
       </c>
       <c r="V86" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W86" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B87" t="s">
-        <v>162</v>
+        <v>68</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D87" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E87" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F87">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G87">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="H87">
-        <v>2048</v>
+        <v>76696.269690300003</v>
       </c>
       <c r="I87" s="5">
         <f>H87/1024</f>
-        <v>2</v>
+        <v>74.898700869433597</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>280</v>
+        <v>2800</v>
       </c>
       <c r="M87">
-        <v>400</v>
+        <v>5600</v>
       </c>
       <c r="N87" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="O87">
-        <v>21600</v>
+        <v>184070900</v>
       </c>
       <c r="P87" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="S87">
         <f>H87/O87</f>
-        <v>9.481481481481481E-2</v>
+        <v>4.1666700000000001E-4</v>
       </c>
       <c r="T87">
-        <f>S87*1000</f>
-        <v>94.81481481481481</v>
+        <f>S88*1000</f>
+        <v>0.41887125220458554</v>
       </c>
       <c r="U87">
-        <f>M87/(O87/21600)</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+        <f>L87/(O87/21600)</f>
+        <v>0.32856904594914244</v>
+      </c>
+      <c r="V87" t="s">
+        <v>152</v>
+      </c>
+      <c r="W87" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B88" t="s">
-        <v>166</v>
+        <v>77</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C88" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="D88" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E88" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F88">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G88">
         <v>0.05</v>
       </c>
       <c r="H88">
-        <v>8192</v>
+        <v>190</v>
       </c>
       <c r="I88" s="5">
         <f>H88/1024</f>
-        <v>8</v>
+        <v>0.185546875</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>1120</v>
+        <v>9</v>
       </c>
       <c r="M88">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="N88" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="O88">
-        <v>18407090</v>
+        <v>453600</v>
       </c>
       <c r="P88" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="S88">
         <f>H88/O88</f>
-        <v>4.4504590350783314E-4</v>
+        <v>4.1887125220458553E-4</v>
       </c>
       <c r="T88">
         <f>S88*1000</f>
-        <v>0.44504590350783313</v>
+        <v>0.41887125220458554</v>
       </c>
       <c r="U88">
         <f>M88/(O88/21600)</f>
-        <v>1.1734608783897944</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="V88" t="s">
+        <v>152</v>
+      </c>
+      <c r="W88" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B89" t="s">
-        <v>38</v>
+        <v>77</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="C89" t="s">
-        <v>39</v>
+        <v>186</v>
       </c>
       <c r="D89" t="s">
         <v>353</v>
@@ -7633,127 +7426,124 @@
         <v>33</v>
       </c>
       <c r="F89">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G89">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H89">
-        <v>3834</v>
+        <v>38348.1348</v>
       </c>
       <c r="I89" s="5">
         <f>H89/1024</f>
-        <v>3.744140625</v>
+        <v>37.449350390625</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="L89">
-        <v>16</v>
+        <v>350</v>
       </c>
       <c r="M89">
-        <v>35</v>
+        <v>1400</v>
       </c>
       <c r="N89" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="O89">
-        <v>46017725</v>
+        <v>92035450</v>
+      </c>
+      <c r="P89" t="s">
+        <v>255</v>
       </c>
       <c r="S89">
         <f>H89/O89</f>
-        <v>8.3315722365675398E-5</v>
+        <v>4.1666699950942818E-4</v>
       </c>
       <c r="T89">
         <f>S89*1000</f>
-        <v>8.3315722365675401E-2</v>
+        <v>0.4166669995094282</v>
       </c>
       <c r="U89">
         <f>M89/(O89/21600)</f>
-        <v>1.6428452297457121E-2</v>
-      </c>
-      <c r="V89" t="s">
-        <v>153</v>
-      </c>
-      <c r="W89" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0.32856904594914244</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C90" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="D90" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F90">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H90">
-        <v>19174.067422600001</v>
+        <v>3</v>
       </c>
       <c r="I90" s="5">
         <f>H90/1024</f>
-        <v>18.724675217382813</v>
+        <v>2.9296875E-3</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="L90">
-        <v>350</v>
+        <v>7</v>
       </c>
       <c r="M90">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="N90" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="O90">
-        <v>46017725</v>
+        <v>7200</v>
       </c>
       <c r="P90" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S90">
         <f>H90/O90</f>
-        <v>4.1666700000054331E-4</v>
-      </c>
-      <c r="T90">
-        <f>S90*1000</f>
-        <v>0.4166670000005433</v>
+        <v>4.1666666666666669E-4</v>
+      </c>
+      <c r="T90" t="e">
+        <f>#REF!*1000</f>
+        <v>#REF!</v>
       </c>
       <c r="U90">
         <f>M90/(O90/21600)</f>
-        <v>9.3876870271183563E-2</v>
+        <v>24</v>
       </c>
       <c r="V90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W90" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C91" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="D91" t="s">
         <v>353</v>
@@ -7762,47 +7552,47 @@
         <v>33</v>
       </c>
       <c r="F91">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H91">
-        <v>9587.0337112899997</v>
+        <v>11504.44</v>
       </c>
       <c r="I91" s="5">
         <f>H91/1024</f>
-        <v>9.3623376086816403</v>
+        <v>11.2348046875</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="L91">
-        <v>175</v>
+        <v>1200</v>
       </c>
       <c r="M91">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="N91" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O91">
-        <v>23008862.5</v>
+        <v>27610635</v>
       </c>
       <c r="P91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S91">
         <f>H91/O91</f>
-        <v>4.1666700000010865E-4</v>
+        <v>4.1666698357353972E-4</v>
       </c>
       <c r="T91">
         <f>S91*1000</f>
-        <v>0.41666700000010864</v>
+        <v>0.41666698357353971</v>
       </c>
       <c r="U91">
         <f>M91/(O91/21600)</f>
-        <v>9.3876870271183563E-2</v>
+        <v>1.6428452297457121</v>
       </c>
       <c r="V91" t="s">
         <v>153</v>
@@ -7811,490 +7601,604 @@
         <v>152</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B92" t="s">
-        <v>164</v>
+        <v>108</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="C92" t="s">
-        <v>180</v>
+        <v>341</v>
       </c>
       <c r="D92" t="s">
         <v>353</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F92">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G92">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>32768</v>
+        <v>1024</v>
       </c>
       <c r="I92" s="5">
         <f>H92/1024</f>
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92" t="s">
+        <v>334</v>
       </c>
       <c r="L92">
-        <v>5600</v>
+        <v>8</v>
       </c>
       <c r="M92">
-        <v>5000</v>
+        <v>9</v>
       </c>
       <c r="N92" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="O92">
-        <v>920354500</v>
+        <v>21600</v>
       </c>
       <c r="P92" t="s">
-        <v>287</v>
+        <v>255</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>310</v>
       </c>
       <c r="S92">
         <f>H92/O92</f>
-        <v>3.5603672280626653E-5</v>
+        <v>4.7407407407407405E-2</v>
       </c>
       <c r="T92">
         <f>S92*1000</f>
-        <v>3.560367228062665E-2</v>
+        <v>47.407407407407405</v>
       </c>
       <c r="U92">
         <f>M92/(O92/21600)</f>
-        <v>0.11734608783897944</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="V92" t="s">
+        <v>152</v>
+      </c>
+      <c r="W92" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B93" t="s">
-        <v>167</v>
+        <v>108</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C93" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="D93" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E93" t="s">
         <v>18</v>
       </c>
       <c r="F93">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G93">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="H93">
-        <v>16384</v>
+        <v>2048</v>
       </c>
       <c r="I93" s="5">
         <f>H93/1024</f>
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93" t="s">
+        <v>334</v>
       </c>
       <c r="L93">
-        <v>2800</v>
+        <v>10</v>
       </c>
       <c r="M93">
-        <v>2500</v>
+        <v>18</v>
       </c>
       <c r="N93" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="O93">
-        <v>46017725</v>
+        <v>972000</v>
       </c>
       <c r="P93" t="s">
-        <v>288</v>
+        <v>255</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>310</v>
       </c>
       <c r="S93">
         <f>H93/O93</f>
-        <v>3.560367228062665E-4</v>
+        <v>2.1069958847736627E-3</v>
       </c>
       <c r="T93">
         <f>S93*1000</f>
-        <v>0.35603672280626653</v>
+        <v>2.1069958847736627</v>
       </c>
       <c r="U93">
         <f>M93/(O93/21600)</f>
-        <v>1.1734608783897944</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+      <c r="V93" t="s">
+        <v>153</v>
+      </c>
+      <c r="W93" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>336</v>
+        <v>114</v>
       </c>
       <c r="C94" t="s">
-        <v>337</v>
+        <v>115</v>
       </c>
       <c r="D94" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E94" t="s">
+        <v>33</v>
+      </c>
+      <c r="F94">
         <v>7</v>
-      </c>
-      <c r="F94">
-        <v>9</v>
       </c>
       <c r="G94">
         <v>10</v>
       </c>
       <c r="H94">
-        <v>26</v>
+        <v>4096</v>
+      </c>
+      <c r="I94" s="5">
+        <f>H94/1024</f>
+        <v>4</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" t="s">
+        <v>334</v>
       </c>
       <c r="L94">
-        <v>13</v>
+        <v>1400</v>
+      </c>
+      <c r="M94">
+        <v>2800</v>
       </c>
       <c r="N94" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+      <c r="O94">
+        <v>92035450</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>310</v>
+      </c>
+      <c r="S94">
+        <f>H94/O94</f>
+        <v>4.4504590350783313E-5</v>
+      </c>
+      <c r="T94">
+        <f>S94*1000</f>
+        <v>4.4504590350783316E-2</v>
+      </c>
+      <c r="U94">
+        <f>M94/(O94/21600)</f>
+        <v>0.65713809189828487</v>
+      </c>
+      <c r="V94" t="s">
+        <v>152</v>
+      </c>
+      <c r="W94" t="s">
+        <v>152</v>
+      </c>
+      <c r="X94" s="6">
+        <v>2.1730757E-7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="B95" t="s">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="C95" t="s">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="D95" t="s">
         <v>353</v>
       </c>
       <c r="E95" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F95">
         <v>9</v>
       </c>
       <c r="G95">
-        <v>100</v>
+        <v>5</v>
+      </c>
+      <c r="H95">
+        <v>1024</v>
       </c>
       <c r="I95" s="5">
         <f>H95/1024</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95" t="s">
+        <v>334</v>
+      </c>
+      <c r="L95">
+        <v>30</v>
       </c>
       <c r="M95">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="N95" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="O95">
-        <v>92035450</v>
+        <v>1800</v>
       </c>
       <c r="P95" t="s">
-        <v>291</v>
+        <v>255</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>310</v>
       </c>
       <c r="S95">
         <f>H95/O95</f>
-        <v>0</v>
+        <v>0.56888888888888889</v>
       </c>
       <c r="T95">
         <f>S95*1000</f>
-        <v>0</v>
+        <v>568.88888888888891</v>
       </c>
       <c r="U95">
         <f>M95/(O95/21600)</f>
-        <v>7.0407652703387669E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+      <c r="V95" t="s">
+        <v>153</v>
+      </c>
+      <c r="W95" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B96" t="s">
-        <v>187</v>
+        <v>121</v>
       </c>
       <c r="C96" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="D96" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E96" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F96">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="H96">
+        <v>38348.134845200002</v>
       </c>
       <c r="I96" s="5">
         <f>H96/1024</f>
-        <v>0</v>
+        <v>37.449350434765627</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>700</v>
       </c>
       <c r="M96">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N96" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="O96">
-        <f>9203545/2</f>
-        <v>4601772.5</v>
-      </c>
-      <c r="P96" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>294</v>
+        <v>92035450</v>
       </c>
       <c r="S96">
         <f>H96/O96</f>
-        <v>0</v>
+        <v>4.1666700000054331E-4</v>
       </c>
       <c r="T96">
         <f>S96*1000</f>
-        <v>0</v>
+        <v>0.4166670000005433</v>
       </c>
       <c r="U96">
         <f>M96/(O96/21600)</f>
-        <v>0.46938435135591777</v>
+        <v>0.23469217567795889</v>
+      </c>
+      <c r="V96" t="s">
+        <v>152</v>
+      </c>
+      <c r="W96" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="B97" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="C97" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="D97" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E97" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F97">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H97">
-        <v>0.25</v>
+        <v>76696.269690300003</v>
       </c>
       <c r="I97" s="5">
         <f>H97/1024</f>
-        <v>2.44140625E-4</v>
+        <v>74.898700869433597</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>48</v>
+        <v>2800</v>
       </c>
       <c r="M97">
-        <v>40</v>
+        <v>2800</v>
       </c>
       <c r="N97" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="O97">
-        <v>600</v>
+        <v>184070900</v>
       </c>
       <c r="S97">
         <f>H97/O97</f>
-        <v>4.1666666666666669E-4</v>
+        <v>4.1666700000000001E-4</v>
       </c>
       <c r="T97">
         <f>S97*1000</f>
-        <v>0.41666666666666669</v>
+        <v>0.41666700000000001</v>
       </c>
       <c r="U97">
         <f>M97/(O97/21600)</f>
-        <v>1440</v>
+        <v>0.32856904594914244</v>
+      </c>
+      <c r="V97" t="s">
+        <v>152</v>
+      </c>
+      <c r="W97" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="B98" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="C98" t="s">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="D98" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E98" t="s">
+        <v>33</v>
+      </c>
+      <c r="F98">
         <v>7</v>
       </c>
-      <c r="F98">
-        <v>9</v>
-      </c>
       <c r="G98">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H98">
-        <v>12288</v>
+        <v>76696.269690300003</v>
       </c>
       <c r="I98" s="5">
         <f>H98/1024</f>
-        <v>12</v>
+        <v>74.898700869433597</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
       </c>
       <c r="L98">
-        <v>96</v>
+        <v>5600</v>
       </c>
       <c r="M98">
-        <v>40</v>
+        <v>5600</v>
       </c>
       <c r="N98" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="O98">
-        <v>21600</v>
-      </c>
-      <c r="P98" t="s">
-        <v>286</v>
+        <v>184070900</v>
       </c>
       <c r="S98">
         <f>H98/O98</f>
-        <v>0.56888888888888889</v>
+        <v>4.1666700000000001E-4</v>
       </c>
       <c r="T98">
         <f>S98*1000</f>
-        <v>568.88888888888891</v>
+        <v>0.41666700000000001</v>
       </c>
       <c r="U98">
         <f>M98/(O98/21600)</f>
-        <v>40</v>
+        <v>0.65713809189828487</v>
+      </c>
+      <c r="V98" t="s">
+        <v>152</v>
+      </c>
+      <c r="W98" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="B99" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="C99" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="D99" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E99" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F99">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G99">
-        <v>0.05</v>
+        <v>21</v>
       </c>
       <c r="H99">
-        <v>0.5</v>
+        <v>115044.40453499999</v>
       </c>
       <c r="I99" s="5">
         <f>H99/1024</f>
-        <v>4.8828125E-4</v>
+        <v>112.34805130371093</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>24</v>
+        <v>12600</v>
       </c>
       <c r="M99">
-        <v>40</v>
+        <v>12600</v>
       </c>
       <c r="N99" t="s">
-        <v>324</v>
+        <v>240</v>
       </c>
       <c r="O99">
-        <v>1200</v>
+        <v>276106350</v>
       </c>
       <c r="S99">
         <f>H99/O99</f>
-        <v>4.1666666666666669E-4</v>
+        <v>4.1666699999837019E-4</v>
       </c>
       <c r="T99">
         <f>S99*1000</f>
-        <v>0.41666666666666669</v>
+        <v>0.4166669999983702</v>
       </c>
       <c r="U99">
         <f>M99/(O99/21600)</f>
-        <v>720</v>
+        <v>0.98570713784742725</v>
+      </c>
+      <c r="V99" t="s">
+        <v>152</v>
+      </c>
+      <c r="W99" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B100" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C100" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D100" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E100" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F100">
         <v>9</v>
       </c>
       <c r="G100">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H100">
-        <v>1024</v>
+        <v>76696.269690300003</v>
       </c>
       <c r="I100" s="5">
         <f>H100/1024</f>
-        <v>1</v>
+        <v>74.898700869433597</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
-      <c r="K100" t="s">
-        <v>334</v>
-      </c>
       <c r="L100">
-        <v>30</v>
+        <v>12600</v>
       </c>
       <c r="M100">
-        <v>30</v>
+        <v>12600</v>
       </c>
       <c r="N100" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="O100">
-        <v>1800</v>
-      </c>
-      <c r="P100" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>310</v>
+        <v>184070900</v>
       </c>
       <c r="S100">
         <f>H100/O100</f>
-        <v>0.56888888888888889</v>
+        <v>4.1666700000000001E-4</v>
       </c>
       <c r="T100">
         <f>S100*1000</f>
-        <v>568.88888888888891</v>
+        <v>0.41666700000000001</v>
       </c>
       <c r="U100">
         <f>M100/(O100/21600)</f>
-        <v>360</v>
+        <v>1.478560706771141</v>
       </c>
       <c r="V100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W100" t="s">
         <v>152</v>
@@ -8821,62 +8725,65 @@
         <v>97</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>100</v>
+        <v>343</v>
       </c>
       <c r="C111" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D111" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E111" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F111">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H111">
-        <v>270</v>
+        <v>0.53333333333333299</v>
       </c>
       <c r="I111" s="5">
         <f>H111/1024</f>
-        <v>0.263671875</v>
+        <v>5.20833333333333E-4</v>
       </c>
       <c r="J111">
         <v>0</v>
       </c>
       <c r="L111">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="M111">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="N111" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="O111">
-        <v>648000</v>
+        <v>60</v>
       </c>
       <c r="P111" t="s">
-        <v>308</v>
+        <v>255</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>310</v>
       </c>
       <c r="S111">
         <f>H111/O111</f>
-        <v>4.1666666666666669E-4</v>
+        <v>8.8888888888888837E-3</v>
       </c>
       <c r="T111">
         <f>S111*1000</f>
-        <v>0.41666666666666669</v>
+        <v>8.888888888888884</v>
       </c>
       <c r="U111">
         <f>M111/(O111/21600)</f>
-        <v>1.6666666666666667</v>
+        <v>2520</v>
       </c>
       <c r="V111" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W111" t="s">
         <v>152</v>
@@ -8884,32 +8791,41 @@
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B112" t="s">
-        <v>212</v>
+        <v>97</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="C112" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="D112" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E112" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F112">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G112">
-        <v>100</v>
+        <v>0.5</v>
+      </c>
+      <c r="H112">
+        <v>2700</v>
       </c>
       <c r="I112" s="5">
         <f>H112/1024</f>
-        <v>0</v>
+        <v>2.63671875</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>9</v>
       </c>
       <c r="M112">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="N112" t="s">
         <v>237</v>
@@ -8918,183 +8834,237 @@
         <v>648000</v>
       </c>
       <c r="P112" t="s">
-        <v>286</v>
+        <v>308</v>
+      </c>
+      <c r="R112" t="s">
+        <v>309</v>
       </c>
       <c r="S112">
         <f>H112/O112</f>
-        <v>0</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="T112">
         <f>S112*1000</f>
-        <v>0</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="U112">
         <f>M112/(O112/21600)</f>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="V112" t="s">
+        <v>152</v>
+      </c>
+      <c r="W112" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B113" t="s">
-        <v>194</v>
+        <v>97</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="C113" t="s">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="D113" t="s">
         <v>353</v>
       </c>
       <c r="E113" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F113">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G113">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>191740.674226</v>
       </c>
       <c r="I113" s="5">
         <f>H113/1024</f>
-        <v>0</v>
+        <v>187.24675217382813</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>14000</v>
       </c>
       <c r="M113">
-        <v>450</v>
+        <v>12500</v>
       </c>
       <c r="N113" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="O113">
-        <v>92035450</v>
+        <v>460177250</v>
       </c>
       <c r="P113" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="S113">
         <f>H113/O113</f>
-        <v>0</v>
+        <v>4.1666700000054325E-4</v>
       </c>
       <c r="T113">
         <f>S113*1000</f>
-        <v>0</v>
+        <v>0.41666700000054324</v>
       </c>
       <c r="U113">
-        <f>M113/(O113/21600)</f>
-        <v>0.1056114790550815</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+        <f>L113/(O113/21600)</f>
+        <v>0.65713809189828487</v>
+      </c>
+      <c r="V113" t="s">
+        <v>153</v>
+      </c>
+      <c r="W113" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B114" t="s">
-        <v>189</v>
+        <v>97</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="C114" t="s">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="D114" t="s">
         <v>353</v>
       </c>
       <c r="E114" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F114">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G114">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>95870.337112900001</v>
       </c>
       <c r="I114" s="5">
         <f>H114/1024</f>
-        <v>0</v>
+        <v>93.623376086816407</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>7000</v>
       </c>
       <c r="M114">
-        <v>250</v>
+        <v>6250</v>
       </c>
       <c r="N114" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O114">
-        <v>648000</v>
+        <v>230088625</v>
       </c>
       <c r="P114" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="S114">
         <f>H114/O114</f>
-        <v>0</v>
+        <v>4.1666700000010865E-4</v>
       </c>
       <c r="T114">
         <f>S114*1000</f>
-        <v>0</v>
+        <v>0.41666700000010864</v>
       </c>
       <c r="U114">
-        <f>M114/(O114/21600)</f>
-        <v>8.3333333333333339</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+        <f>L114/(O114/21600)</f>
+        <v>0.65713809189828487</v>
+      </c>
+      <c r="V114" t="s">
+        <v>153</v>
+      </c>
+      <c r="W114" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B115" t="s">
-        <v>188</v>
+        <v>97</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="C115" t="s">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="D115" t="s">
         <v>353</v>
       </c>
       <c r="E115" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F115">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G115">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>19174.067422600001</v>
       </c>
       <c r="I115" s="5">
         <f>H115/1024</f>
-        <v>0</v>
+        <v>18.724675217382813</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>350</v>
       </c>
       <c r="M115">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N115" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="O115">
-        <v>1944000</v>
+        <v>46017725</v>
       </c>
       <c r="P115" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="S115">
         <f>H115/O115</f>
-        <v>0</v>
+        <v>4.1666700000054331E-4</v>
       </c>
       <c r="T115">
         <f>S115*1000</f>
-        <v>0</v>
+        <v>0.4166670000005433</v>
       </c>
       <c r="U115">
         <f>M115/(O115/21600)</f>
-        <v>1.1111111111111112</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+        <v>9.3876870271183563E-2</v>
+      </c>
+      <c r="V115" t="s">
+        <v>153</v>
+      </c>
+      <c r="W115" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B116" t="s">
-        <v>208</v>
+        <v>97</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C116" t="s">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="D116" t="s">
         <v>353</v>
@@ -9103,100 +9073,129 @@
         <v>33</v>
       </c>
       <c r="F116">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>9587.0337112899997</v>
       </c>
       <c r="I116" s="5">
         <f>H116/1024</f>
-        <v>0</v>
+        <v>9.3623376086816403</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>175</v>
       </c>
       <c r="M116">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="N116" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="O116">
-        <v>92035450</v>
+        <v>23008862.5</v>
       </c>
       <c r="P116" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="S116">
         <f>H116/O116</f>
-        <v>0</v>
+        <v>4.1666700000010865E-4</v>
       </c>
       <c r="T116">
         <f>S116*1000</f>
-        <v>0</v>
+        <v>0.41666700000010864</v>
       </c>
       <c r="U116">
         <f>M116/(O116/21600)</f>
-        <v>1.1734608783897944</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+        <v>9.3876870271183563E-2</v>
+      </c>
+      <c r="V116" t="s">
+        <v>153</v>
+      </c>
+      <c r="W116" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B117" t="s">
-        <v>183</v>
+        <v>97</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="C117" t="s">
-        <v>211</v>
+        <v>107</v>
       </c>
       <c r="D117" t="s">
         <v>353</v>
       </c>
       <c r="E117" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F117">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G117">
-        <v>1000</v>
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>270</v>
       </c>
       <c r="I117" s="5">
         <f>H117/1024</f>
-        <v>0</v>
+        <v>0.263671875</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>100</v>
       </c>
       <c r="M117">
-        <v>30000</v>
+        <v>50</v>
       </c>
       <c r="N117" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O117">
-        <v>276106350</v>
+        <v>648000</v>
       </c>
       <c r="P117" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="S117">
         <f>H117/O117</f>
-        <v>0</v>
+        <v>4.1666666666666669E-4</v>
       </c>
       <c r="T117">
         <f>S117*1000</f>
-        <v>0</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="U117">
         <f>M117/(O117/21600)</f>
-        <v>2.3469217567795888</v>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="V117" t="s">
+        <v>153</v>
+      </c>
+      <c r="W117" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X117">
-    <sortCondition ref="D2:D117" customList="sss,sk"/>
+    <sortCondition ref="A2:A117" customList="sss,sk"/>
     <sortCondition ref="F2:F117"/>
-    <sortCondition ref="A2:A117"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q22" r:id="rId1" xr:uid="{4E7DB1A6-77C6-4352-80A0-03A14728DEBF}"/>
+    <hyperlink ref="Q18" r:id="rId1" xr:uid="{4E7DB1A6-77C6-4352-80A0-03A14728DEBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
